--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="174">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -582,6 +582,12 @@
   </si>
   <si>
     <t>1230433</t>
+  </si>
+  <si>
+    <t>1230442</t>
+  </si>
+  <si>
+    <t>1230443</t>
   </si>
 </sst>
 </file>
@@ -5210,7 +5216,7 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>112</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="177">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -588,6 +588,15 @@
   </si>
   <si>
     <t>1230443</t>
+  </si>
+  <si>
+    <t>1243931</t>
+  </si>
+  <si>
+    <t>1243932</t>
+  </si>
+  <si>
+    <t>1243959</t>
   </si>
 </sst>
 </file>
@@ -5216,7 +5225,7 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>112</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="178">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -597,6 +597,9 @@
   </si>
   <si>
     <t>1243959</t>
+  </si>
+  <si>
+    <t>1244016</t>
   </si>
 </sst>
 </file>
@@ -5225,7 +5228,7 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>112</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="179">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -600,6 +600,9 @@
   </si>
   <si>
     <t>1244016</t>
+  </si>
+  <si>
+    <t>1244017</t>
   </si>
 </sst>
 </file>
@@ -5228,7 +5231,7 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>112</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51523D-AE72-4A47-9A79-032690907CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8DA02-6C32-4BB0-83CC-C37022ED0391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERR_Approve_Reject" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="171">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -377,9 +377,6 @@
     <t>Overall Status</t>
   </si>
   <si>
-    <t>VHN0MTIzNDU2Nw==</t>
-  </si>
-  <si>
     <t>obsolete</t>
   </si>
   <si>
@@ -404,205 +401,184 @@
     <t>Final Approval by -WB350333</t>
   </si>
   <si>
+    <t>TC_001 Failed</t>
+  </si>
+  <si>
+    <t>1230305</t>
+  </si>
+  <si>
+    <t>1230278</t>
+  </si>
+  <si>
+    <t>ZWFARINB</t>
+  </si>
+  <si>
+    <t>ZWF_LIST_INBOX</t>
+  </si>
+  <si>
+    <t>Display Workflow Inbox for a User</t>
+  </si>
+  <si>
+    <t>Reimbursement For</t>
+  </si>
+  <si>
+    <t>516161</t>
+  </si>
+  <si>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Invoice Receipt No</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Expense Type</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>On/Off</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>TC_024</t>
+  </si>
+  <si>
+    <t>TC_025</t>
+  </si>
+  <si>
+    <t>TC_026</t>
+  </si>
+  <si>
+    <t>TC_027</t>
+  </si>
+  <si>
+    <t>TC_028</t>
+  </si>
+  <si>
+    <t>TC_029</t>
+  </si>
+  <si>
+    <t>TC_030</t>
+  </si>
+  <si>
+    <t>TC_031</t>
+  </si>
+  <si>
+    <t>TC_032</t>
+  </si>
+  <si>
+    <t>TC_033</t>
+  </si>
+  <si>
+    <t>TC_034</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>TC_036</t>
+  </si>
+  <si>
+    <t>TC_037</t>
+  </si>
+  <si>
+    <t>TC_038</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>TC_040</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
+    <t>09/11/2021</t>
+  </si>
+  <si>
+    <t>09/22/2021</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>VHN0MTIzNDU2Nzg=</t>
+  </si>
+  <si>
+    <t>1244058</t>
+  </si>
+  <si>
     <t>Rejected by Approver -WB350333</t>
-  </si>
-  <si>
-    <t>TC_001 Failed</t>
-  </si>
-  <si>
-    <t>1230305</t>
-  </si>
-  <si>
-    <t>1230278</t>
-  </si>
-  <si>
-    <t>ZWFARINB</t>
-  </si>
-  <si>
-    <t>ZWF_LIST_INBOX</t>
-  </si>
-  <si>
-    <t>Display Workflow Inbox for a User</t>
-  </si>
-  <si>
-    <t>Reimbursement For</t>
-  </si>
-  <si>
-    <t>516161</t>
-  </si>
-  <si>
-    <t>Invoice Date</t>
-  </si>
-  <si>
-    <t>Invoice Receipt No</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Expense Type</t>
-  </si>
-  <si>
-    <t>Bank Charges</t>
-  </si>
-  <si>
-    <t>On/Off</t>
-  </si>
-  <si>
-    <t>1230449</t>
-  </si>
-  <si>
-    <t>TC_003</t>
-  </si>
-  <si>
-    <t>TC_004</t>
-  </si>
-  <si>
-    <t>TC_005</t>
-  </si>
-  <si>
-    <t>TC_006</t>
-  </si>
-  <si>
-    <t>TC_007</t>
-  </si>
-  <si>
-    <t>TC_008</t>
-  </si>
-  <si>
-    <t>TC_009</t>
-  </si>
-  <si>
-    <t>TC_010</t>
-  </si>
-  <si>
-    <t>TC_011</t>
-  </si>
-  <si>
-    <t>TC_012</t>
-  </si>
-  <si>
-    <t>TC_013</t>
-  </si>
-  <si>
-    <t>TC_014</t>
-  </si>
-  <si>
-    <t>TC_015</t>
-  </si>
-  <si>
-    <t>TC_016</t>
-  </si>
-  <si>
-    <t>TC_017</t>
-  </si>
-  <si>
-    <t>TC_018</t>
-  </si>
-  <si>
-    <t>TC_019</t>
-  </si>
-  <si>
-    <t>TC_020</t>
-  </si>
-  <si>
-    <t>TC_021</t>
-  </si>
-  <si>
-    <t>TC_022</t>
-  </si>
-  <si>
-    <t>TC_023</t>
-  </si>
-  <si>
-    <t>TC_024</t>
-  </si>
-  <si>
-    <t>TC_025</t>
-  </si>
-  <si>
-    <t>TC_026</t>
-  </si>
-  <si>
-    <t>TC_027</t>
-  </si>
-  <si>
-    <t>TC_028</t>
-  </si>
-  <si>
-    <t>TC_029</t>
-  </si>
-  <si>
-    <t>TC_030</t>
-  </si>
-  <si>
-    <t>TC_031</t>
-  </si>
-  <si>
-    <t>TC_032</t>
-  </si>
-  <si>
-    <t>TC_033</t>
-  </si>
-  <si>
-    <t>TC_034</t>
-  </si>
-  <si>
-    <t>TC_035</t>
-  </si>
-  <si>
-    <t>TC_036</t>
-  </si>
-  <si>
-    <t>TC_037</t>
-  </si>
-  <si>
-    <t>TC_038</t>
-  </si>
-  <si>
-    <t>TC_039</t>
-  </si>
-  <si>
-    <t>TC_040</t>
-  </si>
-  <si>
-    <t>09/05/2021</t>
-  </si>
-  <si>
-    <t>09/12/2021</t>
-  </si>
-  <si>
-    <t>09/11/2021</t>
-  </si>
-  <si>
-    <t>09/22/2021</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>1230433</t>
-  </si>
-  <si>
-    <t>1230442</t>
-  </si>
-  <si>
-    <t>1230443</t>
-  </si>
-  <si>
-    <t>1243931</t>
-  </si>
-  <si>
-    <t>1243932</t>
-  </si>
-  <si>
-    <t>1243959</t>
-  </si>
-  <si>
-    <t>1244016</t>
-  </si>
-  <si>
-    <t>1244017</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1333,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,14 +1342,23 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1389,24 +1372,17 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1882,14 +1858,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>920750</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="317500"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9218" name="Check Box 2" hidden="1">
@@ -1898,7 +1879,7 @@
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D686F4B5-7BB5-423F-A5C8-C0D63E0EDA1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1938,7 +1919,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1965,7 +1946,7 @@
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9726D3FE-9490-4898-96DF-C0F3EA6A7399}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2032,7 +2013,7 @@
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD5CE36-3191-4149-84E8-2DF6ABCBECA4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2099,7 +2080,7 @@
                   <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E378E5A-E9AD-4557-9BC6-15E5AA6F8142}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2166,7 +2147,7 @@
                   <a14:compatExt spid="_x0000_s9222"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3489AC-4D02-443A-BC83-884EF1C97FF9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2233,7 +2214,7 @@
                   <a14:compatExt spid="_x0000_s9223"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC2ED3E3-CA2A-47F8-87E2-AFDA9005F25F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2300,7 +2281,7 @@
                   <a14:compatExt spid="_x0000_s9224"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83EF8EE-F8AF-402E-932A-0AFDEF2E4E99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2367,7 +2348,7 @@
                   <a14:compatExt spid="_x0000_s9225"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B39BB952-B004-4E6D-B0FF-0B98909B1DBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2434,7 +2415,7 @@
                   <a14:compatExt spid="_x0000_s9226"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B60FBB-F481-4E0C-996C-088B18C44129}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2501,7 +2482,7 @@
                   <a14:compatExt spid="_x0000_s9227"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C4CA7A-2CC3-4B03-BF7E-FC35D81578BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2568,7 +2549,7 @@
                   <a14:compatExt spid="_x0000_s9228"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156CCDDB-8598-4583-A8B2-0062F92537A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2635,7 +2616,7 @@
                   <a14:compatExt spid="_x0000_s9229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D454A128-0E65-4794-A116-7BF168B70DC1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2702,7 +2683,7 @@
                   <a14:compatExt spid="_x0000_s9230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E82398-0ECB-4041-94A3-4825D6DA7ED5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2769,7 +2750,7 @@
                   <a14:compatExt spid="_x0000_s9231"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329D8097-01F3-4F47-A4AB-2310B6718C0D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2836,7 +2817,7 @@
                   <a14:compatExt spid="_x0000_s9232"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30B0FE2-7355-4588-B1B4-EF29C98BBD34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2903,7 +2884,7 @@
                   <a14:compatExt spid="_x0000_s9233"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD986B7-DCBD-440B-820A-F52B37D1CB62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2970,7 +2951,7 @@
                   <a14:compatExt spid="_x0000_s9234"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{265BC517-F1E7-4FB1-943D-D067E24F3585}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3037,7 +3018,7 @@
                   <a14:compatExt spid="_x0000_s9235"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B783ED9E-ECFF-4400-998D-078D0468505D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3104,7 +3085,7 @@
                   <a14:compatExt spid="_x0000_s9236"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5121C64-5744-4909-A81C-AFECC268C809}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3171,7 +3152,7 @@
                   <a14:compatExt spid="_x0000_s9237"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B6E1FB-D1FB-4A5A-A16C-F596CA2064CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3238,7 +3219,7 @@
                   <a14:compatExt spid="_x0000_s9238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43626F37-9C5C-4D27-A723-6A811232E478}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3305,7 +3286,7 @@
                   <a14:compatExt spid="_x0000_s9239"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1785D45D-3274-4800-AC39-C172484B1C26}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3372,7 +3353,7 @@
                   <a14:compatExt spid="_x0000_s9240"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C624AE01-384F-40E5-AE9D-928048868A95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3439,7 +3420,7 @@
                   <a14:compatExt spid="_x0000_s9241"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD36EA8-99F5-4973-9FAF-C57E81D23164}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3506,7 +3487,7 @@
                   <a14:compatExt spid="_x0000_s9242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED60107-5D81-4C0E-B31F-CAF5175E7B1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3573,7 +3554,7 @@
                   <a14:compatExt spid="_x0000_s9243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FC647F-BFE1-4018-8807-554C844E7DF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3640,7 +3621,7 @@
                   <a14:compatExt spid="_x0000_s9244"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2561F9B7-7FFD-44F4-B5E4-992D45C5B0BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3707,7 +3688,7 @@
                   <a14:compatExt spid="_x0000_s9245"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E82F354D-2030-4DDE-BC54-7946CE9392CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3774,7 +3755,7 @@
                   <a14:compatExt spid="_x0000_s9246"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBA0E48-8976-4C72-9047-0B18ACDAFC2C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3841,7 +3822,7 @@
                   <a14:compatExt spid="_x0000_s9247"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10E1261-914B-421D-B383-1FC686637BB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3908,7 +3889,7 @@
                   <a14:compatExt spid="_x0000_s9248"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9BC697-0220-4A9A-A56E-EB021502A611}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3975,7 +3956,7 @@
                   <a14:compatExt spid="_x0000_s9249"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC67878-436D-4A12-9C1D-C7E064203A14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4042,7 +4023,7 @@
                   <a14:compatExt spid="_x0000_s9250"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F6F58D-D0F6-4CE4-88C1-A846A11C3FF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4109,7 +4090,7 @@
                   <a14:compatExt spid="_x0000_s9251"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3E9C8A-E307-4614-96E9-31046FD3D774}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4176,7 +4157,7 @@
                   <a14:compatExt spid="_x0000_s9252"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD28A9CF-2ABA-42E6-A664-EBAFE9EE1AF4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4243,7 +4224,7 @@
                   <a14:compatExt spid="_x0000_s9253"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48517E7C-A7E6-41FE-8294-21A1D1F814D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4310,7 +4291,7 @@
                   <a14:compatExt spid="_x0000_s9254"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63030674-C398-4ED9-B046-F267261CBA77}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4377,7 +4358,7 @@
                   <a14:compatExt spid="_x0000_s9255"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22232EE-56C9-484B-B37C-0F3B40DC7A97}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4444,7 +4425,7 @@
                   <a14:compatExt spid="_x0000_s9256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587F8865-961E-4348-8407-9E0F1FE5FFBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4820,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>122</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>124</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>36</v>
@@ -4864,7 +4845,7 @@
         <v>102</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
@@ -4885,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="109">
         <v>44440</v>
@@ -4897,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="100"/>
       <c r="H2" s="94"/>
@@ -4912,13 +4893,13 @@
       <c r="Q2" s="94"/>
       <c r="R2" s="94"/>
       <c r="S2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T2" s="104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V2" s="110"/>
       <c r="W2" s="3"/>
@@ -5078,7 +5059,7 @@
         <v>102</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
@@ -5141,7 +5122,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="94" t="s">
         <v>95</v>
@@ -5150,13 +5131,13 @@
         <v>98</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T2" s="104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V2" s="110" t="b">
         <v>0</v>
@@ -5219,10 +5200,10 @@
         <v>78</v>
       </c>
       <c r="O3" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="94" t="s">
         <v>106</v>
-      </c>
-      <c r="P3" s="94" t="s">
-        <v>107</v>
       </c>
       <c r="Q3" s="94" t="s">
         <v>95</v>
@@ -5231,13 +5212,13 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V3" s="111" t="b">
         <v>1</v>
@@ -5321,7 +5302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5A762-0D25-4E44-922B-A1765F57DB33}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P6" sqref="P6"/>
     </sheetView>
@@ -5421,7 +5402,7 @@
         <v>102</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
@@ -5439,13 +5420,13 @@
     </row>
     <row r="2" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1" thickTop="1">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="105">
         <v>5800</v>
@@ -5484,7 +5465,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="94" t="s">
         <v>95</v>
@@ -5493,13 +5474,13 @@
         <v>98</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V2" s="111" t="b">
         <v>1</v>
@@ -5526,7 +5507,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="105">
         <v>6000</v>
@@ -5565,7 +5546,7 @@
         <v>93</v>
       </c>
       <c r="P3" s="94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="94" t="s">
         <v>95</v>
@@ -5574,13 +5555,13 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T3" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V3" s="111" t="b">
         <v>1</v>
@@ -5601,13 +5582,13 @@
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="105">
         <v>6250</v>
@@ -5646,7 +5627,7 @@
         <v>93</v>
       </c>
       <c r="P4" s="94" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="94" t="s">
         <v>95</v>
@@ -5655,13 +5636,13 @@
         <v>98</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V4" s="111" t="b">
         <v>1</v>
@@ -5682,13 +5663,13 @@
     </row>
     <row r="5" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="105">
         <v>6500</v>
@@ -5724,10 +5705,10 @@
         <v>78</v>
       </c>
       <c r="O5" s="94" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P5" s="94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="94" t="s">
         <v>95</v>
@@ -5736,13 +5717,13 @@
         <v>98</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T5" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V5" s="111" t="b">
         <v>1</v>
@@ -5763,13 +5744,13 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="105">
         <v>6550</v>
@@ -5808,7 +5789,7 @@
         <v>93</v>
       </c>
       <c r="P6" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="94" t="s">
         <v>95</v>
@@ -5817,13 +5798,13 @@
         <v>98</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V6" s="111" t="b">
         <v>1</v>
@@ -5844,13 +5825,13 @@
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="105">
         <v>6750</v>
@@ -5889,7 +5870,7 @@
         <v>93</v>
       </c>
       <c r="P7" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="94" t="s">
         <v>95</v>
@@ -5898,13 +5879,13 @@
         <v>98</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T7" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V7" s="111" t="b">
         <v>1</v>
@@ -5925,13 +5906,13 @@
     </row>
     <row r="8" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B8" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="105">
         <v>6800</v>
@@ -5970,7 +5951,7 @@
         <v>93</v>
       </c>
       <c r="P8" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="94" t="s">
         <v>95</v>
@@ -5979,13 +5960,13 @@
         <v>98</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V8" s="111" t="b">
         <v>1</v>
@@ -6006,13 +5987,13 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="105">
         <v>6900</v>
@@ -6051,7 +6032,7 @@
         <v>93</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="94" t="s">
         <v>95</v>
@@ -6060,13 +6041,13 @@
         <v>98</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V9" s="111" t="b">
         <v>1</v>
@@ -6087,13 +6068,13 @@
     </row>
     <row r="10" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B10" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="105">
         <v>7000</v>
@@ -6132,7 +6113,7 @@
         <v>93</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="94" t="s">
         <v>95</v>
@@ -6141,13 +6122,13 @@
         <v>98</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V10" s="111" t="b">
         <v>1</v>
@@ -6168,13 +6149,13 @@
     </row>
     <row r="11" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="105">
         <v>6100</v>
@@ -6213,7 +6194,7 @@
         <v>93</v>
       </c>
       <c r="P11" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="94" t="s">
         <v>95</v>
@@ -6222,13 +6203,13 @@
         <v>98</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V11" s="111" t="b">
         <v>1</v>
@@ -6249,13 +6230,13 @@
     </row>
     <row r="12" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="105">
         <v>6200</v>
@@ -6294,7 +6275,7 @@
         <v>93</v>
       </c>
       <c r="P12" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="94" t="s">
         <v>95</v>
@@ -6303,13 +6284,13 @@
         <v>98</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V12" s="111" t="b">
         <v>1</v>
@@ -6330,13 +6311,13 @@
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="105">
         <v>7700</v>
@@ -6375,7 +6356,7 @@
         <v>93</v>
       </c>
       <c r="P13" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="94" t="s">
         <v>95</v>
@@ -6384,13 +6365,13 @@
         <v>98</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V13" s="111" t="b">
         <v>1</v>
@@ -6411,13 +6392,13 @@
     </row>
     <row r="14" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="105">
         <v>7500</v>
@@ -6456,7 +6437,7 @@
         <v>93</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="94" t="s">
         <v>95</v>
@@ -6465,13 +6446,13 @@
         <v>98</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V14" s="111" t="b">
         <v>1</v>
@@ -6492,13 +6473,13 @@
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="105">
         <v>7400</v>
@@ -6537,7 +6518,7 @@
         <v>93</v>
       </c>
       <c r="P15" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="94" t="s">
         <v>95</v>
@@ -6546,13 +6527,13 @@
         <v>98</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T15" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V15" s="111" t="b">
         <v>1</v>
@@ -6573,13 +6554,13 @@
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="105">
         <v>7440</v>
@@ -6618,7 +6599,7 @@
         <v>93</v>
       </c>
       <c r="P16" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="94" t="s">
         <v>95</v>
@@ -6627,13 +6608,13 @@
         <v>98</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V16" s="111" t="b">
         <v>1</v>
@@ -6654,13 +6635,13 @@
     </row>
     <row r="17" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B17" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="105">
         <v>8015</v>
@@ -6699,7 +6680,7 @@
         <v>93</v>
       </c>
       <c r="P17" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="94" t="s">
         <v>95</v>
@@ -6708,13 +6689,13 @@
         <v>98</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T17" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V17" s="111" t="b">
         <v>1</v>
@@ -6735,13 +6716,13 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B18" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="105">
         <v>8888</v>
@@ -6780,7 +6761,7 @@
         <v>93</v>
       </c>
       <c r="P18" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q18" s="94" t="s">
         <v>95</v>
@@ -6789,13 +6770,13 @@
         <v>98</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T18" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V18" s="111" t="b">
         <v>1</v>
@@ -6816,13 +6797,13 @@
     </row>
     <row r="19" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B19" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="105">
         <v>8000</v>
@@ -6861,7 +6842,7 @@
         <v>93</v>
       </c>
       <c r="P19" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="94" t="s">
         <v>95</v>
@@ -6870,13 +6851,13 @@
         <v>98</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T19" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V19" s="111" t="b">
         <v>1</v>
@@ -6897,13 +6878,13 @@
     </row>
     <row r="20" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B20" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="105">
         <v>8250</v>
@@ -6942,7 +6923,7 @@
         <v>93</v>
       </c>
       <c r="P20" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="94" t="s">
         <v>95</v>
@@ -6951,13 +6932,13 @@
         <v>98</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V20" s="111" t="b">
         <v>1</v>
@@ -6978,13 +6959,13 @@
     </row>
     <row r="21" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B21" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="105">
         <v>8300</v>
@@ -7023,7 +7004,7 @@
         <v>93</v>
       </c>
       <c r="P21" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q21" s="94" t="s">
         <v>95</v>
@@ -7032,13 +7013,13 @@
         <v>98</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V21" s="111" t="b">
         <v>1</v>
@@ -7059,13 +7040,13 @@
     </row>
     <row r="22" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B22" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" s="105">
         <v>8500</v>
@@ -7104,7 +7085,7 @@
         <v>93</v>
       </c>
       <c r="P22" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="94" t="s">
         <v>95</v>
@@ -7113,13 +7094,13 @@
         <v>98</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T22" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V22" s="111" t="b">
         <v>1</v>
@@ -7140,13 +7121,13 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B23" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="105">
         <v>8550</v>
@@ -7185,7 +7166,7 @@
         <v>93</v>
       </c>
       <c r="P23" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="94" t="s">
         <v>95</v>
@@ -7194,13 +7175,13 @@
         <v>98</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V23" s="111" t="b">
         <v>1</v>
@@ -7221,13 +7202,13 @@
     </row>
     <row r="24" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B24" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" s="105">
         <v>8880</v>
@@ -7266,7 +7247,7 @@
         <v>93</v>
       </c>
       <c r="P24" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="94" t="s">
         <v>95</v>
@@ -7275,13 +7256,13 @@
         <v>98</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T24" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V24" s="111" t="b">
         <v>1</v>
@@ -7302,13 +7283,13 @@
     </row>
     <row r="25" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="105">
         <v>9000</v>
@@ -7347,7 +7328,7 @@
         <v>93</v>
       </c>
       <c r="P25" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="94" t="s">
         <v>95</v>
@@ -7356,13 +7337,13 @@
         <v>98</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T25" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U25" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V25" s="111" t="b">
         <v>1</v>
@@ -7383,13 +7364,13 @@
     </row>
     <row r="26" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" s="105">
         <v>10000</v>
@@ -7428,7 +7409,7 @@
         <v>93</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="94" t="s">
         <v>95</v>
@@ -7437,13 +7418,13 @@
         <v>98</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T26" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V26" s="111" t="b">
         <v>1</v>
@@ -7464,13 +7445,13 @@
     </row>
     <row r="27" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27" s="105">
         <v>11000</v>
@@ -7509,7 +7490,7 @@
         <v>93</v>
       </c>
       <c r="P27" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q27" s="94" t="s">
         <v>95</v>
@@ -7518,13 +7499,13 @@
         <v>98</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T27" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V27" s="111" t="b">
         <v>1</v>
@@ -7545,13 +7526,13 @@
     </row>
     <row r="28" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B28" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28" s="105">
         <v>10500</v>
@@ -7590,7 +7571,7 @@
         <v>93</v>
       </c>
       <c r="P28" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="94" t="s">
         <v>95</v>
@@ -7599,13 +7580,13 @@
         <v>98</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T28" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V28" s="111" t="b">
         <v>1</v>
@@ -7626,13 +7607,13 @@
     </row>
     <row r="29" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B29" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="105">
         <v>10100</v>
@@ -7671,7 +7652,7 @@
         <v>93</v>
       </c>
       <c r="P29" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q29" s="94" t="s">
         <v>95</v>
@@ -7680,13 +7661,13 @@
         <v>98</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T29" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V29" s="111" t="b">
         <v>1</v>
@@ -7707,13 +7688,13 @@
     </row>
     <row r="30" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B30" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="105">
         <v>10050</v>
@@ -7752,7 +7733,7 @@
         <v>93</v>
       </c>
       <c r="P30" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q30" s="94" t="s">
         <v>95</v>
@@ -7761,13 +7742,13 @@
         <v>98</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T30" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V30" s="111" t="b">
         <v>1</v>
@@ -7788,13 +7769,13 @@
     </row>
     <row r="31" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B31" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="105">
         <v>9500</v>
@@ -7833,7 +7814,7 @@
         <v>93</v>
       </c>
       <c r="P31" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q31" s="94" t="s">
         <v>95</v>
@@ -7842,13 +7823,13 @@
         <v>98</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U31" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V31" s="111" t="b">
         <v>1</v>
@@ -7869,13 +7850,13 @@
     </row>
     <row r="32" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B32" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="105">
         <v>9400</v>
@@ -7914,7 +7895,7 @@
         <v>93</v>
       </c>
       <c r="P32" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q32" s="94" t="s">
         <v>95</v>
@@ -7923,13 +7904,13 @@
         <v>98</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T32" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U32" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V32" s="111" t="b">
         <v>1</v>
@@ -7950,13 +7931,13 @@
     </row>
     <row r="33" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B33" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="105">
         <v>9900</v>
@@ -7995,7 +7976,7 @@
         <v>93</v>
       </c>
       <c r="P33" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q33" s="94" t="s">
         <v>95</v>
@@ -8004,13 +7985,13 @@
         <v>98</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U33" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V33" s="111" t="b">
         <v>1</v>
@@ -8031,13 +8012,13 @@
     </row>
     <row r="34" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="105">
         <v>9999</v>
@@ -8076,7 +8057,7 @@
         <v>93</v>
       </c>
       <c r="P34" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q34" s="94" t="s">
         <v>95</v>
@@ -8085,13 +8066,13 @@
         <v>98</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T34" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U34" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V34" s="111" t="b">
         <v>1</v>
@@ -8112,13 +8093,13 @@
     </row>
     <row r="35" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="105">
         <v>9300</v>
@@ -8157,7 +8138,7 @@
         <v>93</v>
       </c>
       <c r="P35" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q35" s="94" t="s">
         <v>95</v>
@@ -8166,13 +8147,13 @@
         <v>98</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T35" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U35" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V35" s="111" t="b">
         <v>1</v>
@@ -8193,13 +8174,13 @@
     </row>
     <row r="36" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="105">
         <v>9330</v>
@@ -8238,7 +8219,7 @@
         <v>93</v>
       </c>
       <c r="P36" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q36" s="94" t="s">
         <v>95</v>
@@ -8247,13 +8228,13 @@
         <v>98</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T36" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U36" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V36" s="111" t="b">
         <v>1</v>
@@ -8274,13 +8255,13 @@
     </row>
     <row r="37" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37" s="105">
         <v>9700</v>
@@ -8319,7 +8300,7 @@
         <v>93</v>
       </c>
       <c r="P37" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q37" s="94" t="s">
         <v>95</v>
@@ -8328,13 +8309,13 @@
         <v>98</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U37" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V37" s="111" t="b">
         <v>1</v>
@@ -8355,13 +8336,13 @@
     </row>
     <row r="38" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B38" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" s="105">
         <v>12000</v>
@@ -8400,7 +8381,7 @@
         <v>93</v>
       </c>
       <c r="P38" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q38" s="94" t="s">
         <v>95</v>
@@ -8409,13 +8390,13 @@
         <v>98</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T38" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U38" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V38" s="111" t="b">
         <v>1</v>
@@ -8436,13 +8417,13 @@
     </row>
     <row r="39" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B39" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="105">
         <v>20000</v>
@@ -8481,7 +8462,7 @@
         <v>93</v>
       </c>
       <c r="P39" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q39" s="94" t="s">
         <v>95</v>
@@ -8490,13 +8471,13 @@
         <v>98</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T39" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U39" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V39" s="111" t="b">
         <v>1</v>
@@ -8517,13 +8498,13 @@
     </row>
     <row r="40" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B40" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="105">
         <v>21000</v>
@@ -8562,7 +8543,7 @@
         <v>93</v>
       </c>
       <c r="P40" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q40" s="94" t="s">
         <v>95</v>
@@ -8571,13 +8552,13 @@
         <v>98</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T40" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U40" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V40" s="111" t="b">
         <v>1</v>
@@ -8598,13 +8579,13 @@
     </row>
     <row r="41" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" s="105">
         <v>30000</v>
@@ -8643,7 +8624,7 @@
         <v>93</v>
       </c>
       <c r="P41" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q41" s="94" t="s">
         <v>95</v>
@@ -8652,13 +8633,13 @@
         <v>98</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T41" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U41" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="V41" s="111" t="b">
         <v>1</v>
@@ -9579,15 +9560,15 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="35" width="17.6328125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" hidden="true" style="31" width="17.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="31" width="17.6328125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="31" width="20.1796875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="31" width="17.08984375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="31" width="17.54296875" collapsed="true"/>
@@ -9624,7 +9605,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>30</v>
@@ -9647,7 +9628,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>85</v>
@@ -9670,7 +9651,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>32</v>
@@ -9693,7 +9674,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>86</v>
@@ -10492,13 +10473,13 @@
     <row r="11" spans="1:14" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>116</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>118</v>
       </c>
       <c r="E11" s="68"/>
     </row>
@@ -10509,107 +10490,107 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="61"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="112"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="128"/>
       <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="61"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="112"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="128"/>
       <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="112"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="61"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="112"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="68"/>
     </row>
     <row r="17" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="61"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="112"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="61"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="112"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="68"/>
     </row>
     <row r="19" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="61"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="112"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="61"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="112"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="61"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="112"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="128"/>
       <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="61"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="61"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="61"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="61"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
       <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="24.5" customHeight="1" thickBot="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
       <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
       <c r="E27" s="73"/>
       <c r="F27" s="7"/>
       <c r="G27" s="50"/>
@@ -10623,9 +10604,9 @@
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
       <c r="E28" s="73"/>
       <c r="F28" s="8"/>
       <c r="G28" s="50"/>
@@ -10639,9 +10620,9 @@
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="73"/>
       <c r="F29" s="8"/>
       <c r="G29" s="50"/>
@@ -10655,9 +10636,9 @@
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="73"/>
       <c r="F30" s="8"/>
       <c r="G30" s="50"/>
@@ -10671,9 +10652,9 @@
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="73"/>
       <c r="F31" s="8"/>
       <c r="G31" s="50"/>
@@ -10687,9 +10668,9 @@
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
       <c r="E32" s="73"/>
       <c r="F32" s="8"/>
       <c r="G32" s="50"/>
@@ -10703,9 +10684,9 @@
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
       <c r="E33" s="73"/>
       <c r="F33" s="8"/>
       <c r="G33" s="50"/>
@@ -10719,9 +10700,9 @@
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1">
       <c r="A34" s="16"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
       <c r="E34" s="73"/>
       <c r="F34" s="8"/>
       <c r="G34" s="50"/>
@@ -10735,9 +10716,9 @@
     </row>
     <row r="35" spans="1:14" ht="25" customHeight="1">
       <c r="A35" s="16"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
       <c r="E35" s="73"/>
       <c r="F35" s="8"/>
       <c r="G35" s="50"/>
@@ -10751,9 +10732,9 @@
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A36" s="53"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="74"/>
       <c r="F36" s="9"/>
       <c r="G36" s="51"/>
@@ -10767,73 +10748,73 @@
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A37" s="16"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="121"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="122"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="117"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="117"/>
+      <c r="I37" s="125"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="117"/>
+      <c r="K37" s="125"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="117"/>
+      <c r="M37" s="125"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1">
       <c r="A38" s="16"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="122"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="123"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="118"/>
+      <c r="G38" s="126"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="118"/>
+      <c r="I38" s="126"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="118"/>
+      <c r="K38" s="126"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="118"/>
+      <c r="M38" s="126"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1">
       <c r="A39" s="16"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="122"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="123"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="118"/>
+      <c r="G39" s="126"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="118"/>
+      <c r="I39" s="126"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="118"/>
+      <c r="K39" s="126"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="118"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A40" s="16"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="123"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="119"/>
+      <c r="G40" s="127"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="119"/>
+      <c r="I40" s="127"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="119"/>
+      <c r="K40" s="127"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="119"/>
+      <c r="M40" s="127"/>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="71"/>
       <c r="F41" s="7"/>
       <c r="G41" s="21"/>
@@ -10847,9 +10828,9 @@
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1">
       <c r="A42" s="16"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
       <c r="E42" s="72"/>
       <c r="F42" s="8"/>
       <c r="G42" s="22"/>
@@ -10863,9 +10844,9 @@
     </row>
     <row r="43" spans="1:14" ht="25" customHeight="1">
       <c r="A43" s="16"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
       <c r="E43" s="72"/>
       <c r="F43" s="8"/>
       <c r="G43" s="22"/>
@@ -10879,9 +10860,9 @@
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1">
       <c r="A44" s="16"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
       <c r="E44" s="72"/>
       <c r="F44" s="8"/>
       <c r="G44" s="22"/>
@@ -10895,9 +10876,9 @@
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1">
       <c r="A45" s="16"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
       <c r="E45" s="72"/>
       <c r="F45" s="8"/>
       <c r="G45" s="22"/>
@@ -10911,9 +10892,9 @@
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1">
       <c r="A46" s="16"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
       <c r="E46" s="73"/>
       <c r="F46" s="8"/>
       <c r="G46" s="50"/>
@@ -10927,9 +10908,9 @@
     </row>
     <row r="47" spans="1:14" ht="25" customHeight="1">
       <c r="A47" s="16"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
       <c r="E47" s="72"/>
       <c r="F47" s="8"/>
       <c r="G47" s="22"/>
@@ -10943,9 +10924,9 @@
     </row>
     <row r="48" spans="1:14" ht="25" customHeight="1">
       <c r="A48" s="16"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
       <c r="E48" s="73"/>
       <c r="F48" s="8"/>
       <c r="G48" s="50"/>
@@ -10959,9 +10940,9 @@
     </row>
     <row r="49" spans="1:14" ht="25" customHeight="1">
       <c r="A49" s="16"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
       <c r="E49" s="73"/>
       <c r="F49" s="8"/>
       <c r="G49" s="50"/>
@@ -10975,9 +10956,9 @@
     </row>
     <row r="50" spans="1:14" ht="25" customHeight="1">
       <c r="A50" s="16"/>
-      <c r="B50" s="115"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
       <c r="E50" s="73"/>
       <c r="F50" s="8"/>
       <c r="G50" s="50"/>
@@ -10991,9 +10972,9 @@
     </row>
     <row r="51" spans="1:14" ht="25" customHeight="1">
       <c r="A51" s="16"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
       <c r="E51" s="73"/>
       <c r="F51" s="8"/>
       <c r="G51" s="50"/>
@@ -11007,9 +10988,9 @@
     </row>
     <row r="52" spans="1:14" ht="25" customHeight="1">
       <c r="A52" s="16"/>
-      <c r="B52" s="115"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
       <c r="E52" s="73"/>
       <c r="F52" s="8"/>
       <c r="G52" s="50"/>
@@ -11023,9 +11004,9 @@
     </row>
     <row r="53" spans="1:14" ht="25" customHeight="1">
       <c r="A53" s="16"/>
-      <c r="B53" s="115"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
       <c r="E53" s="73"/>
       <c r="F53" s="8"/>
       <c r="G53" s="50"/>
@@ -11039,9 +11020,9 @@
     </row>
     <row r="54" spans="1:14" ht="25" customHeight="1">
       <c r="A54" s="16"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="115"/>
-      <c r="D54" s="115"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
       <c r="E54" s="73"/>
       <c r="F54" s="8"/>
       <c r="G54" s="50"/>
@@ -11055,9 +11036,9 @@
     </row>
     <row r="55" spans="1:14" ht="25" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
       <c r="E55" s="73"/>
       <c r="F55" s="8"/>
       <c r="G55" s="50"/>
@@ -11071,9 +11052,9 @@
     </row>
     <row r="56" spans="1:14" ht="25" customHeight="1">
       <c r="A56" s="16"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
       <c r="E56" s="73"/>
       <c r="F56" s="8"/>
       <c r="G56" s="50"/>
@@ -11087,9 +11068,9 @@
     </row>
     <row r="57" spans="1:14" ht="25" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
       <c r="E57" s="73"/>
       <c r="F57" s="8"/>
       <c r="G57" s="50"/>
@@ -11103,9 +11084,9 @@
     </row>
     <row r="58" spans="1:14" ht="25" customHeight="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
       <c r="E58" s="73"/>
       <c r="F58" s="8"/>
       <c r="G58" s="50"/>
@@ -11119,9 +11100,9 @@
     </row>
     <row r="59" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A59" s="16"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="114"/>
       <c r="E59" s="74"/>
       <c r="F59" s="9"/>
       <c r="G59" s="51"/>
@@ -11135,8 +11116,8 @@
     </row>
     <row r="60" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
       <c r="D60" s="52"/>
       <c r="E60" s="70"/>
       <c r="F60" s="7"/>
@@ -11151,8 +11132,8 @@
     </row>
     <row r="61" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A61" s="54"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="116"/>
+      <c r="B61" s="114"/>
+      <c r="C61" s="114"/>
       <c r="D61" s="10"/>
       <c r="E61" s="75"/>
       <c r="F61" s="9"/>
@@ -11167,9 +11148,9 @@
     </row>
     <row r="62" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
       <c r="E62" s="71"/>
       <c r="F62" s="7"/>
       <c r="G62" s="25"/>
@@ -11183,9 +11164,9 @@
     </row>
     <row r="63" spans="1:14" ht="25" customHeight="1">
       <c r="A63" s="16"/>
-      <c r="B63" s="115"/>
-      <c r="C63" s="115"/>
-      <c r="D63" s="115"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
       <c r="E63" s="72"/>
       <c r="F63" s="8"/>
       <c r="G63" s="26"/>
@@ -11199,9 +11180,9 @@
     </row>
     <row r="64" spans="1:14" ht="25" customHeight="1">
       <c r="A64" s="16"/>
-      <c r="B64" s="115"/>
-      <c r="C64" s="115"/>
-      <c r="D64" s="115"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="113"/>
       <c r="E64" s="72"/>
       <c r="F64" s="8"/>
       <c r="G64" s="26"/>
@@ -11215,9 +11196,9 @@
     </row>
     <row r="65" spans="1:14" ht="25" customHeight="1">
       <c r="A65" s="16"/>
-      <c r="B65" s="115"/>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
       <c r="E65" s="73"/>
       <c r="F65" s="8"/>
       <c r="G65" s="19"/>
@@ -11231,9 +11212,9 @@
     </row>
     <row r="66" spans="1:14" ht="25" customHeight="1">
       <c r="A66" s="16"/>
-      <c r="B66" s="115"/>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
       <c r="E66" s="73"/>
       <c r="F66" s="8"/>
       <c r="G66" s="19"/>
@@ -11247,9 +11228,9 @@
     </row>
     <row r="67" spans="1:14" ht="25" customHeight="1">
       <c r="A67" s="16"/>
-      <c r="B67" s="115"/>
-      <c r="C67" s="115"/>
-      <c r="D67" s="115"/>
+      <c r="B67" s="113"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
       <c r="E67" s="73"/>
       <c r="F67" s="8"/>
       <c r="G67" s="19"/>
@@ -11263,9 +11244,9 @@
     </row>
     <row r="68" spans="1:14" ht="25" customHeight="1">
       <c r="A68" s="16"/>
-      <c r="B68" s="115"/>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
+      <c r="B68" s="113"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="113"/>
       <c r="E68" s="73"/>
       <c r="F68" s="8"/>
       <c r="G68" s="19"/>
@@ -11279,9 +11260,9 @@
     </row>
     <row r="69" spans="1:14" ht="25" customHeight="1">
       <c r="A69" s="16"/>
-      <c r="B69" s="115"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
       <c r="E69" s="73"/>
       <c r="F69" s="8"/>
       <c r="G69" s="19"/>
@@ -11295,9 +11276,9 @@
     </row>
     <row r="70" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A70" s="53"/>
-      <c r="B70" s="116"/>
-      <c r="C70" s="116"/>
-      <c r="D70" s="116"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
       <c r="E70" s="74"/>
       <c r="F70" s="9"/>
       <c r="G70" s="20"/>
@@ -11311,9 +11292,9 @@
     </row>
     <row r="71" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A71" s="55"/>
-      <c r="B71" s="114"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="120"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="121"/>
       <c r="E71" s="76"/>
       <c r="F71" s="7"/>
       <c r="G71" s="49"/>
@@ -11327,9 +11308,9 @@
     </row>
     <row r="72" spans="1:14" ht="25" customHeight="1">
       <c r="A72" s="56"/>
-      <c r="B72" s="115"/>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
+      <c r="B72" s="113"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="113"/>
       <c r="E72" s="73"/>
       <c r="F72" s="8"/>
       <c r="G72" s="50"/>
@@ -11343,9 +11324,9 @@
     </row>
     <row r="73" spans="1:14" ht="25" customHeight="1">
       <c r="A73" s="56"/>
-      <c r="B73" s="115"/>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
+      <c r="B73" s="113"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="113"/>
       <c r="E73" s="73"/>
       <c r="F73" s="8"/>
       <c r="G73" s="50"/>
@@ -11359,9 +11340,9 @@
     </row>
     <row r="74" spans="1:14" ht="25" customHeight="1">
       <c r="A74" s="56"/>
-      <c r="B74" s="115"/>
-      <c r="C74" s="115"/>
-      <c r="D74" s="115"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="113"/>
+      <c r="D74" s="113"/>
       <c r="E74" s="73"/>
       <c r="F74" s="8"/>
       <c r="G74" s="50"/>
@@ -11375,9 +11356,9 @@
     </row>
     <row r="75" spans="1:14" ht="25" customHeight="1">
       <c r="A75" s="56"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="113"/>
+      <c r="D75" s="113"/>
       <c r="E75" s="73"/>
       <c r="F75" s="8"/>
       <c r="G75" s="50"/>
@@ -11391,9 +11372,9 @@
     </row>
     <row r="76" spans="1:14" ht="25" customHeight="1">
       <c r="A76" s="56"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="113"/>
+      <c r="D76" s="113"/>
       <c r="E76" s="73"/>
       <c r="F76" s="8"/>
       <c r="G76" s="50"/>
@@ -11407,9 +11388,9 @@
     </row>
     <row r="77" spans="1:14" ht="25" customHeight="1">
       <c r="A77" s="56"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="73"/>
       <c r="F77" s="8"/>
       <c r="G77" s="50"/>
@@ -11423,9 +11404,9 @@
     </row>
     <row r="78" spans="1:14" ht="25" customHeight="1">
       <c r="A78" s="56"/>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
       <c r="E78" s="73"/>
       <c r="F78" s="8"/>
       <c r="G78" s="50"/>
@@ -11439,9 +11420,9 @@
     </row>
     <row r="79" spans="1:14" ht="25" customHeight="1">
       <c r="A79" s="56"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="113"/>
+      <c r="D79" s="113"/>
       <c r="E79" s="73"/>
       <c r="F79" s="8"/>
       <c r="G79" s="50"/>
@@ -11455,9 +11436,9 @@
     </row>
     <row r="80" spans="1:14" ht="25" customHeight="1">
       <c r="A80" s="56"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="113"/>
+      <c r="D80" s="113"/>
       <c r="E80" s="73"/>
       <c r="F80" s="8"/>
       <c r="G80" s="50"/>
@@ -11471,9 +11452,9 @@
     </row>
     <row r="81" spans="1:14" ht="25" customHeight="1">
       <c r="A81" s="56"/>
-      <c r="B81" s="115"/>
-      <c r="C81" s="115"/>
-      <c r="D81" s="115"/>
+      <c r="B81" s="113"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="113"/>
       <c r="E81" s="73"/>
       <c r="F81" s="8"/>
       <c r="G81" s="50"/>
@@ -11487,9 +11468,9 @@
     </row>
     <row r="82" spans="1:14" ht="25" customHeight="1">
       <c r="A82" s="56"/>
-      <c r="B82" s="115"/>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
       <c r="E82" s="73"/>
       <c r="F82" s="8"/>
       <c r="G82" s="50"/>
@@ -11503,9 +11484,9 @@
     </row>
     <row r="83" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A83" s="57"/>
-      <c r="B83" s="116"/>
-      <c r="C83" s="116"/>
-      <c r="D83" s="116"/>
+      <c r="B83" s="114"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
       <c r="E83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="51"/>
@@ -11519,9 +11500,9 @@
     </row>
     <row r="84" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A84" s="58"/>
-      <c r="B84" s="114"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="114"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="112"/>
       <c r="E84" s="76"/>
       <c r="F84" s="7"/>
       <c r="G84" s="49"/>
@@ -11535,9 +11516,9 @@
     </row>
     <row r="85" spans="1:14" ht="25" customHeight="1">
       <c r="A85" s="59"/>
-      <c r="B85" s="115"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="115"/>
+      <c r="B85" s="113"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="113"/>
       <c r="E85" s="73"/>
       <c r="F85" s="8"/>
       <c r="G85" s="50"/>
@@ -11551,9 +11532,9 @@
     </row>
     <row r="86" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A86" s="56"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="116"/>
+      <c r="B86" s="114"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="114"/>
       <c r="E86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="51"/>
@@ -11567,9 +11548,9 @@
     </row>
     <row r="87" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A87" s="55"/>
-      <c r="B87" s="114"/>
-      <c r="C87" s="114"/>
-      <c r="D87" s="114"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
       <c r="E87" s="76"/>
       <c r="F87" s="7"/>
       <c r="G87" s="49"/>
@@ -11583,9 +11564,9 @@
     </row>
     <row r="88" spans="1:14" ht="25" customHeight="1">
       <c r="A88" s="56"/>
-      <c r="B88" s="115"/>
-      <c r="C88" s="115"/>
-      <c r="D88" s="115"/>
+      <c r="B88" s="113"/>
+      <c r="C88" s="113"/>
+      <c r="D88" s="113"/>
       <c r="E88" s="73"/>
       <c r="F88" s="8"/>
       <c r="G88" s="50"/>
@@ -11599,9 +11580,9 @@
     </row>
     <row r="89" spans="1:14" ht="25" customHeight="1">
       <c r="A89" s="56"/>
-      <c r="B89" s="115"/>
-      <c r="C89" s="115"/>
-      <c r="D89" s="115"/>
+      <c r="B89" s="113"/>
+      <c r="C89" s="113"/>
+      <c r="D89" s="113"/>
       <c r="E89" s="73"/>
       <c r="F89" s="8"/>
       <c r="G89" s="50"/>
@@ -11615,9 +11596,9 @@
     </row>
     <row r="90" spans="1:14" ht="25" customHeight="1">
       <c r="A90" s="56"/>
-      <c r="B90" s="115"/>
-      <c r="C90" s="115"/>
-      <c r="D90" s="115"/>
+      <c r="B90" s="113"/>
+      <c r="C90" s="113"/>
+      <c r="D90" s="113"/>
       <c r="E90" s="73"/>
       <c r="F90" s="8"/>
       <c r="G90" s="50"/>
@@ -11631,9 +11612,9 @@
     </row>
     <row r="91" spans="1:14" ht="25" customHeight="1">
       <c r="A91" s="56"/>
-      <c r="B91" s="115"/>
-      <c r="C91" s="115"/>
-      <c r="D91" s="115"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
       <c r="E91" s="73"/>
       <c r="F91" s="8"/>
       <c r="G91" s="50"/>
@@ -11647,9 +11628,9 @@
     </row>
     <row r="92" spans="1:14" ht="25" customHeight="1">
       <c r="A92" s="56"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="115"/>
-      <c r="D92" s="115"/>
+      <c r="B92" s="113"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="113"/>
       <c r="E92" s="73"/>
       <c r="F92" s="8"/>
       <c r="G92" s="50"/>
@@ -11663,9 +11644,9 @@
     </row>
     <row r="93" spans="1:14" ht="25" customHeight="1">
       <c r="A93" s="56"/>
-      <c r="B93" s="115"/>
-      <c r="C93" s="115"/>
-      <c r="D93" s="115"/>
+      <c r="B93" s="113"/>
+      <c r="C93" s="113"/>
+      <c r="D93" s="113"/>
       <c r="E93" s="73"/>
       <c r="F93" s="8"/>
       <c r="G93" s="50"/>
@@ -11679,9 +11660,9 @@
     </row>
     <row r="94" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A94" s="57"/>
-      <c r="B94" s="116"/>
-      <c r="C94" s="116"/>
-      <c r="D94" s="116"/>
+      <c r="B94" s="114"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="114"/>
       <c r="E94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="51"/>
@@ -11695,9 +11676,9 @@
     </row>
     <row r="95" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A95" s="56"/>
-      <c r="B95" s="114"/>
-      <c r="C95" s="114"/>
-      <c r="D95" s="127"/>
+      <c r="B95" s="112"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="115"/>
       <c r="E95" s="73"/>
       <c r="F95" s="7"/>
       <c r="G95" s="50"/>
@@ -11711,9 +11692,9 @@
     </row>
     <row r="96" spans="1:14" ht="25" customHeight="1">
       <c r="A96" s="56"/>
-      <c r="B96" s="115"/>
-      <c r="C96" s="115"/>
-      <c r="D96" s="128"/>
+      <c r="B96" s="113"/>
+      <c r="C96" s="113"/>
+      <c r="D96" s="116"/>
       <c r="E96" s="73"/>
       <c r="F96" s="8"/>
       <c r="G96" s="50"/>
@@ -11727,9 +11708,9 @@
     </row>
     <row r="97" spans="1:14" ht="25" customHeight="1">
       <c r="A97" s="56"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="115"/>
-      <c r="D97" s="128"/>
+      <c r="B97" s="113"/>
+      <c r="C97" s="113"/>
+      <c r="D97" s="116"/>
       <c r="E97" s="73"/>
       <c r="F97" s="8"/>
       <c r="G97" s="50"/>
@@ -11743,9 +11724,9 @@
     </row>
     <row r="98" spans="1:14" ht="25" customHeight="1">
       <c r="A98" s="56"/>
-      <c r="B98" s="115"/>
-      <c r="C98" s="115"/>
-      <c r="D98" s="128"/>
+      <c r="B98" s="113"/>
+      <c r="C98" s="113"/>
+      <c r="D98" s="116"/>
       <c r="E98" s="73"/>
       <c r="F98" s="8"/>
       <c r="G98" s="50"/>
@@ -11759,9 +11740,9 @@
     </row>
     <row r="99" spans="1:14" ht="25" customHeight="1">
       <c r="A99" s="56"/>
-      <c r="B99" s="115"/>
-      <c r="C99" s="115"/>
-      <c r="D99" s="128"/>
+      <c r="B99" s="113"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="116"/>
       <c r="E99" s="73"/>
       <c r="F99" s="8"/>
       <c r="G99" s="50"/>
@@ -11775,9 +11756,9 @@
     </row>
     <row r="100" spans="1:14" ht="25" customHeight="1">
       <c r="A100" s="56"/>
-      <c r="B100" s="115"/>
-      <c r="C100" s="115"/>
-      <c r="D100" s="128"/>
+      <c r="B100" s="113"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="116"/>
       <c r="E100" s="73"/>
       <c r="F100" s="8"/>
       <c r="G100" s="50"/>
@@ -11791,9 +11772,9 @@
     </row>
     <row r="101" spans="1:14" ht="25" customHeight="1">
       <c r="A101" s="56"/>
-      <c r="B101" s="115"/>
-      <c r="C101" s="115"/>
-      <c r="D101" s="128"/>
+      <c r="B101" s="113"/>
+      <c r="C101" s="113"/>
+      <c r="D101" s="116"/>
       <c r="E101" s="73"/>
       <c r="F101" s="8"/>
       <c r="G101" s="50"/>
@@ -11807,9 +11788,9 @@
     </row>
     <row r="102" spans="1:14" ht="25" customHeight="1">
       <c r="A102" s="56"/>
-      <c r="B102" s="115"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="128"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="116"/>
       <c r="E102" s="73"/>
       <c r="F102" s="8"/>
       <c r="G102" s="50"/>
@@ -11823,9 +11804,9 @@
     </row>
     <row r="103" spans="1:14" ht="25" customHeight="1">
       <c r="A103" s="56"/>
-      <c r="B103" s="115"/>
-      <c r="C103" s="115"/>
-      <c r="D103" s="128"/>
+      <c r="B103" s="113"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="116"/>
       <c r="E103" s="73"/>
       <c r="F103" s="8"/>
       <c r="G103" s="50"/>
@@ -11839,9 +11820,9 @@
     </row>
     <row r="104" spans="1:14" ht="25" customHeight="1">
       <c r="A104" s="56"/>
-      <c r="B104" s="115"/>
-      <c r="C104" s="115"/>
-      <c r="D104" s="128"/>
+      <c r="B104" s="113"/>
+      <c r="C104" s="113"/>
+      <c r="D104" s="116"/>
       <c r="E104" s="73"/>
       <c r="F104" s="8"/>
       <c r="G104" s="50"/>
@@ -11855,9 +11836,9 @@
     </row>
     <row r="105" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A105" s="57"/>
-      <c r="B105" s="116"/>
-      <c r="C105" s="116"/>
-      <c r="D105" s="129"/>
+      <c r="B105" s="114"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="117"/>
       <c r="E105" s="73"/>
       <c r="F105" s="9"/>
       <c r="G105" s="50"/>
@@ -11871,9 +11852,9 @@
     </row>
     <row r="106" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A106" s="56"/>
-      <c r="B106" s="114"/>
-      <c r="C106" s="114"/>
-      <c r="D106" s="114"/>
+      <c r="B106" s="112"/>
+      <c r="C106" s="112"/>
+      <c r="D106" s="112"/>
       <c r="E106" s="76"/>
       <c r="F106" s="7"/>
       <c r="G106" s="49"/>
@@ -11887,9 +11868,9 @@
     </row>
     <row r="107" spans="1:14" ht="25" customHeight="1">
       <c r="A107" s="56"/>
-      <c r="B107" s="115"/>
-      <c r="C107" s="115"/>
-      <c r="D107" s="115"/>
+      <c r="B107" s="113"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="113"/>
       <c r="E107" s="73"/>
       <c r="F107" s="8"/>
       <c r="G107" s="50"/>
@@ -11903,9 +11884,9 @@
     </row>
     <row r="108" spans="1:14" ht="25" customHeight="1">
       <c r="A108" s="56"/>
-      <c r="B108" s="115"/>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
+      <c r="B108" s="113"/>
+      <c r="C108" s="113"/>
+      <c r="D108" s="113"/>
       <c r="E108" s="73"/>
       <c r="F108" s="8"/>
       <c r="G108" s="50"/>
@@ -11919,9 +11900,9 @@
     </row>
     <row r="109" spans="1:14" ht="25" customHeight="1">
       <c r="A109" s="56"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="115"/>
-      <c r="D109" s="115"/>
+      <c r="B109" s="113"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="113"/>
       <c r="E109" s="73"/>
       <c r="F109" s="8"/>
       <c r="G109" s="50"/>
@@ -11935,9 +11916,9 @@
     </row>
     <row r="110" spans="1:14" ht="25" customHeight="1">
       <c r="A110" s="56"/>
-      <c r="B110" s="115"/>
-      <c r="C110" s="115"/>
-      <c r="D110" s="115"/>
+      <c r="B110" s="113"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="113"/>
       <c r="E110" s="73"/>
       <c r="F110" s="8"/>
       <c r="G110" s="50"/>
@@ -11951,9 +11932,9 @@
     </row>
     <row r="111" spans="1:14" ht="25" customHeight="1">
       <c r="A111" s="56"/>
-      <c r="B111" s="115"/>
-      <c r="C111" s="115"/>
-      <c r="D111" s="115"/>
+      <c r="B111" s="113"/>
+      <c r="C111" s="113"/>
+      <c r="D111" s="113"/>
       <c r="E111" s="73"/>
       <c r="F111" s="8"/>
       <c r="G111" s="50"/>
@@ -11967,9 +11948,9 @@
     </row>
     <row r="112" spans="1:14" ht="25" customHeight="1">
       <c r="A112" s="56"/>
-      <c r="B112" s="115"/>
-      <c r="C112" s="115"/>
-      <c r="D112" s="115"/>
+      <c r="B112" s="113"/>
+      <c r="C112" s="113"/>
+      <c r="D112" s="113"/>
       <c r="E112" s="73"/>
       <c r="F112" s="8"/>
       <c r="G112" s="50"/>
@@ -11983,9 +11964,9 @@
     </row>
     <row r="113" spans="1:14" ht="25" customHeight="1">
       <c r="A113" s="56"/>
-      <c r="B113" s="115"/>
-      <c r="C113" s="115"/>
-      <c r="D113" s="115"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
       <c r="E113" s="73"/>
       <c r="F113" s="8"/>
       <c r="G113" s="50"/>
@@ -11999,9 +11980,9 @@
     </row>
     <row r="114" spans="1:14" ht="25" customHeight="1">
       <c r="A114" s="56"/>
-      <c r="B114" s="115"/>
-      <c r="C114" s="115"/>
-      <c r="D114" s="115"/>
+      <c r="B114" s="113"/>
+      <c r="C114" s="113"/>
+      <c r="D114" s="113"/>
       <c r="E114" s="73"/>
       <c r="F114" s="8"/>
       <c r="G114" s="50"/>
@@ -12015,9 +11996,9 @@
     </row>
     <row r="115" spans="1:14" ht="25" customHeight="1">
       <c r="A115" s="56"/>
-      <c r="B115" s="115"/>
-      <c r="C115" s="115"/>
-      <c r="D115" s="115"/>
+      <c r="B115" s="113"/>
+      <c r="C115" s="113"/>
+      <c r="D115" s="113"/>
       <c r="E115" s="73"/>
       <c r="F115" s="8"/>
       <c r="G115" s="50"/>
@@ -12031,9 +12012,9 @@
     </row>
     <row r="116" spans="1:14" ht="25" customHeight="1">
       <c r="A116" s="56"/>
-      <c r="B116" s="115"/>
-      <c r="C116" s="115"/>
-      <c r="D116" s="115"/>
+      <c r="B116" s="113"/>
+      <c r="C116" s="113"/>
+      <c r="D116" s="113"/>
       <c r="E116" s="73"/>
       <c r="F116" s="8"/>
       <c r="G116" s="50"/>
@@ -12047,9 +12028,9 @@
     </row>
     <row r="117" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A117" s="56"/>
-      <c r="B117" s="116"/>
-      <c r="C117" s="116"/>
-      <c r="D117" s="116"/>
+      <c r="B117" s="114"/>
+      <c r="C117" s="114"/>
+      <c r="D117" s="114"/>
       <c r="E117" s="74"/>
       <c r="F117" s="9"/>
       <c r="G117" s="51"/>
@@ -12063,9 +12044,9 @@
     </row>
     <row r="118" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A118" s="55"/>
-      <c r="B118" s="114"/>
-      <c r="C118" s="114"/>
-      <c r="D118" s="114"/>
+      <c r="B118" s="112"/>
+      <c r="C118" s="112"/>
+      <c r="D118" s="112"/>
       <c r="E118" s="73"/>
       <c r="F118" s="7"/>
       <c r="G118" s="50"/>
@@ -12079,9 +12060,9 @@
     </row>
     <row r="119" spans="1:14" ht="25" customHeight="1">
       <c r="A119" s="56"/>
-      <c r="B119" s="115"/>
-      <c r="C119" s="115"/>
-      <c r="D119" s="115"/>
+      <c r="B119" s="113"/>
+      <c r="C119" s="113"/>
+      <c r="D119" s="113"/>
       <c r="E119" s="73"/>
       <c r="F119" s="8"/>
       <c r="G119" s="50"/>
@@ -12095,9 +12076,9 @@
     </row>
     <row r="120" spans="1:14" ht="25" customHeight="1">
       <c r="A120" s="56"/>
-      <c r="B120" s="115"/>
-      <c r="C120" s="115"/>
-      <c r="D120" s="115"/>
+      <c r="B120" s="113"/>
+      <c r="C120" s="113"/>
+      <c r="D120" s="113"/>
       <c r="E120" s="73"/>
       <c r="F120" s="8"/>
       <c r="G120" s="50"/>
@@ -12111,9 +12092,9 @@
     </row>
     <row r="121" spans="1:14" ht="25" customHeight="1">
       <c r="A121" s="56"/>
-      <c r="B121" s="115"/>
-      <c r="C121" s="115"/>
-      <c r="D121" s="115"/>
+      <c r="B121" s="113"/>
+      <c r="C121" s="113"/>
+      <c r="D121" s="113"/>
       <c r="E121" s="73"/>
       <c r="F121" s="8"/>
       <c r="G121" s="50"/>
@@ -12127,9 +12108,9 @@
     </row>
     <row r="122" spans="1:14" ht="25" customHeight="1">
       <c r="A122" s="56"/>
-      <c r="B122" s="115"/>
-      <c r="C122" s="115"/>
-      <c r="D122" s="115"/>
+      <c r="B122" s="113"/>
+      <c r="C122" s="113"/>
+      <c r="D122" s="113"/>
       <c r="E122" s="73"/>
       <c r="F122" s="8"/>
       <c r="G122" s="50"/>
@@ -12143,9 +12124,9 @@
     </row>
     <row r="123" spans="1:14" ht="25" customHeight="1">
       <c r="A123" s="56"/>
-      <c r="B123" s="115"/>
-      <c r="C123" s="115"/>
-      <c r="D123" s="115"/>
+      <c r="B123" s="113"/>
+      <c r="C123" s="113"/>
+      <c r="D123" s="113"/>
       <c r="E123" s="73"/>
       <c r="F123" s="8"/>
       <c r="G123" s="50"/>
@@ -12159,9 +12140,9 @@
     </row>
     <row r="124" spans="1:14" ht="25" customHeight="1">
       <c r="A124" s="56"/>
-      <c r="B124" s="115"/>
-      <c r="C124" s="115"/>
-      <c r="D124" s="115"/>
+      <c r="B124" s="113"/>
+      <c r="C124" s="113"/>
+      <c r="D124" s="113"/>
       <c r="E124" s="73"/>
       <c r="F124" s="8"/>
       <c r="G124" s="50"/>
@@ -12175,9 +12156,9 @@
     </row>
     <row r="125" spans="1:14" ht="25" customHeight="1">
       <c r="A125" s="56"/>
-      <c r="B125" s="115"/>
-      <c r="C125" s="115"/>
-      <c r="D125" s="115"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
       <c r="E125" s="73"/>
       <c r="F125" s="8"/>
       <c r="G125" s="50"/>
@@ -12191,9 +12172,9 @@
     </row>
     <row r="126" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A126" s="57"/>
-      <c r="B126" s="116"/>
-      <c r="C126" s="116"/>
-      <c r="D126" s="116"/>
+      <c r="B126" s="114"/>
+      <c r="C126" s="114"/>
+      <c r="D126" s="114"/>
       <c r="E126" s="74"/>
       <c r="F126" s="9"/>
       <c r="G126" s="51"/>
@@ -12207,9 +12188,9 @@
     </row>
     <row r="127" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A127" s="56"/>
-      <c r="B127" s="114"/>
-      <c r="C127" s="114"/>
-      <c r="D127" s="114"/>
+      <c r="B127" s="112"/>
+      <c r="C127" s="112"/>
+      <c r="D127" s="112"/>
       <c r="E127" s="73"/>
       <c r="F127" s="7"/>
       <c r="G127" s="50"/>
@@ -12223,9 +12204,9 @@
     </row>
     <row r="128" spans="1:14" ht="25" customHeight="1">
       <c r="A128" s="56"/>
-      <c r="B128" s="115"/>
-      <c r="C128" s="115"/>
-      <c r="D128" s="115"/>
+      <c r="B128" s="113"/>
+      <c r="C128" s="113"/>
+      <c r="D128" s="113"/>
       <c r="E128" s="73"/>
       <c r="F128" s="8"/>
       <c r="G128" s="50"/>
@@ -12239,9 +12220,9 @@
     </row>
     <row r="129" spans="1:14" ht="25" customHeight="1">
       <c r="A129" s="56"/>
-      <c r="B129" s="115"/>
-      <c r="C129" s="115"/>
-      <c r="D129" s="115"/>
+      <c r="B129" s="113"/>
+      <c r="C129" s="113"/>
+      <c r="D129" s="113"/>
       <c r="E129" s="73"/>
       <c r="F129" s="8"/>
       <c r="G129" s="50"/>
@@ -12255,9 +12236,9 @@
     </row>
     <row r="130" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A130" s="57"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="116"/>
-      <c r="D130" s="116"/>
+      <c r="B130" s="114"/>
+      <c r="C130" s="114"/>
+      <c r="D130" s="114"/>
       <c r="E130" s="74"/>
       <c r="F130" s="9"/>
       <c r="G130" s="51"/>
@@ -12271,9 +12252,9 @@
     </row>
     <row r="131" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A131" s="56"/>
-      <c r="B131" s="114"/>
-      <c r="C131" s="114"/>
-      <c r="D131" s="114"/>
+      <c r="B131" s="112"/>
+      <c r="C131" s="112"/>
+      <c r="D131" s="112"/>
       <c r="E131" s="73"/>
       <c r="F131" s="7"/>
       <c r="G131" s="50"/>
@@ -12287,9 +12268,9 @@
     </row>
     <row r="132" spans="1:14" ht="25" customHeight="1">
       <c r="A132" s="56"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="115"/>
-      <c r="D132" s="115"/>
+      <c r="B132" s="113"/>
+      <c r="C132" s="113"/>
+      <c r="D132" s="113"/>
       <c r="E132" s="73"/>
       <c r="F132" s="8"/>
       <c r="G132" s="50"/>
@@ -12303,9 +12284,9 @@
     </row>
     <row r="133" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A133" s="57"/>
-      <c r="B133" s="116"/>
-      <c r="C133" s="116"/>
-      <c r="D133" s="116"/>
+      <c r="B133" s="114"/>
+      <c r="C133" s="114"/>
+      <c r="D133" s="114"/>
       <c r="E133" s="74"/>
       <c r="F133" s="9"/>
       <c r="G133" s="51"/>
@@ -12319,9 +12300,9 @@
     </row>
     <row r="134" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A134" s="56"/>
-      <c r="B134" s="114"/>
-      <c r="C134" s="114"/>
-      <c r="D134" s="114"/>
+      <c r="B134" s="112"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="112"/>
       <c r="E134" s="73"/>
       <c r="F134" s="7"/>
       <c r="G134" s="50"/>
@@ -12335,9 +12316,9 @@
     </row>
     <row r="135" spans="1:14" ht="25" customHeight="1">
       <c r="A135" s="56"/>
-      <c r="B135" s="115"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="115"/>
+      <c r="B135" s="113"/>
+      <c r="C135" s="113"/>
+      <c r="D135" s="113"/>
       <c r="E135" s="73"/>
       <c r="F135" s="8"/>
       <c r="G135" s="50"/>
@@ -12351,9 +12332,9 @@
     </row>
     <row r="136" spans="1:14" ht="25" customHeight="1">
       <c r="A136" s="56"/>
-      <c r="B136" s="115"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="115"/>
+      <c r="B136" s="113"/>
+      <c r="C136" s="113"/>
+      <c r="D136" s="113"/>
       <c r="E136" s="73"/>
       <c r="F136" s="8"/>
       <c r="G136" s="50"/>
@@ -12367,9 +12348,9 @@
     </row>
     <row r="137" spans="1:14" ht="25" customHeight="1">
       <c r="A137" s="56"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="115"/>
+      <c r="B137" s="113"/>
+      <c r="C137" s="113"/>
+      <c r="D137" s="113"/>
       <c r="E137" s="73"/>
       <c r="F137" s="8"/>
       <c r="G137" s="50"/>
@@ -12383,9 +12364,9 @@
     </row>
     <row r="138" spans="1:14" ht="25" customHeight="1">
       <c r="A138" s="56"/>
-      <c r="B138" s="115"/>
-      <c r="C138" s="115"/>
-      <c r="D138" s="115"/>
+      <c r="B138" s="113"/>
+      <c r="C138" s="113"/>
+      <c r="D138" s="113"/>
       <c r="E138" s="73"/>
       <c r="F138" s="8"/>
       <c r="G138" s="50"/>
@@ -12399,9 +12380,9 @@
     </row>
     <row r="139" spans="1:14" ht="25" customHeight="1">
       <c r="A139" s="56"/>
-      <c r="B139" s="115"/>
-      <c r="C139" s="115"/>
-      <c r="D139" s="115"/>
+      <c r="B139" s="113"/>
+      <c r="C139" s="113"/>
+      <c r="D139" s="113"/>
       <c r="E139" s="73"/>
       <c r="F139" s="8"/>
       <c r="G139" s="50"/>
@@ -12415,9 +12396,9 @@
     </row>
     <row r="140" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A140" s="56"/>
-      <c r="B140" s="116"/>
-      <c r="C140" s="116"/>
-      <c r="D140" s="116"/>
+      <c r="B140" s="114"/>
+      <c r="C140" s="114"/>
+      <c r="D140" s="114"/>
       <c r="E140" s="73"/>
       <c r="F140" s="9"/>
       <c r="G140" s="50"/>
@@ -12431,9 +12412,9 @@
     </row>
     <row r="141" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A141" s="55"/>
-      <c r="B141" s="114"/>
-      <c r="C141" s="114"/>
-      <c r="D141" s="114"/>
+      <c r="B141" s="112"/>
+      <c r="C141" s="112"/>
+      <c r="D141" s="112"/>
       <c r="E141" s="76"/>
       <c r="F141" s="7"/>
       <c r="G141" s="49"/>
@@ -12447,9 +12428,9 @@
     </row>
     <row r="142" spans="1:14" ht="25" customHeight="1">
       <c r="A142" s="56"/>
-      <c r="B142" s="115"/>
-      <c r="C142" s="115"/>
-      <c r="D142" s="115"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
       <c r="E142" s="73"/>
       <c r="F142" s="8"/>
       <c r="G142" s="50"/>
@@ -12463,9 +12444,9 @@
     </row>
     <row r="143" spans="1:14" ht="25" customHeight="1">
       <c r="A143" s="56"/>
-      <c r="B143" s="115"/>
-      <c r="C143" s="115"/>
-      <c r="D143" s="115"/>
+      <c r="B143" s="113"/>
+      <c r="C143" s="113"/>
+      <c r="D143" s="113"/>
       <c r="E143" s="73"/>
       <c r="F143" s="8"/>
       <c r="G143" s="50"/>
@@ -12479,9 +12460,9 @@
     </row>
     <row r="144" spans="1:14" ht="25" customHeight="1">
       <c r="A144" s="56"/>
-      <c r="B144" s="115"/>
-      <c r="C144" s="115"/>
-      <c r="D144" s="115"/>
+      <c r="B144" s="113"/>
+      <c r="C144" s="113"/>
+      <c r="D144" s="113"/>
       <c r="E144" s="73"/>
       <c r="F144" s="8"/>
       <c r="G144" s="50"/>
@@ -12495,9 +12476,9 @@
     </row>
     <row r="145" spans="1:14" ht="25" customHeight="1">
       <c r="A145" s="56"/>
-      <c r="B145" s="115"/>
-      <c r="C145" s="115"/>
-      <c r="D145" s="115"/>
+      <c r="B145" s="113"/>
+      <c r="C145" s="113"/>
+      <c r="D145" s="113"/>
       <c r="E145" s="73"/>
       <c r="F145" s="8"/>
       <c r="G145" s="50"/>
@@ -12511,9 +12492,9 @@
     </row>
     <row r="146" spans="1:14" ht="25" customHeight="1">
       <c r="A146" s="56"/>
-      <c r="B146" s="115"/>
-      <c r="C146" s="115"/>
-      <c r="D146" s="115"/>
+      <c r="B146" s="113"/>
+      <c r="C146" s="113"/>
+      <c r="D146" s="113"/>
       <c r="E146" s="73"/>
       <c r="F146" s="8"/>
       <c r="G146" s="50"/>
@@ -12527,9 +12508,9 @@
     </row>
     <row r="147" spans="1:14" ht="25" customHeight="1">
       <c r="A147" s="56"/>
-      <c r="B147" s="115"/>
-      <c r="C147" s="115"/>
-      <c r="D147" s="115"/>
+      <c r="B147" s="113"/>
+      <c r="C147" s="113"/>
+      <c r="D147" s="113"/>
       <c r="E147" s="73"/>
       <c r="F147" s="8"/>
       <c r="G147" s="50"/>
@@ -12543,9 +12524,9 @@
     </row>
     <row r="148" spans="1:14" ht="25" customHeight="1">
       <c r="A148" s="56"/>
-      <c r="B148" s="115"/>
-      <c r="C148" s="115"/>
-      <c r="D148" s="115"/>
+      <c r="B148" s="113"/>
+      <c r="C148" s="113"/>
+      <c r="D148" s="113"/>
       <c r="E148" s="73"/>
       <c r="F148" s="8"/>
       <c r="G148" s="50"/>
@@ -12559,9 +12540,9 @@
     </row>
     <row r="149" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A149" s="57"/>
-      <c r="B149" s="116"/>
-      <c r="C149" s="116"/>
-      <c r="D149" s="116"/>
+      <c r="B149" s="114"/>
+      <c r="C149" s="114"/>
+      <c r="D149" s="114"/>
       <c r="E149" s="77"/>
       <c r="F149" s="9"/>
       <c r="G149" s="27"/>
@@ -12575,9 +12556,9 @@
     </row>
     <row r="150" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A150" s="56"/>
-      <c r="B150" s="114"/>
-      <c r="C150" s="114"/>
-      <c r="D150" s="114"/>
+      <c r="B150" s="112"/>
+      <c r="C150" s="112"/>
+      <c r="D150" s="112"/>
       <c r="E150" s="78"/>
       <c r="F150" s="7"/>
       <c r="G150" s="28"/>
@@ -12591,9 +12572,9 @@
     </row>
     <row r="151" spans="1:14" ht="25" customHeight="1">
       <c r="A151" s="56"/>
-      <c r="B151" s="115"/>
-      <c r="C151" s="115"/>
-      <c r="D151" s="115"/>
+      <c r="B151" s="113"/>
+      <c r="C151" s="113"/>
+      <c r="D151" s="113"/>
       <c r="E151" s="78"/>
       <c r="F151" s="8"/>
       <c r="G151" s="28"/>
@@ -12607,9 +12588,9 @@
     </row>
     <row r="152" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A152" s="57"/>
-      <c r="B152" s="116"/>
-      <c r="C152" s="116"/>
-      <c r="D152" s="116"/>
+      <c r="B152" s="114"/>
+      <c r="C152" s="114"/>
+      <c r="D152" s="114"/>
       <c r="E152" s="77"/>
       <c r="F152" s="9"/>
       <c r="G152" s="27"/>
@@ -12623,9 +12604,9 @@
     </row>
     <row r="153" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A153" s="56"/>
-      <c r="B153" s="114"/>
-      <c r="C153" s="114"/>
-      <c r="D153" s="114"/>
+      <c r="B153" s="112"/>
+      <c r="C153" s="112"/>
+      <c r="D153" s="112"/>
       <c r="E153" s="78"/>
       <c r="F153" s="7"/>
       <c r="G153" s="28"/>
@@ -12639,9 +12620,9 @@
     </row>
     <row r="154" spans="1:14" ht="25" customHeight="1">
       <c r="A154" s="56"/>
-      <c r="B154" s="115"/>
-      <c r="C154" s="115"/>
-      <c r="D154" s="115"/>
+      <c r="B154" s="113"/>
+      <c r="C154" s="113"/>
+      <c r="D154" s="113"/>
       <c r="E154" s="78"/>
       <c r="F154" s="8"/>
       <c r="G154" s="28"/>
@@ -12655,9 +12636,9 @@
     </row>
     <row r="155" spans="1:14" ht="25" customHeight="1">
       <c r="A155" s="56"/>
-      <c r="B155" s="115"/>
-      <c r="C155" s="115"/>
-      <c r="D155" s="115"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
       <c r="E155" s="78"/>
       <c r="F155" s="8"/>
       <c r="G155" s="28"/>
@@ -12671,9 +12652,9 @@
     </row>
     <row r="156" spans="1:14" ht="25" customHeight="1">
       <c r="A156" s="56"/>
-      <c r="B156" s="115"/>
-      <c r="C156" s="115"/>
-      <c r="D156" s="115"/>
+      <c r="B156" s="113"/>
+      <c r="C156" s="113"/>
+      <c r="D156" s="113"/>
       <c r="E156" s="78"/>
       <c r="F156" s="8"/>
       <c r="G156" s="28"/>
@@ -12687,9 +12668,9 @@
     </row>
     <row r="157" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A157" s="57"/>
-      <c r="B157" s="116"/>
-      <c r="C157" s="116"/>
-      <c r="D157" s="116"/>
+      <c r="B157" s="114"/>
+      <c r="C157" s="114"/>
+      <c r="D157" s="114"/>
       <c r="E157" s="77"/>
       <c r="F157" s="9"/>
       <c r="G157" s="27"/>
@@ -12703,9 +12684,9 @@
     </row>
     <row r="158" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A158" s="56"/>
-      <c r="B158" s="114"/>
-      <c r="C158" s="114"/>
-      <c r="D158" s="114"/>
+      <c r="B158" s="112"/>
+      <c r="C158" s="112"/>
+      <c r="D158" s="112"/>
       <c r="E158" s="78"/>
       <c r="F158" s="7"/>
       <c r="G158" s="28"/>
@@ -12719,9 +12700,9 @@
     </row>
     <row r="159" spans="1:14" ht="25" customHeight="1">
       <c r="A159" s="56"/>
-      <c r="B159" s="115"/>
-      <c r="C159" s="115"/>
-      <c r="D159" s="115"/>
+      <c r="B159" s="113"/>
+      <c r="C159" s="113"/>
+      <c r="D159" s="113"/>
       <c r="E159" s="78"/>
       <c r="F159" s="8"/>
       <c r="G159" s="28"/>
@@ -12735,9 +12716,9 @@
     </row>
     <row r="160" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A160" s="57"/>
-      <c r="B160" s="116"/>
-      <c r="C160" s="116"/>
-      <c r="D160" s="116"/>
+      <c r="B160" s="114"/>
+      <c r="C160" s="114"/>
+      <c r="D160" s="114"/>
       <c r="E160" s="74"/>
       <c r="F160" s="9"/>
       <c r="G160" s="51"/>
@@ -12751,9 +12732,9 @@
     </row>
     <row r="161" spans="1:19" ht="25" customHeight="1" thickTop="1">
       <c r="A161" s="56"/>
-      <c r="B161" s="114"/>
-      <c r="C161" s="114"/>
-      <c r="D161" s="114"/>
+      <c r="B161" s="112"/>
+      <c r="C161" s="112"/>
+      <c r="D161" s="112"/>
       <c r="E161" s="78"/>
       <c r="F161" s="7"/>
       <c r="G161" s="28"/>
@@ -12767,9 +12748,9 @@
     </row>
     <row r="162" spans="1:19" ht="25" customHeight="1">
       <c r="A162" s="56"/>
-      <c r="B162" s="115"/>
-      <c r="C162" s="115"/>
-      <c r="D162" s="115"/>
+      <c r="B162" s="113"/>
+      <c r="C162" s="113"/>
+      <c r="D162" s="113"/>
       <c r="E162" s="78"/>
       <c r="F162" s="8"/>
       <c r="G162" s="28"/>
@@ -12783,9 +12764,9 @@
     </row>
     <row r="163" spans="1:19" ht="25" customHeight="1">
       <c r="A163" s="56"/>
-      <c r="B163" s="115"/>
-      <c r="C163" s="115"/>
-      <c r="D163" s="115"/>
+      <c r="B163" s="113"/>
+      <c r="C163" s="113"/>
+      <c r="D163" s="113"/>
       <c r="E163" s="73"/>
       <c r="F163" s="8"/>
       <c r="G163" s="50"/>
@@ -12799,9 +12780,9 @@
     </row>
     <row r="164" spans="1:19" ht="25" customHeight="1">
       <c r="A164" s="56"/>
-      <c r="B164" s="115"/>
-      <c r="C164" s="115"/>
-      <c r="D164" s="115"/>
+      <c r="B164" s="113"/>
+      <c r="C164" s="113"/>
+      <c r="D164" s="113"/>
       <c r="E164" s="73"/>
       <c r="F164" s="8"/>
       <c r="G164" s="50"/>
@@ -12815,9 +12796,9 @@
     </row>
     <row r="165" spans="1:19" ht="25" customHeight="1">
       <c r="A165" s="56"/>
-      <c r="B165" s="115"/>
-      <c r="C165" s="115"/>
-      <c r="D165" s="115"/>
+      <c r="B165" s="113"/>
+      <c r="C165" s="113"/>
+      <c r="D165" s="113"/>
       <c r="E165" s="73"/>
       <c r="F165" s="8"/>
       <c r="G165" s="50"/>
@@ -12831,9 +12812,9 @@
     </row>
     <row r="166" spans="1:19" ht="25" customHeight="1">
       <c r="A166" s="56"/>
-      <c r="B166" s="115"/>
-      <c r="C166" s="115"/>
-      <c r="D166" s="115"/>
+      <c r="B166" s="113"/>
+      <c r="C166" s="113"/>
+      <c r="D166" s="113"/>
       <c r="E166" s="73"/>
       <c r="F166" s="8"/>
       <c r="G166" s="50"/>
@@ -12847,9 +12828,9 @@
     </row>
     <row r="167" spans="1:19" ht="25" customHeight="1">
       <c r="A167" s="56"/>
-      <c r="B167" s="115"/>
-      <c r="C167" s="115"/>
-      <c r="D167" s="115"/>
+      <c r="B167" s="113"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="113"/>
       <c r="E167" s="73"/>
       <c r="F167" s="8"/>
       <c r="G167" s="50"/>
@@ -12863,9 +12844,9 @@
     </row>
     <row r="168" spans="1:19" ht="25" customHeight="1">
       <c r="A168" s="56"/>
-      <c r="B168" s="115"/>
-      <c r="C168" s="115"/>
-      <c r="D168" s="115"/>
+      <c r="B168" s="113"/>
+      <c r="C168" s="113"/>
+      <c r="D168" s="113"/>
       <c r="E168" s="73"/>
       <c r="F168" s="8"/>
       <c r="G168" s="50"/>
@@ -12879,9 +12860,9 @@
     </row>
     <row r="169" spans="1:19" ht="25" customHeight="1">
       <c r="A169" s="56"/>
-      <c r="B169" s="115"/>
-      <c r="C169" s="115"/>
-      <c r="D169" s="115"/>
+      <c r="B169" s="113"/>
+      <c r="C169" s="113"/>
+      <c r="D169" s="113"/>
       <c r="E169" s="73"/>
       <c r="F169" s="8"/>
       <c r="G169" s="50"/>
@@ -12895,9 +12876,9 @@
     </row>
     <row r="170" spans="1:19" ht="25" customHeight="1">
       <c r="A170" s="56"/>
-      <c r="B170" s="115"/>
-      <c r="C170" s="115"/>
-      <c r="D170" s="115"/>
+      <c r="B170" s="113"/>
+      <c r="C170" s="113"/>
+      <c r="D170" s="113"/>
       <c r="E170" s="73"/>
       <c r="F170" s="8"/>
       <c r="G170" s="50"/>
@@ -12911,9 +12892,9 @@
     </row>
     <row r="171" spans="1:19" ht="25" customHeight="1">
       <c r="A171" s="56"/>
-      <c r="B171" s="115"/>
-      <c r="C171" s="115"/>
-      <c r="D171" s="115"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="113"/>
+      <c r="D171" s="113"/>
       <c r="E171" s="73"/>
       <c r="F171" s="8"/>
       <c r="G171" s="50"/>
@@ -12927,9 +12908,9 @@
     </row>
     <row r="172" spans="1:19" ht="25" customHeight="1">
       <c r="A172" s="56"/>
-      <c r="B172" s="115"/>
-      <c r="C172" s="115"/>
-      <c r="D172" s="115"/>
+      <c r="B172" s="113"/>
+      <c r="C172" s="113"/>
+      <c r="D172" s="113"/>
       <c r="E172" s="73"/>
       <c r="F172" s="8"/>
       <c r="G172" s="50"/>
@@ -12943,9 +12924,9 @@
     </row>
     <row r="173" spans="1:19" ht="25" customHeight="1">
       <c r="A173" s="56"/>
-      <c r="B173" s="115"/>
-      <c r="C173" s="115"/>
-      <c r="D173" s="115"/>
+      <c r="B173" s="113"/>
+      <c r="C173" s="113"/>
+      <c r="D173" s="113"/>
       <c r="E173" s="73"/>
       <c r="F173" s="8"/>
       <c r="G173" s="50"/>
@@ -12959,9 +12940,9 @@
     </row>
     <row r="174" spans="1:19" ht="25" customHeight="1">
       <c r="A174" s="56"/>
-      <c r="B174" s="115"/>
-      <c r="C174" s="115"/>
-      <c r="D174" s="115"/>
+      <c r="B174" s="113"/>
+      <c r="C174" s="113"/>
+      <c r="D174" s="113"/>
       <c r="E174" s="73"/>
       <c r="F174" s="8"/>
       <c r="G174" s="50"/>
@@ -12975,9 +12956,9 @@
     </row>
     <row r="175" spans="1:19" ht="25" customHeight="1" thickBot="1">
       <c r="A175" s="57"/>
-      <c r="B175" s="116"/>
-      <c r="C175" s="116"/>
-      <c r="D175" s="116"/>
+      <c r="B175" s="114"/>
+      <c r="C175" s="114"/>
+      <c r="D175" s="114"/>
       <c r="E175" s="74"/>
       <c r="F175" s="9"/>
       <c r="G175" s="51"/>
@@ -13012,45 +12993,24 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C161:C175"/>
-    <mergeCell ref="D161:D175"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="C153:C157"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="B141:B149"/>
-    <mergeCell ref="C141:C149"/>
-    <mergeCell ref="D141:D149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="C134:C140"/>
-    <mergeCell ref="D134:D140"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="C118:C126"/>
-    <mergeCell ref="D118:D126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="C95:C105"/>
-    <mergeCell ref="D95:D105"/>
-    <mergeCell ref="B106:B117"/>
-    <mergeCell ref="C106:C117"/>
-    <mergeCell ref="D106:D117"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="M37:M40"/>
+    <mergeCell ref="B41:B59"/>
+    <mergeCell ref="C41:C59"/>
+    <mergeCell ref="D41:D59"/>
     <mergeCell ref="B71:B83"/>
     <mergeCell ref="C71:C83"/>
     <mergeCell ref="D71:D83"/>
@@ -13061,24 +13021,45 @@
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="C62:C70"/>
     <mergeCell ref="D62:D70"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="M37:M40"/>
-    <mergeCell ref="B41:B59"/>
-    <mergeCell ref="C41:C59"/>
-    <mergeCell ref="D41:D59"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="C95:C105"/>
+    <mergeCell ref="D95:D105"/>
+    <mergeCell ref="B106:B117"/>
+    <mergeCell ref="C106:C117"/>
+    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="C118:C126"/>
+    <mergeCell ref="D118:D126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="C134:C140"/>
+    <mergeCell ref="D134:D140"/>
+    <mergeCell ref="B141:B149"/>
+    <mergeCell ref="C141:C149"/>
+    <mergeCell ref="D141:D149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C161:C175"/>
+    <mergeCell ref="D161:D175"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="C153:C157"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13098,12 +13079,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1955CD168AAC14C819F920356231C42" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c6f91e9e183813820c4502b10801dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="572875e0-2005-4f9c-9506-c68f9f744b62" xmlns:ns4="2b9b6cd5-951d-454f-94a9-ffa9219aaa40" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dceb2d5ed2711af0c174551cf76fa19b" ns3:_="" ns4:_="">
     <xsd:import namespace="572875e0-2005-4f9c-9506-c68f9f744b62"/>
@@ -13326,6 +13301,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A832EF-1532-484C-9DE1-0C6D83D0A316}">
   <ds:schemaRefs>
@@ -13335,23 +13316,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A633E3D6-5124-4560-9395-FBA3BD069200}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2b9b6cd5-951d-454f-94a9-ffa9219aaa40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="572875e0-2005-4f9c-9506-c68f9f744b62"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36F5A3D-695E-4142-9AA1-F895D3D71DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13368,4 +13332,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A633E3D6-5124-4560-9395-FBA3BD069200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2b9b6cd5-951d-454f-94a9-ffa9219aaa40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="572875e0-2005-4f9c-9506-c68f9f744b62"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="173">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>Rejected by Approver -WB350333</t>
+  </si>
+  <si>
+    <t>1244104</t>
+  </si>
+  <si>
+    <t>1244112</t>
   </si>
 </sst>
 </file>
@@ -5212,7 +5218,7 @@
         <v>98</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>170</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8DA02-6C32-4BB0-83CC-C37022ED0391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A1223-E215-4D4C-A7FC-2A3C6E54C51F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERR_Approve_Reject" sheetId="11" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="172">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Cost Center</t>
   </si>
   <si>
-    <t>10011</t>
-  </si>
-  <si>
     <t>500406340</t>
   </si>
   <si>
@@ -575,16 +572,16 @@
     <t>VHN0MTIzNDU2Nzg=</t>
   </si>
   <si>
-    <t>1244058</t>
+    <t>Enter the accrual amount along with the charge code and General Ledger (GL) category in the below table.</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>1244107</t>
   </si>
   <si>
     <t>Rejected by Approver -WB350333</t>
-  </si>
-  <si>
-    <t>1244104</t>
-  </si>
-  <si>
-    <t>1244112</t>
   </si>
 </sst>
 </file>
@@ -1339,6 +1336,8 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1348,23 +1347,14 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1378,17 +1368,24 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1668,8 +1665,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>317500</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4807,19 +4804,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>121</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>122</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>36</v>
@@ -4842,16 +4839,16 @@
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
       <c r="S1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="103" t="s">
-        <v>102</v>
-      </c>
       <c r="V1" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
@@ -4872,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="109">
         <v>44440</v>
@@ -4881,10 +4878,10 @@
         <v>111111</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="100"/>
       <c r="H2" s="94"/>
@@ -4899,13 +4896,13 @@
       <c r="Q2" s="94"/>
       <c r="R2" s="94"/>
       <c r="S2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T2" s="104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V2" s="110"/>
       <c r="W2" s="3"/>
@@ -4967,7 +4964,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -5008,7 +5005,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>36</v>
@@ -5020,52 +5017,52 @@
         <v>25</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="47" t="s">
-        <v>82</v>
-      </c>
       <c r="Q1" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="103" t="s">
-        <v>102</v>
-      </c>
       <c r="V1" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
@@ -5089,7 +5086,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="102">
         <v>5550</v>
@@ -5097,53 +5094,53 @@
       <c r="E2" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="99">
+        <v>530</v>
+      </c>
+      <c r="G2" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="100" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T2" s="104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V2" s="110" t="b">
         <v>0</v>
@@ -5170,7 +5167,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="105">
         <v>5750</v>
@@ -5179,52 +5176,52 @@
         <v>38</v>
       </c>
       <c r="F3" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="P3" s="94" t="s">
-        <v>106</v>
-      </c>
       <c r="Q3" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V3" s="111" t="b">
         <v>1</v>
@@ -5308,9 +5305,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5A762-0D25-4E44-922B-A1765F57DB33}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P6" sqref="P6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
@@ -5351,7 +5348,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>36</v>
@@ -5363,52 +5360,52 @@
         <v>25</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="47" t="s">
-        <v>82</v>
-      </c>
       <c r="Q1" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="103" t="s">
-        <v>102</v>
-      </c>
       <c r="V1" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W1" s="47"/>
       <c r="X1" s="47"/>
@@ -5426,13 +5423,13 @@
     </row>
     <row r="2" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1" thickTop="1">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="105">
         <v>5800</v>
@@ -5441,52 +5438,52 @@
         <v>38</v>
       </c>
       <c r="F2" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R2" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V2" s="111" t="b">
         <v>1</v>
@@ -5513,7 +5510,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="105">
         <v>6000</v>
@@ -5522,52 +5519,52 @@
         <v>38</v>
       </c>
       <c r="F3" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N3" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P3" s="94" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q3" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R3" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T3" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V3" s="111" t="b">
         <v>1</v>
@@ -5588,13 +5585,13 @@
     </row>
     <row r="4" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="105">
         <v>6250</v>
@@ -5603,52 +5600,52 @@
         <v>38</v>
       </c>
       <c r="F4" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P4" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T4" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V4" s="111" t="b">
         <v>1</v>
@@ -5669,13 +5666,13 @@
     </row>
     <row r="5" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="105">
         <v>6500</v>
@@ -5684,52 +5681,52 @@
         <v>38</v>
       </c>
       <c r="F5" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H5" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O5" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="P5" s="94" t="s">
-        <v>166</v>
-      </c>
       <c r="Q5" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R5" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V5" s="111" t="b">
         <v>1</v>
@@ -5750,13 +5747,13 @@
     </row>
     <row r="6" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="105">
         <v>6550</v>
@@ -5765,52 +5762,52 @@
         <v>38</v>
       </c>
       <c r="F6" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N6" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O6" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P6" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q6" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R6" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V6" s="111" t="b">
         <v>1</v>
@@ -5831,13 +5828,13 @@
     </row>
     <row r="7" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="105">
         <v>6750</v>
@@ -5846,52 +5843,52 @@
         <v>38</v>
       </c>
       <c r="F7" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N7" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O7" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P7" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R7" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T7" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V7" s="111" t="b">
         <v>1</v>
@@ -5912,13 +5909,13 @@
     </row>
     <row r="8" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" s="105">
         <v>6800</v>
@@ -5927,52 +5924,52 @@
         <v>38</v>
       </c>
       <c r="F8" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H8" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P8" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V8" s="111" t="b">
         <v>1</v>
@@ -5993,13 +5990,13 @@
     </row>
     <row r="9" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="105">
         <v>6900</v>
@@ -6008,52 +6005,52 @@
         <v>38</v>
       </c>
       <c r="F9" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H9" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O9" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P9" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q9" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R9" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U9" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V9" s="111" t="b">
         <v>1</v>
@@ -6074,13 +6071,13 @@
     </row>
     <row r="10" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="105">
         <v>7000</v>
@@ -6089,52 +6086,52 @@
         <v>38</v>
       </c>
       <c r="F10" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H10" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O10" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P10" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R10" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V10" s="111" t="b">
         <v>1</v>
@@ -6155,13 +6152,13 @@
     </row>
     <row r="11" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="105">
         <v>6100</v>
@@ -6170,52 +6167,52 @@
         <v>38</v>
       </c>
       <c r="F11" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M11" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O11" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P11" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R11" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U11" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V11" s="111" t="b">
         <v>1</v>
@@ -6236,13 +6233,13 @@
     </row>
     <row r="12" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="105">
         <v>6200</v>
@@ -6251,52 +6248,52 @@
         <v>38</v>
       </c>
       <c r="F12" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I12" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N12" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O12" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P12" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R12" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V12" s="111" t="b">
         <v>1</v>
@@ -6317,13 +6314,13 @@
     </row>
     <row r="13" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="105">
         <v>7700</v>
@@ -6332,52 +6329,52 @@
         <v>38</v>
       </c>
       <c r="F13" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H13" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M13" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N13" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O13" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P13" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R13" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U13" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V13" s="111" t="b">
         <v>1</v>
@@ -6398,13 +6395,13 @@
     </row>
     <row r="14" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="105">
         <v>7500</v>
@@ -6413,52 +6410,52 @@
         <v>38</v>
       </c>
       <c r="F14" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H14" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N14" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O14" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P14" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R14" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V14" s="111" t="b">
         <v>1</v>
@@ -6479,13 +6476,13 @@
     </row>
     <row r="15" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="105">
         <v>7400</v>
@@ -6494,52 +6491,52 @@
         <v>38</v>
       </c>
       <c r="F15" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H15" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M15" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O15" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P15" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R15" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T15" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V15" s="111" t="b">
         <v>1</v>
@@ -6560,13 +6557,13 @@
     </row>
     <row r="16" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="105">
         <v>7440</v>
@@ -6575,52 +6572,52 @@
         <v>38</v>
       </c>
       <c r="F16" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H16" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I16" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M16" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O16" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P16" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R16" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V16" s="111" t="b">
         <v>1</v>
@@ -6641,13 +6638,13 @@
     </row>
     <row r="17" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="105">
         <v>8015</v>
@@ -6656,52 +6653,52 @@
         <v>38</v>
       </c>
       <c r="F17" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H17" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I17" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M17" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O17" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P17" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R17" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V17" s="111" t="b">
         <v>1</v>
@@ -6722,13 +6719,13 @@
     </row>
     <row r="18" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" s="105">
         <v>8888</v>
@@ -6737,52 +6734,52 @@
         <v>38</v>
       </c>
       <c r="F18" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H18" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J18" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M18" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N18" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O18" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P18" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q18" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R18" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U18" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V18" s="111" t="b">
         <v>1</v>
@@ -6803,13 +6800,13 @@
     </row>
     <row r="19" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="105">
         <v>8000</v>
@@ -6818,52 +6815,52 @@
         <v>38</v>
       </c>
       <c r="F19" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H19" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M19" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N19" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O19" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P19" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R19" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T19" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V19" s="111" t="b">
         <v>1</v>
@@ -6884,13 +6881,13 @@
     </row>
     <row r="20" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="105">
         <v>8250</v>
@@ -6899,52 +6896,52 @@
         <v>38</v>
       </c>
       <c r="F20" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H20" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M20" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N20" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O20" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P20" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R20" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U20" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V20" s="111" t="b">
         <v>1</v>
@@ -6965,13 +6962,13 @@
     </row>
     <row r="21" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="105">
         <v>8300</v>
@@ -6980,52 +6977,52 @@
         <v>38</v>
       </c>
       <c r="F21" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H21" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I21" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J21" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M21" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N21" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O21" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P21" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R21" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V21" s="111" t="b">
         <v>1</v>
@@ -7046,13 +7043,13 @@
     </row>
     <row r="22" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D22" s="105">
         <v>8500</v>
@@ -7061,52 +7058,52 @@
         <v>38</v>
       </c>
       <c r="F22" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H22" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I22" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M22" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N22" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O22" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P22" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R22" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T22" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V22" s="111" t="b">
         <v>1</v>
@@ -7127,13 +7124,13 @@
     </row>
     <row r="23" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="105">
         <v>8550</v>
@@ -7142,52 +7139,52 @@
         <v>38</v>
       </c>
       <c r="F23" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H23" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M23" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P23" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R23" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V23" s="111" t="b">
         <v>1</v>
@@ -7208,13 +7205,13 @@
     </row>
     <row r="24" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="105">
         <v>8880</v>
@@ -7223,52 +7220,52 @@
         <v>38</v>
       </c>
       <c r="F24" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H24" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M24" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N24" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P24" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q24" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R24" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T24" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V24" s="111" t="b">
         <v>1</v>
@@ -7289,13 +7286,13 @@
     </row>
     <row r="25" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" s="105">
         <v>9000</v>
@@ -7304,52 +7301,52 @@
         <v>38</v>
       </c>
       <c r="F25" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H25" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M25" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N25" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P25" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q25" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R25" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T25" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U25" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V25" s="111" t="b">
         <v>1</v>
@@ -7370,13 +7367,13 @@
     </row>
     <row r="26" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="105">
         <v>10000</v>
@@ -7385,52 +7382,52 @@
         <v>38</v>
       </c>
       <c r="F26" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H26" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M26" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N26" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P26" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R26" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T26" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U26" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V26" s="111" t="b">
         <v>1</v>
@@ -7451,13 +7448,13 @@
     </row>
     <row r="27" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="105">
         <v>11000</v>
@@ -7466,52 +7463,52 @@
         <v>38</v>
       </c>
       <c r="F27" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H27" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I27" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M27" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N27" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O27" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P27" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q27" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R27" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T27" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U27" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V27" s="111" t="b">
         <v>1</v>
@@ -7532,13 +7529,13 @@
     </row>
     <row r="28" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="105">
         <v>10500</v>
@@ -7547,52 +7544,52 @@
         <v>38</v>
       </c>
       <c r="F28" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H28" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I28" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M28" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N28" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O28" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P28" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q28" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R28" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T28" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V28" s="111" t="b">
         <v>1</v>
@@ -7613,13 +7610,13 @@
     </row>
     <row r="29" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="105">
         <v>10100</v>
@@ -7628,52 +7625,52 @@
         <v>38</v>
       </c>
       <c r="F29" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H29" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I29" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M29" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N29" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O29" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P29" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R29" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T29" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V29" s="111" t="b">
         <v>1</v>
@@ -7694,13 +7691,13 @@
     </row>
     <row r="30" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="105">
         <v>10050</v>
@@ -7709,52 +7706,52 @@
         <v>38</v>
       </c>
       <c r="F30" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H30" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I30" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K30" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M30" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N30" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O30" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P30" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q30" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R30" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T30" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U30" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V30" s="111" t="b">
         <v>1</v>
@@ -7775,13 +7772,13 @@
     </row>
     <row r="31" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="105">
         <v>9500</v>
@@ -7790,52 +7787,52 @@
         <v>38</v>
       </c>
       <c r="F31" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H31" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J31" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M31" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N31" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O31" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P31" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q31" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R31" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T31" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U31" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U31" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V31" s="111" t="b">
         <v>1</v>
@@ -7856,13 +7853,13 @@
     </row>
     <row r="32" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="105">
         <v>9400</v>
@@ -7871,52 +7868,52 @@
         <v>38</v>
       </c>
       <c r="F32" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H32" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J32" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M32" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N32" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O32" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P32" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q32" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R32" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U32" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U32" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V32" s="111" t="b">
         <v>1</v>
@@ -7937,13 +7934,13 @@
     </row>
     <row r="33" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="105">
         <v>9900</v>
@@ -7952,52 +7949,52 @@
         <v>38</v>
       </c>
       <c r="F33" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H33" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I33" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J33" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N33" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O33" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P33" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q33" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R33" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U33" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U33" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V33" s="111" t="b">
         <v>1</v>
@@ -8018,13 +8015,13 @@
     </row>
     <row r="34" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="105">
         <v>9999</v>
@@ -8033,52 +8030,52 @@
         <v>38</v>
       </c>
       <c r="F34" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H34" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J34" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M34" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N34" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O34" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P34" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R34" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T34" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U34" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V34" s="111" t="b">
         <v>1</v>
@@ -8099,13 +8096,13 @@
     </row>
     <row r="35" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="105">
         <v>9300</v>
@@ -8114,52 +8111,52 @@
         <v>38</v>
       </c>
       <c r="F35" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H35" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I35" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J35" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M35" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N35" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O35" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P35" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q35" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R35" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T35" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U35" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V35" s="111" t="b">
         <v>1</v>
@@ -8180,13 +8177,13 @@
     </row>
     <row r="36" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="105">
         <v>9330</v>
@@ -8195,52 +8192,52 @@
         <v>38</v>
       </c>
       <c r="F36" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H36" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I36" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J36" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M36" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N36" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O36" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q36" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R36" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T36" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U36" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U36" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V36" s="111" t="b">
         <v>1</v>
@@ -8261,13 +8258,13 @@
     </row>
     <row r="37" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D37" s="105">
         <v>9700</v>
@@ -8276,52 +8273,52 @@
         <v>38</v>
       </c>
       <c r="F37" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H37" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I37" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J37" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M37" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N37" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O37" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P37" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q37" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R37" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U37" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U37" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V37" s="111" t="b">
         <v>1</v>
@@ -8342,13 +8339,13 @@
     </row>
     <row r="38" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D38" s="105">
         <v>12000</v>
@@ -8357,52 +8354,52 @@
         <v>38</v>
       </c>
       <c r="F38" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G38" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H38" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I38" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M38" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N38" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O38" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P38" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q38" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R38" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T38" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U38" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V38" s="111" t="b">
         <v>1</v>
@@ -8423,13 +8420,13 @@
     </row>
     <row r="39" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="105">
         <v>20000</v>
@@ -8438,52 +8435,52 @@
         <v>38</v>
       </c>
       <c r="F39" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H39" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J39" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M39" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N39" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O39" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P39" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q39" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R39" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T39" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U39" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V39" s="111" t="b">
         <v>1</v>
@@ -8504,13 +8501,13 @@
     </row>
     <row r="40" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="105">
         <v>21000</v>
@@ -8519,52 +8516,52 @@
         <v>38</v>
       </c>
       <c r="F40" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H40" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J40" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M40" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N40" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O40" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P40" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q40" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R40" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T40" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U40" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V40" s="111" t="b">
         <v>1</v>
@@ -8585,13 +8582,13 @@
     </row>
     <row r="41" spans="1:35" s="15" customFormat="1" ht="25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="94" t="s">
         <v>35</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="105">
         <v>30000</v>
@@ -8600,52 +8597,52 @@
         <v>38</v>
       </c>
       <c r="F41" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="101" t="s">
-        <v>40</v>
-      </c>
       <c r="H41" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I41" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J41" s="94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" s="94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M41" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N41" s="94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O41" s="94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P41" s="94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q41" s="94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R41" s="94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T41" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="U41" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="V41" s="111" t="b">
         <v>1</v>
@@ -9566,7 +9563,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -9603,7 +9600,7 @@
         <v>28</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="40" customFormat="1" ht="22" customHeight="1" thickTop="1">
@@ -9611,13 +9608,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
@@ -9631,16 +9628,16 @@
     </row>
     <row r="3" spans="1:18" s="40" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -9657,13 +9654,13 @@
         <v>31</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="45" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -9677,16 +9674,16 @@
     </row>
     <row r="5" spans="1:18" s="40" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
@@ -10304,7 +10301,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>33</v>
@@ -10332,10 +10329,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" customFormat="1" ht="35" customHeight="1">
@@ -10352,10 +10349,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="84" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" ht="35" customHeight="1">
@@ -10372,10 +10369,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="87" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" ht="35" customHeight="1">
@@ -10392,100 +10389,100 @@
         <v>23</v>
       </c>
       <c r="E5" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="69" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" ht="35" customHeight="1">
       <c r="A6" s="62"/>
       <c r="B6" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="69" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" ht="35" customHeight="1">
       <c r="A7" s="62"/>
       <c r="B7" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="69" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" ht="35" customHeight="1">
       <c r="A8" s="62"/>
       <c r="B8" s="67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="88"/>
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="61"/>
       <c r="B9" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>69</v>
       </c>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="61"/>
       <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>72</v>
       </c>
       <c r="E10" s="68"/>
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="61"/>
       <c r="B11" s="107" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="68"/>
     </row>
@@ -10496,107 +10493,107 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="61"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="128"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="112"/>
       <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="61"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="128"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="128"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="61"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="128"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="112"/>
       <c r="E16" s="68"/>
     </row>
     <row r="17" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="61"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="61"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="128"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="68"/>
     </row>
     <row r="19" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="61"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="128"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="61"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="128"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="112"/>
       <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="61"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="128"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="61"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="61"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="61"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
       <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="61"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="24.5" customHeight="1" thickBot="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
       <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="73"/>
       <c r="F27" s="7"/>
       <c r="G27" s="50"/>
@@ -10610,9 +10607,9 @@
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
       <c r="E28" s="73"/>
       <c r="F28" s="8"/>
       <c r="G28" s="50"/>
@@ -10626,9 +10623,9 @@
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
       <c r="E29" s="73"/>
       <c r="F29" s="8"/>
       <c r="G29" s="50"/>
@@ -10642,9 +10639,9 @@
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
       <c r="E30" s="73"/>
       <c r="F30" s="8"/>
       <c r="G30" s="50"/>
@@ -10658,9 +10655,9 @@
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="73"/>
       <c r="F31" s="8"/>
       <c r="G31" s="50"/>
@@ -10674,9 +10671,9 @@
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
       <c r="E32" s="73"/>
       <c r="F32" s="8"/>
       <c r="G32" s="50"/>
@@ -10690,9 +10687,9 @@
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
       <c r="E33" s="73"/>
       <c r="F33" s="8"/>
       <c r="G33" s="50"/>
@@ -10706,9 +10703,9 @@
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1">
       <c r="A34" s="16"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
       <c r="E34" s="73"/>
       <c r="F34" s="8"/>
       <c r="G34" s="50"/>
@@ -10722,9 +10719,9 @@
     </row>
     <row r="35" spans="1:14" ht="25" customHeight="1">
       <c r="A35" s="16"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
       <c r="E35" s="73"/>
       <c r="F35" s="8"/>
       <c r="G35" s="50"/>
@@ -10738,9 +10735,9 @@
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A36" s="53"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="74"/>
       <c r="F36" s="9"/>
       <c r="G36" s="51"/>
@@ -10754,73 +10751,73 @@
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A37" s="16"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
-      <c r="E37" s="122"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="121"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="125"/>
+      <c r="G37" s="117"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="125"/>
+      <c r="I37" s="117"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="125"/>
+      <c r="K37" s="117"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="125"/>
+      <c r="M37" s="117"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1">
       <c r="A38" s="16"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="123"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="122"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="126"/>
+      <c r="G38" s="118"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="126"/>
+      <c r="I38" s="118"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="126"/>
+      <c r="K38" s="118"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="126"/>
+      <c r="M38" s="118"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1">
       <c r="A39" s="16"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="123"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="122"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="126"/>
+      <c r="G39" s="118"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="126"/>
+      <c r="I39" s="118"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="126"/>
+      <c r="K39" s="118"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="126"/>
+      <c r="M39" s="118"/>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A40" s="16"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="124"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="123"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="127"/>
+      <c r="G40" s="119"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="127"/>
+      <c r="I40" s="119"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="127"/>
+      <c r="K40" s="119"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="127"/>
+      <c r="M40" s="119"/>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
       <c r="E41" s="71"/>
       <c r="F41" s="7"/>
       <c r="G41" s="21"/>
@@ -10834,9 +10831,9 @@
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1">
       <c r="A42" s="16"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="72"/>
       <c r="F42" s="8"/>
       <c r="G42" s="22"/>
@@ -10850,9 +10847,9 @@
     </row>
     <row r="43" spans="1:14" ht="25" customHeight="1">
       <c r="A43" s="16"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
       <c r="E43" s="72"/>
       <c r="F43" s="8"/>
       <c r="G43" s="22"/>
@@ -10866,9 +10863,9 @@
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1">
       <c r="A44" s="16"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
       <c r="E44" s="72"/>
       <c r="F44" s="8"/>
       <c r="G44" s="22"/>
@@ -10882,9 +10879,9 @@
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1">
       <c r="A45" s="16"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
       <c r="E45" s="72"/>
       <c r="F45" s="8"/>
       <c r="G45" s="22"/>
@@ -10898,9 +10895,9 @@
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1">
       <c r="A46" s="16"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
       <c r="E46" s="73"/>
       <c r="F46" s="8"/>
       <c r="G46" s="50"/>
@@ -10914,9 +10911,9 @@
     </row>
     <row r="47" spans="1:14" ht="25" customHeight="1">
       <c r="A47" s="16"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
       <c r="E47" s="72"/>
       <c r="F47" s="8"/>
       <c r="G47" s="22"/>
@@ -10930,9 +10927,9 @@
     </row>
     <row r="48" spans="1:14" ht="25" customHeight="1">
       <c r="A48" s="16"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
       <c r="E48" s="73"/>
       <c r="F48" s="8"/>
       <c r="G48" s="50"/>
@@ -10946,9 +10943,9 @@
     </row>
     <row r="49" spans="1:14" ht="25" customHeight="1">
       <c r="A49" s="16"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
       <c r="E49" s="73"/>
       <c r="F49" s="8"/>
       <c r="G49" s="50"/>
@@ -10962,9 +10959,9 @@
     </row>
     <row r="50" spans="1:14" ht="25" customHeight="1">
       <c r="A50" s="16"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
       <c r="E50" s="73"/>
       <c r="F50" s="8"/>
       <c r="G50" s="50"/>
@@ -10978,9 +10975,9 @@
     </row>
     <row r="51" spans="1:14" ht="25" customHeight="1">
       <c r="A51" s="16"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
       <c r="E51" s="73"/>
       <c r="F51" s="8"/>
       <c r="G51" s="50"/>
@@ -10994,9 +10991,9 @@
     </row>
     <row r="52" spans="1:14" ht="25" customHeight="1">
       <c r="A52" s="16"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
       <c r="E52" s="73"/>
       <c r="F52" s="8"/>
       <c r="G52" s="50"/>
@@ -11010,9 +11007,9 @@
     </row>
     <row r="53" spans="1:14" ht="25" customHeight="1">
       <c r="A53" s="16"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
       <c r="E53" s="73"/>
       <c r="F53" s="8"/>
       <c r="G53" s="50"/>
@@ -11026,9 +11023,9 @@
     </row>
     <row r="54" spans="1:14" ht="25" customHeight="1">
       <c r="A54" s="16"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
       <c r="E54" s="73"/>
       <c r="F54" s="8"/>
       <c r="G54" s="50"/>
@@ -11042,9 +11039,9 @@
     </row>
     <row r="55" spans="1:14" ht="25" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
       <c r="E55" s="73"/>
       <c r="F55" s="8"/>
       <c r="G55" s="50"/>
@@ -11058,9 +11055,9 @@
     </row>
     <row r="56" spans="1:14" ht="25" customHeight="1">
       <c r="A56" s="16"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
       <c r="E56" s="73"/>
       <c r="F56" s="8"/>
       <c r="G56" s="50"/>
@@ -11074,9 +11071,9 @@
     </row>
     <row r="57" spans="1:14" ht="25" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
       <c r="E57" s="73"/>
       <c r="F57" s="8"/>
       <c r="G57" s="50"/>
@@ -11090,9 +11087,9 @@
     </row>
     <row r="58" spans="1:14" ht="25" customHeight="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
       <c r="E58" s="73"/>
       <c r="F58" s="8"/>
       <c r="G58" s="50"/>
@@ -11106,9 +11103,9 @@
     </row>
     <row r="59" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A59" s="16"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="74"/>
       <c r="F59" s="9"/>
       <c r="G59" s="51"/>
@@ -11122,8 +11119,8 @@
     </row>
     <row r="60" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
       <c r="D60" s="52"/>
       <c r="E60" s="70"/>
       <c r="F60" s="7"/>
@@ -11138,8 +11135,8 @@
     </row>
     <row r="61" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A61" s="54"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="116"/>
       <c r="D61" s="10"/>
       <c r="E61" s="75"/>
       <c r="F61" s="9"/>
@@ -11154,9 +11151,9 @@
     </row>
     <row r="62" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
       <c r="E62" s="71"/>
       <c r="F62" s="7"/>
       <c r="G62" s="25"/>
@@ -11170,9 +11167,9 @@
     </row>
     <row r="63" spans="1:14" ht="25" customHeight="1">
       <c r="A63" s="16"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="115"/>
       <c r="E63" s="72"/>
       <c r="F63" s="8"/>
       <c r="G63" s="26"/>
@@ -11186,9 +11183,9 @@
     </row>
     <row r="64" spans="1:14" ht="25" customHeight="1">
       <c r="A64" s="16"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="72"/>
       <c r="F64" s="8"/>
       <c r="G64" s="26"/>
@@ -11202,9 +11199,9 @@
     </row>
     <row r="65" spans="1:14" ht="25" customHeight="1">
       <c r="A65" s="16"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="115"/>
+      <c r="D65" s="115"/>
       <c r="E65" s="73"/>
       <c r="F65" s="8"/>
       <c r="G65" s="19"/>
@@ -11218,9 +11215,9 @@
     </row>
     <row r="66" spans="1:14" ht="25" customHeight="1">
       <c r="A66" s="16"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
       <c r="E66" s="73"/>
       <c r="F66" s="8"/>
       <c r="G66" s="19"/>
@@ -11234,9 +11231,9 @@
     </row>
     <row r="67" spans="1:14" ht="25" customHeight="1">
       <c r="A67" s="16"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="115"/>
       <c r="E67" s="73"/>
       <c r="F67" s="8"/>
       <c r="G67" s="19"/>
@@ -11250,9 +11247,9 @@
     </row>
     <row r="68" spans="1:14" ht="25" customHeight="1">
       <c r="A68" s="16"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
+      <c r="B68" s="115"/>
+      <c r="C68" s="115"/>
+      <c r="D68" s="115"/>
       <c r="E68" s="73"/>
       <c r="F68" s="8"/>
       <c r="G68" s="19"/>
@@ -11266,9 +11263,9 @@
     </row>
     <row r="69" spans="1:14" ht="25" customHeight="1">
       <c r="A69" s="16"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
       <c r="E69" s="73"/>
       <c r="F69" s="8"/>
       <c r="G69" s="19"/>
@@ -11282,9 +11279,9 @@
     </row>
     <row r="70" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A70" s="53"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
+      <c r="B70" s="116"/>
+      <c r="C70" s="116"/>
+      <c r="D70" s="116"/>
       <c r="E70" s="74"/>
       <c r="F70" s="9"/>
       <c r="G70" s="20"/>
@@ -11298,9 +11295,9 @@
     </row>
     <row r="71" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A71" s="55"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="112"/>
-      <c r="D71" s="121"/>
+      <c r="B71" s="114"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="120"/>
       <c r="E71" s="76"/>
       <c r="F71" s="7"/>
       <c r="G71" s="49"/>
@@ -11314,9 +11311,9 @@
     </row>
     <row r="72" spans="1:14" ht="25" customHeight="1">
       <c r="A72" s="56"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
+      <c r="B72" s="115"/>
+      <c r="C72" s="115"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="73"/>
       <c r="F72" s="8"/>
       <c r="G72" s="50"/>
@@ -11330,9 +11327,9 @@
     </row>
     <row r="73" spans="1:14" ht="25" customHeight="1">
       <c r="A73" s="56"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
       <c r="E73" s="73"/>
       <c r="F73" s="8"/>
       <c r="G73" s="50"/>
@@ -11346,9 +11343,9 @@
     </row>
     <row r="74" spans="1:14" ht="25" customHeight="1">
       <c r="A74" s="56"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
       <c r="E74" s="73"/>
       <c r="F74" s="8"/>
       <c r="G74" s="50"/>
@@ -11362,9 +11359,9 @@
     </row>
     <row r="75" spans="1:14" ht="25" customHeight="1">
       <c r="A75" s="56"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="73"/>
       <c r="F75" s="8"/>
       <c r="G75" s="50"/>
@@ -11378,9 +11375,9 @@
     </row>
     <row r="76" spans="1:14" ht="25" customHeight="1">
       <c r="A76" s="56"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
       <c r="E76" s="73"/>
       <c r="F76" s="8"/>
       <c r="G76" s="50"/>
@@ -11394,9 +11391,9 @@
     </row>
     <row r="77" spans="1:14" ht="25" customHeight="1">
       <c r="A77" s="56"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
       <c r="E77" s="73"/>
       <c r="F77" s="8"/>
       <c r="G77" s="50"/>
@@ -11410,9 +11407,9 @@
     </row>
     <row r="78" spans="1:14" ht="25" customHeight="1">
       <c r="A78" s="56"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
+      <c r="B78" s="115"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="73"/>
       <c r="F78" s="8"/>
       <c r="G78" s="50"/>
@@ -11426,9 +11423,9 @@
     </row>
     <row r="79" spans="1:14" ht="25" customHeight="1">
       <c r="A79" s="56"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
+      <c r="B79" s="115"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="115"/>
       <c r="E79" s="73"/>
       <c r="F79" s="8"/>
       <c r="G79" s="50"/>
@@ -11442,9 +11439,9 @@
     </row>
     <row r="80" spans="1:14" ht="25" customHeight="1">
       <c r="A80" s="56"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
+      <c r="B80" s="115"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
       <c r="E80" s="73"/>
       <c r="F80" s="8"/>
       <c r="G80" s="50"/>
@@ -11458,9 +11455,9 @@
     </row>
     <row r="81" spans="1:14" ht="25" customHeight="1">
       <c r="A81" s="56"/>
-      <c r="B81" s="113"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
+      <c r="B81" s="115"/>
+      <c r="C81" s="115"/>
+      <c r="D81" s="115"/>
       <c r="E81" s="73"/>
       <c r="F81" s="8"/>
       <c r="G81" s="50"/>
@@ -11474,9 +11471,9 @@
     </row>
     <row r="82" spans="1:14" ht="25" customHeight="1">
       <c r="A82" s="56"/>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
+      <c r="B82" s="115"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="115"/>
       <c r="E82" s="73"/>
       <c r="F82" s="8"/>
       <c r="G82" s="50"/>
@@ -11490,9 +11487,9 @@
     </row>
     <row r="83" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A83" s="57"/>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="116"/>
       <c r="E83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="51"/>
@@ -11506,9 +11503,9 @@
     </row>
     <row r="84" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A84" s="58"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="112"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="114"/>
       <c r="E84" s="76"/>
       <c r="F84" s="7"/>
       <c r="G84" s="49"/>
@@ -11522,9 +11519,9 @@
     </row>
     <row r="85" spans="1:14" ht="25" customHeight="1">
       <c r="A85" s="59"/>
-      <c r="B85" s="113"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="113"/>
+      <c r="B85" s="115"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="115"/>
       <c r="E85" s="73"/>
       <c r="F85" s="8"/>
       <c r="G85" s="50"/>
@@ -11538,9 +11535,9 @@
     </row>
     <row r="86" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A86" s="56"/>
-      <c r="B86" s="114"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="114"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="116"/>
       <c r="E86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="51"/>
@@ -11554,9 +11551,9 @@
     </row>
     <row r="87" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A87" s="55"/>
-      <c r="B87" s="112"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
+      <c r="B87" s="114"/>
+      <c r="C87" s="114"/>
+      <c r="D87" s="114"/>
       <c r="E87" s="76"/>
       <c r="F87" s="7"/>
       <c r="G87" s="49"/>
@@ -11570,9 +11567,9 @@
     </row>
     <row r="88" spans="1:14" ht="25" customHeight="1">
       <c r="A88" s="56"/>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
+      <c r="B88" s="115"/>
+      <c r="C88" s="115"/>
+      <c r="D88" s="115"/>
       <c r="E88" s="73"/>
       <c r="F88" s="8"/>
       <c r="G88" s="50"/>
@@ -11586,9 +11583,9 @@
     </row>
     <row r="89" spans="1:14" ht="25" customHeight="1">
       <c r="A89" s="56"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113"/>
+      <c r="B89" s="115"/>
+      <c r="C89" s="115"/>
+      <c r="D89" s="115"/>
       <c r="E89" s="73"/>
       <c r="F89" s="8"/>
       <c r="G89" s="50"/>
@@ -11602,9 +11599,9 @@
     </row>
     <row r="90" spans="1:14" ht="25" customHeight="1">
       <c r="A90" s="56"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="113"/>
+      <c r="B90" s="115"/>
+      <c r="C90" s="115"/>
+      <c r="D90" s="115"/>
       <c r="E90" s="73"/>
       <c r="F90" s="8"/>
       <c r="G90" s="50"/>
@@ -11618,9 +11615,9 @@
     </row>
     <row r="91" spans="1:14" ht="25" customHeight="1">
       <c r="A91" s="56"/>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
+      <c r="B91" s="115"/>
+      <c r="C91" s="115"/>
+      <c r="D91" s="115"/>
       <c r="E91" s="73"/>
       <c r="F91" s="8"/>
       <c r="G91" s="50"/>
@@ -11634,9 +11631,9 @@
     </row>
     <row r="92" spans="1:14" ht="25" customHeight="1">
       <c r="A92" s="56"/>
-      <c r="B92" s="113"/>
-      <c r="C92" s="113"/>
-      <c r="D92" s="113"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="115"/>
+      <c r="D92" s="115"/>
       <c r="E92" s="73"/>
       <c r="F92" s="8"/>
       <c r="G92" s="50"/>
@@ -11650,9 +11647,9 @@
     </row>
     <row r="93" spans="1:14" ht="25" customHeight="1">
       <c r="A93" s="56"/>
-      <c r="B93" s="113"/>
-      <c r="C93" s="113"/>
-      <c r="D93" s="113"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="115"/>
       <c r="E93" s="73"/>
       <c r="F93" s="8"/>
       <c r="G93" s="50"/>
@@ -11666,9 +11663,9 @@
     </row>
     <row r="94" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A94" s="57"/>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
+      <c r="B94" s="116"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="116"/>
       <c r="E94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="51"/>
@@ -11682,9 +11679,9 @@
     </row>
     <row r="95" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A95" s="56"/>
-      <c r="B95" s="112"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="115"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="127"/>
       <c r="E95" s="73"/>
       <c r="F95" s="7"/>
       <c r="G95" s="50"/>
@@ -11698,9 +11695,9 @@
     </row>
     <row r="96" spans="1:14" ht="25" customHeight="1">
       <c r="A96" s="56"/>
-      <c r="B96" s="113"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="116"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="128"/>
       <c r="E96" s="73"/>
       <c r="F96" s="8"/>
       <c r="G96" s="50"/>
@@ -11714,9 +11711,9 @@
     </row>
     <row r="97" spans="1:14" ht="25" customHeight="1">
       <c r="A97" s="56"/>
-      <c r="B97" s="113"/>
-      <c r="C97" s="113"/>
-      <c r="D97" s="116"/>
+      <c r="B97" s="115"/>
+      <c r="C97" s="115"/>
+      <c r="D97" s="128"/>
       <c r="E97" s="73"/>
       <c r="F97" s="8"/>
       <c r="G97" s="50"/>
@@ -11730,9 +11727,9 @@
     </row>
     <row r="98" spans="1:14" ht="25" customHeight="1">
       <c r="A98" s="56"/>
-      <c r="B98" s="113"/>
-      <c r="C98" s="113"/>
-      <c r="D98" s="116"/>
+      <c r="B98" s="115"/>
+      <c r="C98" s="115"/>
+      <c r="D98" s="128"/>
       <c r="E98" s="73"/>
       <c r="F98" s="8"/>
       <c r="G98" s="50"/>
@@ -11746,9 +11743,9 @@
     </row>
     <row r="99" spans="1:14" ht="25" customHeight="1">
       <c r="A99" s="56"/>
-      <c r="B99" s="113"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="116"/>
+      <c r="B99" s="115"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="128"/>
       <c r="E99" s="73"/>
       <c r="F99" s="8"/>
       <c r="G99" s="50"/>
@@ -11762,9 +11759,9 @@
     </row>
     <row r="100" spans="1:14" ht="25" customHeight="1">
       <c r="A100" s="56"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="113"/>
-      <c r="D100" s="116"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="128"/>
       <c r="E100" s="73"/>
       <c r="F100" s="8"/>
       <c r="G100" s="50"/>
@@ -11778,9 +11775,9 @@
     </row>
     <row r="101" spans="1:14" ht="25" customHeight="1">
       <c r="A101" s="56"/>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="116"/>
+      <c r="B101" s="115"/>
+      <c r="C101" s="115"/>
+      <c r="D101" s="128"/>
       <c r="E101" s="73"/>
       <c r="F101" s="8"/>
       <c r="G101" s="50"/>
@@ -11794,9 +11791,9 @@
     </row>
     <row r="102" spans="1:14" ht="25" customHeight="1">
       <c r="A102" s="56"/>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="116"/>
+      <c r="B102" s="115"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="128"/>
       <c r="E102" s="73"/>
       <c r="F102" s="8"/>
       <c r="G102" s="50"/>
@@ -11810,9 +11807,9 @@
     </row>
     <row r="103" spans="1:14" ht="25" customHeight="1">
       <c r="A103" s="56"/>
-      <c r="B103" s="113"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="116"/>
+      <c r="B103" s="115"/>
+      <c r="C103" s="115"/>
+      <c r="D103" s="128"/>
       <c r="E103" s="73"/>
       <c r="F103" s="8"/>
       <c r="G103" s="50"/>
@@ -11826,9 +11823,9 @@
     </row>
     <row r="104" spans="1:14" ht="25" customHeight="1">
       <c r="A104" s="56"/>
-      <c r="B104" s="113"/>
-      <c r="C104" s="113"/>
-      <c r="D104" s="116"/>
+      <c r="B104" s="115"/>
+      <c r="C104" s="115"/>
+      <c r="D104" s="128"/>
       <c r="E104" s="73"/>
       <c r="F104" s="8"/>
       <c r="G104" s="50"/>
@@ -11842,9 +11839,9 @@
     </row>
     <row r="105" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A105" s="57"/>
-      <c r="B105" s="114"/>
-      <c r="C105" s="114"/>
-      <c r="D105" s="117"/>
+      <c r="B105" s="116"/>
+      <c r="C105" s="116"/>
+      <c r="D105" s="129"/>
       <c r="E105" s="73"/>
       <c r="F105" s="9"/>
       <c r="G105" s="50"/>
@@ -11858,9 +11855,9 @@
     </row>
     <row r="106" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A106" s="56"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
+      <c r="B106" s="114"/>
+      <c r="C106" s="114"/>
+      <c r="D106" s="114"/>
       <c r="E106" s="76"/>
       <c r="F106" s="7"/>
       <c r="G106" s="49"/>
@@ -11874,9 +11871,9 @@
     </row>
     <row r="107" spans="1:14" ht="25" customHeight="1">
       <c r="A107" s="56"/>
-      <c r="B107" s="113"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="113"/>
+      <c r="B107" s="115"/>
+      <c r="C107" s="115"/>
+      <c r="D107" s="115"/>
       <c r="E107" s="73"/>
       <c r="F107" s="8"/>
       <c r="G107" s="50"/>
@@ -11890,9 +11887,9 @@
     </row>
     <row r="108" spans="1:14" ht="25" customHeight="1">
       <c r="A108" s="56"/>
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="113"/>
+      <c r="B108" s="115"/>
+      <c r="C108" s="115"/>
+      <c r="D108" s="115"/>
       <c r="E108" s="73"/>
       <c r="F108" s="8"/>
       <c r="G108" s="50"/>
@@ -11906,9 +11903,9 @@
     </row>
     <row r="109" spans="1:14" ht="25" customHeight="1">
       <c r="A109" s="56"/>
-      <c r="B109" s="113"/>
-      <c r="C109" s="113"/>
-      <c r="D109" s="113"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="115"/>
+      <c r="D109" s="115"/>
       <c r="E109" s="73"/>
       <c r="F109" s="8"/>
       <c r="G109" s="50"/>
@@ -11922,9 +11919,9 @@
     </row>
     <row r="110" spans="1:14" ht="25" customHeight="1">
       <c r="A110" s="56"/>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="113"/>
+      <c r="B110" s="115"/>
+      <c r="C110" s="115"/>
+      <c r="D110" s="115"/>
       <c r="E110" s="73"/>
       <c r="F110" s="8"/>
       <c r="G110" s="50"/>
@@ -11938,9 +11935,9 @@
     </row>
     <row r="111" spans="1:14" ht="25" customHeight="1">
       <c r="A111" s="56"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="113"/>
-      <c r="D111" s="113"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
       <c r="E111" s="73"/>
       <c r="F111" s="8"/>
       <c r="G111" s="50"/>
@@ -11954,9 +11951,9 @@
     </row>
     <row r="112" spans="1:14" ht="25" customHeight="1">
       <c r="A112" s="56"/>
-      <c r="B112" s="113"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="113"/>
+      <c r="B112" s="115"/>
+      <c r="C112" s="115"/>
+      <c r="D112" s="115"/>
       <c r="E112" s="73"/>
       <c r="F112" s="8"/>
       <c r="G112" s="50"/>
@@ -11970,9 +11967,9 @@
     </row>
     <row r="113" spans="1:14" ht="25" customHeight="1">
       <c r="A113" s="56"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="115"/>
       <c r="E113" s="73"/>
       <c r="F113" s="8"/>
       <c r="G113" s="50"/>
@@ -11986,9 +11983,9 @@
     </row>
     <row r="114" spans="1:14" ht="25" customHeight="1">
       <c r="A114" s="56"/>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="115"/>
       <c r="E114" s="73"/>
       <c r="F114" s="8"/>
       <c r="G114" s="50"/>
@@ -12002,9 +11999,9 @@
     </row>
     <row r="115" spans="1:14" ht="25" customHeight="1">
       <c r="A115" s="56"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="115"/>
+      <c r="D115" s="115"/>
       <c r="E115" s="73"/>
       <c r="F115" s="8"/>
       <c r="G115" s="50"/>
@@ -12018,9 +12015,9 @@
     </row>
     <row r="116" spans="1:14" ht="25" customHeight="1">
       <c r="A116" s="56"/>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="115"/>
       <c r="E116" s="73"/>
       <c r="F116" s="8"/>
       <c r="G116" s="50"/>
@@ -12034,9 +12031,9 @@
     </row>
     <row r="117" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A117" s="56"/>
-      <c r="B117" s="114"/>
-      <c r="C117" s="114"/>
-      <c r="D117" s="114"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="116"/>
+      <c r="D117" s="116"/>
       <c r="E117" s="74"/>
       <c r="F117" s="9"/>
       <c r="G117" s="51"/>
@@ -12050,9 +12047,9 @@
     </row>
     <row r="118" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A118" s="55"/>
-      <c r="B118" s="112"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
+      <c r="B118" s="114"/>
+      <c r="C118" s="114"/>
+      <c r="D118" s="114"/>
       <c r="E118" s="73"/>
       <c r="F118" s="7"/>
       <c r="G118" s="50"/>
@@ -12066,9 +12063,9 @@
     </row>
     <row r="119" spans="1:14" ht="25" customHeight="1">
       <c r="A119" s="56"/>
-      <c r="B119" s="113"/>
-      <c r="C119" s="113"/>
-      <c r="D119" s="113"/>
+      <c r="B119" s="115"/>
+      <c r="C119" s="115"/>
+      <c r="D119" s="115"/>
       <c r="E119" s="73"/>
       <c r="F119" s="8"/>
       <c r="G119" s="50"/>
@@ -12082,9 +12079,9 @@
     </row>
     <row r="120" spans="1:14" ht="25" customHeight="1">
       <c r="A120" s="56"/>
-      <c r="B120" s="113"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
+      <c r="B120" s="115"/>
+      <c r="C120" s="115"/>
+      <c r="D120" s="115"/>
       <c r="E120" s="73"/>
       <c r="F120" s="8"/>
       <c r="G120" s="50"/>
@@ -12098,9 +12095,9 @@
     </row>
     <row r="121" spans="1:14" ht="25" customHeight="1">
       <c r="A121" s="56"/>
-      <c r="B121" s="113"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="113"/>
+      <c r="B121" s="115"/>
+      <c r="C121" s="115"/>
+      <c r="D121" s="115"/>
       <c r="E121" s="73"/>
       <c r="F121" s="8"/>
       <c r="G121" s="50"/>
@@ -12114,9 +12111,9 @@
     </row>
     <row r="122" spans="1:14" ht="25" customHeight="1">
       <c r="A122" s="56"/>
-      <c r="B122" s="113"/>
-      <c r="C122" s="113"/>
-      <c r="D122" s="113"/>
+      <c r="B122" s="115"/>
+      <c r="C122" s="115"/>
+      <c r="D122" s="115"/>
       <c r="E122" s="73"/>
       <c r="F122" s="8"/>
       <c r="G122" s="50"/>
@@ -12130,9 +12127,9 @@
     </row>
     <row r="123" spans="1:14" ht="25" customHeight="1">
       <c r="A123" s="56"/>
-      <c r="B123" s="113"/>
-      <c r="C123" s="113"/>
-      <c r="D123" s="113"/>
+      <c r="B123" s="115"/>
+      <c r="C123" s="115"/>
+      <c r="D123" s="115"/>
       <c r="E123" s="73"/>
       <c r="F123" s="8"/>
       <c r="G123" s="50"/>
@@ -12146,9 +12143,9 @@
     </row>
     <row r="124" spans="1:14" ht="25" customHeight="1">
       <c r="A124" s="56"/>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
+      <c r="B124" s="115"/>
+      <c r="C124" s="115"/>
+      <c r="D124" s="115"/>
       <c r="E124" s="73"/>
       <c r="F124" s="8"/>
       <c r="G124" s="50"/>
@@ -12162,9 +12159,9 @@
     </row>
     <row r="125" spans="1:14" ht="25" customHeight="1">
       <c r="A125" s="56"/>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
+      <c r="B125" s="115"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="115"/>
       <c r="E125" s="73"/>
       <c r="F125" s="8"/>
       <c r="G125" s="50"/>
@@ -12178,9 +12175,9 @@
     </row>
     <row r="126" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A126" s="57"/>
-      <c r="B126" s="114"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="114"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="116"/>
+      <c r="D126" s="116"/>
       <c r="E126" s="74"/>
       <c r="F126" s="9"/>
       <c r="G126" s="51"/>
@@ -12194,9 +12191,9 @@
     </row>
     <row r="127" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A127" s="56"/>
-      <c r="B127" s="112"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
+      <c r="B127" s="114"/>
+      <c r="C127" s="114"/>
+      <c r="D127" s="114"/>
       <c r="E127" s="73"/>
       <c r="F127" s="7"/>
       <c r="G127" s="50"/>
@@ -12210,9 +12207,9 @@
     </row>
     <row r="128" spans="1:14" ht="25" customHeight="1">
       <c r="A128" s="56"/>
-      <c r="B128" s="113"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
+      <c r="B128" s="115"/>
+      <c r="C128" s="115"/>
+      <c r="D128" s="115"/>
       <c r="E128" s="73"/>
       <c r="F128" s="8"/>
       <c r="G128" s="50"/>
@@ -12226,9 +12223,9 @@
     </row>
     <row r="129" spans="1:14" ht="25" customHeight="1">
       <c r="A129" s="56"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="113"/>
-      <c r="D129" s="113"/>
+      <c r="B129" s="115"/>
+      <c r="C129" s="115"/>
+      <c r="D129" s="115"/>
       <c r="E129" s="73"/>
       <c r="F129" s="8"/>
       <c r="G129" s="50"/>
@@ -12242,9 +12239,9 @@
     </row>
     <row r="130" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A130" s="57"/>
-      <c r="B130" s="114"/>
-      <c r="C130" s="114"/>
-      <c r="D130" s="114"/>
+      <c r="B130" s="116"/>
+      <c r="C130" s="116"/>
+      <c r="D130" s="116"/>
       <c r="E130" s="74"/>
       <c r="F130" s="9"/>
       <c r="G130" s="51"/>
@@ -12258,9 +12255,9 @@
     </row>
     <row r="131" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A131" s="56"/>
-      <c r="B131" s="112"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="112"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
       <c r="E131" s="73"/>
       <c r="F131" s="7"/>
       <c r="G131" s="50"/>
@@ -12274,9 +12271,9 @@
     </row>
     <row r="132" spans="1:14" ht="25" customHeight="1">
       <c r="A132" s="56"/>
-      <c r="B132" s="113"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="113"/>
+      <c r="B132" s="115"/>
+      <c r="C132" s="115"/>
+      <c r="D132" s="115"/>
       <c r="E132" s="73"/>
       <c r="F132" s="8"/>
       <c r="G132" s="50"/>
@@ -12290,9 +12287,9 @@
     </row>
     <row r="133" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A133" s="57"/>
-      <c r="B133" s="114"/>
-      <c r="C133" s="114"/>
-      <c r="D133" s="114"/>
+      <c r="B133" s="116"/>
+      <c r="C133" s="116"/>
+      <c r="D133" s="116"/>
       <c r="E133" s="74"/>
       <c r="F133" s="9"/>
       <c r="G133" s="51"/>
@@ -12306,9 +12303,9 @@
     </row>
     <row r="134" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A134" s="56"/>
-      <c r="B134" s="112"/>
-      <c r="C134" s="112"/>
-      <c r="D134" s="112"/>
+      <c r="B134" s="114"/>
+      <c r="C134" s="114"/>
+      <c r="D134" s="114"/>
       <c r="E134" s="73"/>
       <c r="F134" s="7"/>
       <c r="G134" s="50"/>
@@ -12322,9 +12319,9 @@
     </row>
     <row r="135" spans="1:14" ht="25" customHeight="1">
       <c r="A135" s="56"/>
-      <c r="B135" s="113"/>
-      <c r="C135" s="113"/>
-      <c r="D135" s="113"/>
+      <c r="B135" s="115"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="115"/>
       <c r="E135" s="73"/>
       <c r="F135" s="8"/>
       <c r="G135" s="50"/>
@@ -12338,9 +12335,9 @@
     </row>
     <row r="136" spans="1:14" ht="25" customHeight="1">
       <c r="A136" s="56"/>
-      <c r="B136" s="113"/>
-      <c r="C136" s="113"/>
-      <c r="D136" s="113"/>
+      <c r="B136" s="115"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="115"/>
       <c r="E136" s="73"/>
       <c r="F136" s="8"/>
       <c r="G136" s="50"/>
@@ -12354,9 +12351,9 @@
     </row>
     <row r="137" spans="1:14" ht="25" customHeight="1">
       <c r="A137" s="56"/>
-      <c r="B137" s="113"/>
-      <c r="C137" s="113"/>
-      <c r="D137" s="113"/>
+      <c r="B137" s="115"/>
+      <c r="C137" s="115"/>
+      <c r="D137" s="115"/>
       <c r="E137" s="73"/>
       <c r="F137" s="8"/>
       <c r="G137" s="50"/>
@@ -12370,9 +12367,9 @@
     </row>
     <row r="138" spans="1:14" ht="25" customHeight="1">
       <c r="A138" s="56"/>
-      <c r="B138" s="113"/>
-      <c r="C138" s="113"/>
-      <c r="D138" s="113"/>
+      <c r="B138" s="115"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="115"/>
       <c r="E138" s="73"/>
       <c r="F138" s="8"/>
       <c r="G138" s="50"/>
@@ -12386,9 +12383,9 @@
     </row>
     <row r="139" spans="1:14" ht="25" customHeight="1">
       <c r="A139" s="56"/>
-      <c r="B139" s="113"/>
-      <c r="C139" s="113"/>
-      <c r="D139" s="113"/>
+      <c r="B139" s="115"/>
+      <c r="C139" s="115"/>
+      <c r="D139" s="115"/>
       <c r="E139" s="73"/>
       <c r="F139" s="8"/>
       <c r="G139" s="50"/>
@@ -12402,9 +12399,9 @@
     </row>
     <row r="140" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A140" s="56"/>
-      <c r="B140" s="114"/>
-      <c r="C140" s="114"/>
-      <c r="D140" s="114"/>
+      <c r="B140" s="116"/>
+      <c r="C140" s="116"/>
+      <c r="D140" s="116"/>
       <c r="E140" s="73"/>
       <c r="F140" s="9"/>
       <c r="G140" s="50"/>
@@ -12418,9 +12415,9 @@
     </row>
     <row r="141" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A141" s="55"/>
-      <c r="B141" s="112"/>
-      <c r="C141" s="112"/>
-      <c r="D141" s="112"/>
+      <c r="B141" s="114"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="114"/>
       <c r="E141" s="76"/>
       <c r="F141" s="7"/>
       <c r="G141" s="49"/>
@@ -12434,9 +12431,9 @@
     </row>
     <row r="142" spans="1:14" ht="25" customHeight="1">
       <c r="A142" s="56"/>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
+      <c r="B142" s="115"/>
+      <c r="C142" s="115"/>
+      <c r="D142" s="115"/>
       <c r="E142" s="73"/>
       <c r="F142" s="8"/>
       <c r="G142" s="50"/>
@@ -12450,9 +12447,9 @@
     </row>
     <row r="143" spans="1:14" ht="25" customHeight="1">
       <c r="A143" s="56"/>
-      <c r="B143" s="113"/>
-      <c r="C143" s="113"/>
-      <c r="D143" s="113"/>
+      <c r="B143" s="115"/>
+      <c r="C143" s="115"/>
+      <c r="D143" s="115"/>
       <c r="E143" s="73"/>
       <c r="F143" s="8"/>
       <c r="G143" s="50"/>
@@ -12466,9 +12463,9 @@
     </row>
     <row r="144" spans="1:14" ht="25" customHeight="1">
       <c r="A144" s="56"/>
-      <c r="B144" s="113"/>
-      <c r="C144" s="113"/>
-      <c r="D144" s="113"/>
+      <c r="B144" s="115"/>
+      <c r="C144" s="115"/>
+      <c r="D144" s="115"/>
       <c r="E144" s="73"/>
       <c r="F144" s="8"/>
       <c r="G144" s="50"/>
@@ -12482,9 +12479,9 @@
     </row>
     <row r="145" spans="1:14" ht="25" customHeight="1">
       <c r="A145" s="56"/>
-      <c r="B145" s="113"/>
-      <c r="C145" s="113"/>
-      <c r="D145" s="113"/>
+      <c r="B145" s="115"/>
+      <c r="C145" s="115"/>
+      <c r="D145" s="115"/>
       <c r="E145" s="73"/>
       <c r="F145" s="8"/>
       <c r="G145" s="50"/>
@@ -12498,9 +12495,9 @@
     </row>
     <row r="146" spans="1:14" ht="25" customHeight="1">
       <c r="A146" s="56"/>
-      <c r="B146" s="113"/>
-      <c r="C146" s="113"/>
-      <c r="D146" s="113"/>
+      <c r="B146" s="115"/>
+      <c r="C146" s="115"/>
+      <c r="D146" s="115"/>
       <c r="E146" s="73"/>
       <c r="F146" s="8"/>
       <c r="G146" s="50"/>
@@ -12514,9 +12511,9 @@
     </row>
     <row r="147" spans="1:14" ht="25" customHeight="1">
       <c r="A147" s="56"/>
-      <c r="B147" s="113"/>
-      <c r="C147" s="113"/>
-      <c r="D147" s="113"/>
+      <c r="B147" s="115"/>
+      <c r="C147" s="115"/>
+      <c r="D147" s="115"/>
       <c r="E147" s="73"/>
       <c r="F147" s="8"/>
       <c r="G147" s="50"/>
@@ -12530,9 +12527,9 @@
     </row>
     <row r="148" spans="1:14" ht="25" customHeight="1">
       <c r="A148" s="56"/>
-      <c r="B148" s="113"/>
-      <c r="C148" s="113"/>
-      <c r="D148" s="113"/>
+      <c r="B148" s="115"/>
+      <c r="C148" s="115"/>
+      <c r="D148" s="115"/>
       <c r="E148" s="73"/>
       <c r="F148" s="8"/>
       <c r="G148" s="50"/>
@@ -12546,9 +12543,9 @@
     </row>
     <row r="149" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A149" s="57"/>
-      <c r="B149" s="114"/>
-      <c r="C149" s="114"/>
-      <c r="D149" s="114"/>
+      <c r="B149" s="116"/>
+      <c r="C149" s="116"/>
+      <c r="D149" s="116"/>
       <c r="E149" s="77"/>
       <c r="F149" s="9"/>
       <c r="G149" s="27"/>
@@ -12562,9 +12559,9 @@
     </row>
     <row r="150" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A150" s="56"/>
-      <c r="B150" s="112"/>
-      <c r="C150" s="112"/>
-      <c r="D150" s="112"/>
+      <c r="B150" s="114"/>
+      <c r="C150" s="114"/>
+      <c r="D150" s="114"/>
       <c r="E150" s="78"/>
       <c r="F150" s="7"/>
       <c r="G150" s="28"/>
@@ -12578,9 +12575,9 @@
     </row>
     <row r="151" spans="1:14" ht="25" customHeight="1">
       <c r="A151" s="56"/>
-      <c r="B151" s="113"/>
-      <c r="C151" s="113"/>
-      <c r="D151" s="113"/>
+      <c r="B151" s="115"/>
+      <c r="C151" s="115"/>
+      <c r="D151" s="115"/>
       <c r="E151" s="78"/>
       <c r="F151" s="8"/>
       <c r="G151" s="28"/>
@@ -12594,9 +12591,9 @@
     </row>
     <row r="152" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A152" s="57"/>
-      <c r="B152" s="114"/>
-      <c r="C152" s="114"/>
-      <c r="D152" s="114"/>
+      <c r="B152" s="116"/>
+      <c r="C152" s="116"/>
+      <c r="D152" s="116"/>
       <c r="E152" s="77"/>
       <c r="F152" s="9"/>
       <c r="G152" s="27"/>
@@ -12610,9 +12607,9 @@
     </row>
     <row r="153" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A153" s="56"/>
-      <c r="B153" s="112"/>
-      <c r="C153" s="112"/>
-      <c r="D153" s="112"/>
+      <c r="B153" s="114"/>
+      <c r="C153" s="114"/>
+      <c r="D153" s="114"/>
       <c r="E153" s="78"/>
       <c r="F153" s="7"/>
       <c r="G153" s="28"/>
@@ -12626,9 +12623,9 @@
     </row>
     <row r="154" spans="1:14" ht="25" customHeight="1">
       <c r="A154" s="56"/>
-      <c r="B154" s="113"/>
-      <c r="C154" s="113"/>
-      <c r="D154" s="113"/>
+      <c r="B154" s="115"/>
+      <c r="C154" s="115"/>
+      <c r="D154" s="115"/>
       <c r="E154" s="78"/>
       <c r="F154" s="8"/>
       <c r="G154" s="28"/>
@@ -12642,9 +12639,9 @@
     </row>
     <row r="155" spans="1:14" ht="25" customHeight="1">
       <c r="A155" s="56"/>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
+      <c r="B155" s="115"/>
+      <c r="C155" s="115"/>
+      <c r="D155" s="115"/>
       <c r="E155" s="78"/>
       <c r="F155" s="8"/>
       <c r="G155" s="28"/>
@@ -12658,9 +12655,9 @@
     </row>
     <row r="156" spans="1:14" ht="25" customHeight="1">
       <c r="A156" s="56"/>
-      <c r="B156" s="113"/>
-      <c r="C156" s="113"/>
-      <c r="D156" s="113"/>
+      <c r="B156" s="115"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="115"/>
       <c r="E156" s="78"/>
       <c r="F156" s="8"/>
       <c r="G156" s="28"/>
@@ -12674,9 +12671,9 @@
     </row>
     <row r="157" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A157" s="57"/>
-      <c r="B157" s="114"/>
-      <c r="C157" s="114"/>
-      <c r="D157" s="114"/>
+      <c r="B157" s="116"/>
+      <c r="C157" s="116"/>
+      <c r="D157" s="116"/>
       <c r="E157" s="77"/>
       <c r="F157" s="9"/>
       <c r="G157" s="27"/>
@@ -12690,9 +12687,9 @@
     </row>
     <row r="158" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A158" s="56"/>
-      <c r="B158" s="112"/>
-      <c r="C158" s="112"/>
-      <c r="D158" s="112"/>
+      <c r="B158" s="114"/>
+      <c r="C158" s="114"/>
+      <c r="D158" s="114"/>
       <c r="E158" s="78"/>
       <c r="F158" s="7"/>
       <c r="G158" s="28"/>
@@ -12706,9 +12703,9 @@
     </row>
     <row r="159" spans="1:14" ht="25" customHeight="1">
       <c r="A159" s="56"/>
-      <c r="B159" s="113"/>
-      <c r="C159" s="113"/>
-      <c r="D159" s="113"/>
+      <c r="B159" s="115"/>
+      <c r="C159" s="115"/>
+      <c r="D159" s="115"/>
       <c r="E159" s="78"/>
       <c r="F159" s="8"/>
       <c r="G159" s="28"/>
@@ -12722,9 +12719,9 @@
     </row>
     <row r="160" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A160" s="57"/>
-      <c r="B160" s="114"/>
-      <c r="C160" s="114"/>
-      <c r="D160" s="114"/>
+      <c r="B160" s="116"/>
+      <c r="C160" s="116"/>
+      <c r="D160" s="116"/>
       <c r="E160" s="74"/>
       <c r="F160" s="9"/>
       <c r="G160" s="51"/>
@@ -12738,9 +12735,9 @@
     </row>
     <row r="161" spans="1:19" ht="25" customHeight="1" thickTop="1">
       <c r="A161" s="56"/>
-      <c r="B161" s="112"/>
-      <c r="C161" s="112"/>
-      <c r="D161" s="112"/>
+      <c r="B161" s="114"/>
+      <c r="C161" s="114"/>
+      <c r="D161" s="114"/>
       <c r="E161" s="78"/>
       <c r="F161" s="7"/>
       <c r="G161" s="28"/>
@@ -12754,9 +12751,9 @@
     </row>
     <row r="162" spans="1:19" ht="25" customHeight="1">
       <c r="A162" s="56"/>
-      <c r="B162" s="113"/>
-      <c r="C162" s="113"/>
-      <c r="D162" s="113"/>
+      <c r="B162" s="115"/>
+      <c r="C162" s="115"/>
+      <c r="D162" s="115"/>
       <c r="E162" s="78"/>
       <c r="F162" s="8"/>
       <c r="G162" s="28"/>
@@ -12770,9 +12767,9 @@
     </row>
     <row r="163" spans="1:19" ht="25" customHeight="1">
       <c r="A163" s="56"/>
-      <c r="B163" s="113"/>
-      <c r="C163" s="113"/>
-      <c r="D163" s="113"/>
+      <c r="B163" s="115"/>
+      <c r="C163" s="115"/>
+      <c r="D163" s="115"/>
       <c r="E163" s="73"/>
       <c r="F163" s="8"/>
       <c r="G163" s="50"/>
@@ -12786,9 +12783,9 @@
     </row>
     <row r="164" spans="1:19" ht="25" customHeight="1">
       <c r="A164" s="56"/>
-      <c r="B164" s="113"/>
-      <c r="C164" s="113"/>
-      <c r="D164" s="113"/>
+      <c r="B164" s="115"/>
+      <c r="C164" s="115"/>
+      <c r="D164" s="115"/>
       <c r="E164" s="73"/>
       <c r="F164" s="8"/>
       <c r="G164" s="50"/>
@@ -12802,9 +12799,9 @@
     </row>
     <row r="165" spans="1:19" ht="25" customHeight="1">
       <c r="A165" s="56"/>
-      <c r="B165" s="113"/>
-      <c r="C165" s="113"/>
-      <c r="D165" s="113"/>
+      <c r="B165" s="115"/>
+      <c r="C165" s="115"/>
+      <c r="D165" s="115"/>
       <c r="E165" s="73"/>
       <c r="F165" s="8"/>
       <c r="G165" s="50"/>
@@ -12818,9 +12815,9 @@
     </row>
     <row r="166" spans="1:19" ht="25" customHeight="1">
       <c r="A166" s="56"/>
-      <c r="B166" s="113"/>
-      <c r="C166" s="113"/>
-      <c r="D166" s="113"/>
+      <c r="B166" s="115"/>
+      <c r="C166" s="115"/>
+      <c r="D166" s="115"/>
       <c r="E166" s="73"/>
       <c r="F166" s="8"/>
       <c r="G166" s="50"/>
@@ -12834,9 +12831,9 @@
     </row>
     <row r="167" spans="1:19" ht="25" customHeight="1">
       <c r="A167" s="56"/>
-      <c r="B167" s="113"/>
-      <c r="C167" s="113"/>
-      <c r="D167" s="113"/>
+      <c r="B167" s="115"/>
+      <c r="C167" s="115"/>
+      <c r="D167" s="115"/>
       <c r="E167" s="73"/>
       <c r="F167" s="8"/>
       <c r="G167" s="50"/>
@@ -12850,9 +12847,9 @@
     </row>
     <row r="168" spans="1:19" ht="25" customHeight="1">
       <c r="A168" s="56"/>
-      <c r="B168" s="113"/>
-      <c r="C168" s="113"/>
-      <c r="D168" s="113"/>
+      <c r="B168" s="115"/>
+      <c r="C168" s="115"/>
+      <c r="D168" s="115"/>
       <c r="E168" s="73"/>
       <c r="F168" s="8"/>
       <c r="G168" s="50"/>
@@ -12866,9 +12863,9 @@
     </row>
     <row r="169" spans="1:19" ht="25" customHeight="1">
       <c r="A169" s="56"/>
-      <c r="B169" s="113"/>
-      <c r="C169" s="113"/>
-      <c r="D169" s="113"/>
+      <c r="B169" s="115"/>
+      <c r="C169" s="115"/>
+      <c r="D169" s="115"/>
       <c r="E169" s="73"/>
       <c r="F169" s="8"/>
       <c r="G169" s="50"/>
@@ -12882,9 +12879,9 @@
     </row>
     <row r="170" spans="1:19" ht="25" customHeight="1">
       <c r="A170" s="56"/>
-      <c r="B170" s="113"/>
-      <c r="C170" s="113"/>
-      <c r="D170" s="113"/>
+      <c r="B170" s="115"/>
+      <c r="C170" s="115"/>
+      <c r="D170" s="115"/>
       <c r="E170" s="73"/>
       <c r="F170" s="8"/>
       <c r="G170" s="50"/>
@@ -12898,9 +12895,9 @@
     </row>
     <row r="171" spans="1:19" ht="25" customHeight="1">
       <c r="A171" s="56"/>
-      <c r="B171" s="113"/>
-      <c r="C171" s="113"/>
-      <c r="D171" s="113"/>
+      <c r="B171" s="115"/>
+      <c r="C171" s="115"/>
+      <c r="D171" s="115"/>
       <c r="E171" s="73"/>
       <c r="F171" s="8"/>
       <c r="G171" s="50"/>
@@ -12914,9 +12911,9 @@
     </row>
     <row r="172" spans="1:19" ht="25" customHeight="1">
       <c r="A172" s="56"/>
-      <c r="B172" s="113"/>
-      <c r="C172" s="113"/>
-      <c r="D172" s="113"/>
+      <c r="B172" s="115"/>
+      <c r="C172" s="115"/>
+      <c r="D172" s="115"/>
       <c r="E172" s="73"/>
       <c r="F172" s="8"/>
       <c r="G172" s="50"/>
@@ -12930,9 +12927,9 @@
     </row>
     <row r="173" spans="1:19" ht="25" customHeight="1">
       <c r="A173" s="56"/>
-      <c r="B173" s="113"/>
-      <c r="C173" s="113"/>
-      <c r="D173" s="113"/>
+      <c r="B173" s="115"/>
+      <c r="C173" s="115"/>
+      <c r="D173" s="115"/>
       <c r="E173" s="73"/>
       <c r="F173" s="8"/>
       <c r="G173" s="50"/>
@@ -12946,9 +12943,9 @@
     </row>
     <row r="174" spans="1:19" ht="25" customHeight="1">
       <c r="A174" s="56"/>
-      <c r="B174" s="113"/>
-      <c r="C174" s="113"/>
-      <c r="D174" s="113"/>
+      <c r="B174" s="115"/>
+      <c r="C174" s="115"/>
+      <c r="D174" s="115"/>
       <c r="E174" s="73"/>
       <c r="F174" s="8"/>
       <c r="G174" s="50"/>
@@ -12962,9 +12959,9 @@
     </row>
     <row r="175" spans="1:19" ht="25" customHeight="1" thickBot="1">
       <c r="A175" s="57"/>
-      <c r="B175" s="114"/>
-      <c r="C175" s="114"/>
-      <c r="D175" s="114"/>
+      <c r="B175" s="116"/>
+      <c r="C175" s="116"/>
+      <c r="D175" s="116"/>
       <c r="E175" s="74"/>
       <c r="F175" s="9"/>
       <c r="G175" s="51"/>
@@ -12999,24 +12996,45 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="M37:M40"/>
-    <mergeCell ref="B41:B59"/>
-    <mergeCell ref="C41:C59"/>
-    <mergeCell ref="D41:D59"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C161:C175"/>
+    <mergeCell ref="D161:D175"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="C153:C157"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="B141:B149"/>
+    <mergeCell ref="C141:C149"/>
+    <mergeCell ref="D141:D149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="C134:C140"/>
+    <mergeCell ref="D134:D140"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="C118:C126"/>
+    <mergeCell ref="D118:D126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="C95:C105"/>
+    <mergeCell ref="D95:D105"/>
+    <mergeCell ref="B106:B117"/>
+    <mergeCell ref="C106:C117"/>
+    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
     <mergeCell ref="B71:B83"/>
     <mergeCell ref="C71:C83"/>
     <mergeCell ref="D71:D83"/>
@@ -13027,45 +13045,24 @@
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="C62:C70"/>
     <mergeCell ref="D62:D70"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="C95:C105"/>
-    <mergeCell ref="D95:D105"/>
-    <mergeCell ref="B106:B117"/>
-    <mergeCell ref="C106:C117"/>
-    <mergeCell ref="D106:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="C118:C126"/>
-    <mergeCell ref="D118:D126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="C134:C140"/>
-    <mergeCell ref="D134:D140"/>
-    <mergeCell ref="B141:B149"/>
-    <mergeCell ref="C141:C149"/>
-    <mergeCell ref="D141:D149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C161:C175"/>
-    <mergeCell ref="D161:D175"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="C153:C157"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="M37:M40"/>
+    <mergeCell ref="B41:B59"/>
+    <mergeCell ref="C41:C59"/>
+    <mergeCell ref="D41:D59"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -13085,6 +13082,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1955CD168AAC14C819F920356231C42" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c6f91e9e183813820c4502b10801dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="572875e0-2005-4f9c-9506-c68f9f744b62" xmlns:ns4="2b9b6cd5-951d-454f-94a9-ffa9219aaa40" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dceb2d5ed2711af0c174551cf76fa19b" ns3:_="" ns4:_="">
     <xsd:import namespace="572875e0-2005-4f9c-9506-c68f9f744b62"/>
@@ -13307,12 +13310,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A832EF-1532-484C-9DE1-0C6D83D0A316}">
   <ds:schemaRefs>
@@ -13322,6 +13319,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A633E3D6-5124-4560-9395-FBA3BD069200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2b9b6cd5-951d-454f-94a9-ffa9219aaa40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="572875e0-2005-4f9c-9506-c68f9f744b62"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36F5A3D-695E-4142-9AA1-F895D3D71DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13338,21 +13352,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A633E3D6-5124-4560-9395-FBA3BD069200}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2b9b6cd5-951d-454f-94a9-ffa9219aaa40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="572875e0-2005-4f9c-9506-c68f9f744b62"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56248948-8523-4437-A876-2EB22782B921}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51D52A7-0FED-4BAC-B333-94C09A71176B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ERR_Approve_Reject" sheetId="11" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="253">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -833,12 +833,19 @@
   <si>
     <t>TC_120</t>
   </si>
+  <si>
+    <t>Enter the accrual amount along with the charge code and General Ledger (GL) category in the below table.</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <numFmts count="0"/>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1036,12 @@
       <color theme="0"/>
       <name val="Amasis MT Pro"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1592,6 +1605,11 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,23 +1619,14 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,19 +1640,23 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1671,147 +1684,147 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp101.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp102.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp103.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp104.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp105.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp106.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp107.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp112.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp113.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp114.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp115.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp116.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp117.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp118.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp119.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp120.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp121.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp122.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp123.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1819,43 +1832,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$26" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$26" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1863,43 +1876,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1907,23 +1920,23 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$39" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$40" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$40" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1931,19 +1944,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1951,219 +1964,219 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$V$41" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2330,7 +2343,7 @@
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29624238-937F-43B8-B376-319A46D14DD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2397,7 +2410,7 @@
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5815CEF-8B79-4C23-A962-4976C06961D6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000070C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5149,7 +5162,7 @@
                   <a14:compatExt spid="_x0000_s9257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D234FDB2-1087-4E95-AED2-F83D3E3F6288}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5195,14 +5208,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>920750</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="381000" cy="317500"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9258" name="Check Box 42" hidden="1">
@@ -5211,7 +5229,7 @@
                   <a14:compatExt spid="_x0000_s9258"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723A4771-466B-4B18-BE88-3CEB6F7D9C54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5251,7 +5269,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -5278,7 +5296,7 @@
                   <a14:compatExt spid="_x0000_s9259"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABCC765-8ADA-4FC3-B0A7-35F97AE84119}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5345,7 +5363,7 @@
                   <a14:compatExt spid="_x0000_s9260"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEE7487-2EA0-4444-846F-B92759E833CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5412,7 +5430,7 @@
                   <a14:compatExt spid="_x0000_s9261"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A254F78-440A-4E61-90F2-FCDF7141A502}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5479,7 +5497,7 @@
                   <a14:compatExt spid="_x0000_s9262"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0E63D3-32E5-40C5-8FDE-5FDA5E310308}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5546,7 +5564,7 @@
                   <a14:compatExt spid="_x0000_s9263"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D452491-99E3-4B4C-9667-234B3CE0661A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5613,7 +5631,7 @@
                   <a14:compatExt spid="_x0000_s9264"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CAF053-A8C5-4A7F-AFC2-4AA8293DE9E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5680,7 +5698,7 @@
                   <a14:compatExt spid="_x0000_s9265"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57975ECE-1B11-4B71-81E2-0E8D2457F6FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5747,7 +5765,7 @@
                   <a14:compatExt spid="_x0000_s9266"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB37432-97A4-484E-931F-87A2F7ABF201}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5814,7 +5832,7 @@
                   <a14:compatExt spid="_x0000_s9267"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730E8354-5C88-41C2-B84F-6B5551E7F2ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5881,7 +5899,7 @@
                   <a14:compatExt spid="_x0000_s9268"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42372552-9842-410E-99AA-22793824D6D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5948,7 +5966,7 @@
                   <a14:compatExt spid="_x0000_s9269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F54CEF7-ACA8-418D-A90D-9C7010788152}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6015,7 +6033,7 @@
                   <a14:compatExt spid="_x0000_s9270"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462209E2-7B8D-4DD2-96D0-E43713644267}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6082,7 +6100,7 @@
                   <a14:compatExt spid="_x0000_s9271"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6625B91B-60B8-4CAD-B04B-83B0245AF945}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6149,7 +6167,7 @@
                   <a14:compatExt spid="_x0000_s9272"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBAA71C-2C29-4145-95F7-1DAA314C0808}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6216,7 +6234,7 @@
                   <a14:compatExt spid="_x0000_s9273"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCE5E60-F45D-4206-A7C0-4AFD2215BAB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6283,7 +6301,7 @@
                   <a14:compatExt spid="_x0000_s9274"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CFDBD4-601F-40C9-A602-AB75C6DEDC63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6350,7 +6368,7 @@
                   <a14:compatExt spid="_x0000_s9275"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3415D8-2C1E-4830-9669-117B3FD8A7ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6417,7 +6435,7 @@
                   <a14:compatExt spid="_x0000_s9276"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50B060B-76C1-4707-AFA2-2EC3F52FBBD2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6484,7 +6502,7 @@
                   <a14:compatExt spid="_x0000_s9277"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E9B5FE-62B6-4F3E-BEDB-882B2735924F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6551,7 +6569,7 @@
                   <a14:compatExt spid="_x0000_s9278"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5726453D-B07E-414F-9DB8-49BB49264B8D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6618,7 +6636,7 @@
                   <a14:compatExt spid="_x0000_s9279"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23811B6D-B027-4FE8-B74C-DC3188C26BC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6685,7 +6703,7 @@
                   <a14:compatExt spid="_x0000_s9280"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F183F0-A820-406E-A0C5-32EF84425EDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6752,7 +6770,7 @@
                   <a14:compatExt spid="_x0000_s9281"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC8867E3-9F8F-4424-9090-C320EF51B125}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6819,7 +6837,7 @@
                   <a14:compatExt spid="_x0000_s9282"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCA09D2-A197-4FF8-8BDB-DF0A2E549AD4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6886,7 +6904,7 @@
                   <a14:compatExt spid="_x0000_s9283"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680D6596-ADD7-489C-AA8F-F087006E5386}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6953,7 +6971,7 @@
                   <a14:compatExt spid="_x0000_s9284"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6FB85A-540C-4847-9058-5D52EA40B110}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7020,7 +7038,7 @@
                   <a14:compatExt spid="_x0000_s9285"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5388A929-3B0F-4676-BAB2-2C8FAC707EC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7087,7 +7105,7 @@
                   <a14:compatExt spid="_x0000_s9286"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A1E8E2B-A0E5-4AD3-A0D9-E4FAFDF8C4BE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7154,7 +7172,7 @@
                   <a14:compatExt spid="_x0000_s9287"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9536D72-5E7D-4B94-9415-169ACEE59135}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7221,7 +7239,7 @@
                   <a14:compatExt spid="_x0000_s9288"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D24BB2-E91A-4291-8ABD-53234EADEAD9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7288,7 +7306,7 @@
                   <a14:compatExt spid="_x0000_s9289"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D74ACD-FF14-49F1-AA1C-BA29467ECF38}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7355,7 +7373,7 @@
                   <a14:compatExt spid="_x0000_s9290"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6ECA42-A9C0-4B38-ADDC-09B4FD862B34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7422,7 +7440,7 @@
                   <a14:compatExt spid="_x0000_s9291"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C44160-1B9C-41F2-A1C5-743A9CB3D51D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7489,7 +7507,7 @@
                   <a14:compatExt spid="_x0000_s9292"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0E4353-1765-4B27-89EC-0509B54FF6CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7556,7 +7574,7 @@
                   <a14:compatExt spid="_x0000_s9293"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C25B09D6-B9FF-4C0C-BACC-6FCEAAC43AC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7623,7 +7641,7 @@
                   <a14:compatExt spid="_x0000_s9294"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1824055-C73E-4D49-ABA5-10DEE65A421A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7690,7 +7708,7 @@
                   <a14:compatExt spid="_x0000_s9295"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6F9377-7950-4B99-AA6F-384565BA7C50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7757,7 +7775,7 @@
                   <a14:compatExt spid="_x0000_s9296"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AA217D-8A9E-4398-84AA-FF8D8061CD93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7824,7 +7842,7 @@
                   <a14:compatExt spid="_x0000_s9297"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5655C8-0159-4AD6-B973-EC72542B183E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7891,7 +7909,7 @@
                   <a14:compatExt spid="_x0000_s9298"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F07400-090B-47F0-88FC-279B7405687C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7958,7 +7976,7 @@
                   <a14:compatExt spid="_x0000_s9299"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852B6913-41D6-4B27-A75A-2D0C2C1305FE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8025,7 +8043,7 @@
                   <a14:compatExt spid="_x0000_s9300"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628B0569-1FBD-42D7-A2AD-51B7A16F3624}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8092,7 +8110,7 @@
                   <a14:compatExt spid="_x0000_s9301"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC26DFB-3C48-4A6F-AE9D-3F8A19B4FFDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8159,7 +8177,7 @@
                   <a14:compatExt spid="_x0000_s9302"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B869C7-9B62-4A70-B598-8056DE77FCD1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8226,7 +8244,7 @@
                   <a14:compatExt spid="_x0000_s9303"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF73EF1-9215-435B-8B4A-EDE944B0588B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8293,7 +8311,7 @@
                   <a14:compatExt spid="_x0000_s9304"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577415F1-65AB-4CC4-B586-1B9CDA900154}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8360,7 +8378,7 @@
                   <a14:compatExt spid="_x0000_s9305"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{136DE684-3AE3-46FC-8FA5-33C51F764068}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8427,7 +8445,7 @@
                   <a14:compatExt spid="_x0000_s9306"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49952E94-D977-49E2-8C58-0E3C95229BC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8494,7 +8512,7 @@
                   <a14:compatExt spid="_x0000_s9307"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BDFBCA-777D-401C-AA0F-4BD12AD7FB9E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8561,7 +8579,7 @@
                   <a14:compatExt spid="_x0000_s9308"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85127D29-C029-4E7D-854B-7AC15187A8A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8628,7 +8646,7 @@
                   <a14:compatExt spid="_x0000_s9309"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9A7F4F-8C9B-497A-9276-30485FC448CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8695,7 +8713,7 @@
                   <a14:compatExt spid="_x0000_s9310"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A82C17FD-627D-4525-8B8A-22F38F797D45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8762,7 +8780,7 @@
                   <a14:compatExt spid="_x0000_s9311"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5507304D-D487-4C50-9037-F6756E840816}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8829,7 +8847,7 @@
                   <a14:compatExt spid="_x0000_s9312"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06542251-5DD8-4B7C-AAE0-6485C73B69F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8896,7 +8914,7 @@
                   <a14:compatExt spid="_x0000_s9313"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BBC936-C2A2-4D71-89C9-F1A8572209C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8963,7 +8981,7 @@
                   <a14:compatExt spid="_x0000_s9314"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BD9FFF0-9B55-41B7-BC71-C053B08E2071}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9030,7 +9048,7 @@
                   <a14:compatExt spid="_x0000_s9315"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29FCB1B-10BE-4126-98DE-CAC667543E91}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9097,7 +9115,7 @@
                   <a14:compatExt spid="_x0000_s9316"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334C1934-4DDE-4534-A2EB-4EEE430B4857}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9164,7 +9182,7 @@
                   <a14:compatExt spid="_x0000_s9317"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002B45F0-B387-4A80-907A-949D4F6690A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9231,7 +9249,7 @@
                   <a14:compatExt spid="_x0000_s9318"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1444AFDB-2E87-4F0B-BF79-AC5428C06299}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9298,7 +9316,7 @@
                   <a14:compatExt spid="_x0000_s9319"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E30E3-2EBB-45E3-81FD-92B7889BCEF8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9365,7 +9383,7 @@
                   <a14:compatExt spid="_x0000_s9320"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6948CB5F-2AE6-4816-BA7A-87E77C0363CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9451,7 +9469,7 @@
                   <a14:compatExt spid="_x0000_s9321"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D7DA44-F481-478D-BF68-0D72B6697434}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9518,7 +9536,7 @@
                   <a14:compatExt spid="_x0000_s9322"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AFF424-FCE4-46A5-988B-0DFA19923546}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9585,7 +9603,7 @@
                   <a14:compatExt spid="_x0000_s9323"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D575A7-BD5F-4A15-B400-4E1BD645DFDB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9652,7 +9670,7 @@
                   <a14:compatExt spid="_x0000_s9324"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D203076-B4D7-449A-9D3D-B65B25BD7860}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9719,7 +9737,7 @@
                   <a14:compatExt spid="_x0000_s9325"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68444A46-B5A1-40A4-A57A-7DC871DE943E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9786,7 +9804,7 @@
                   <a14:compatExt spid="_x0000_s9326"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED552D5D-A0E7-4D2C-A8C9-2EE7B866D78D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9853,7 +9871,7 @@
                   <a14:compatExt spid="_x0000_s9327"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FCCE37-0028-4CED-A4AE-17FB40C704A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9920,7 +9938,7 @@
                   <a14:compatExt spid="_x0000_s9328"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365378F0-2E32-4D19-B67C-91BB2D582A7B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9987,7 +10005,7 @@
                   <a14:compatExt spid="_x0000_s9329"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B06F9F2B-7BA5-46F8-BFC8-AC1A6A157968}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10054,7 +10072,7 @@
                   <a14:compatExt spid="_x0000_s9330"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB31CD5-B000-4CDE-A5A5-A1BA402C46B2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10121,7 +10139,7 @@
                   <a14:compatExt spid="_x0000_s9331"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97BB6EC-939E-4DBB-B7FE-01656BA2EB4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10188,7 +10206,7 @@
                   <a14:compatExt spid="_x0000_s9332"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC753B7E-1EBC-40BF-A940-82B8EE6BF9AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10255,7 +10273,7 @@
                   <a14:compatExt spid="_x0000_s9333"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6312E9-4EFA-4BF3-B81E-B59FAF36AD3B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10322,7 +10340,7 @@
                   <a14:compatExt spid="_x0000_s9334"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A886F0-9F0E-4393-8960-2C72EB971386}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10389,7 +10407,7 @@
                   <a14:compatExt spid="_x0000_s9335"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A49193B-7E12-4AF6-850F-947D234DE77F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10456,7 +10474,7 @@
                   <a14:compatExt spid="_x0000_s9336"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5853E3-2BA8-4193-9DA4-3C435C95DB45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10523,7 +10541,7 @@
                   <a14:compatExt spid="_x0000_s9337"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7313D82D-9A28-4B38-9FE5-C82B12111B12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10865,34 +10883,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.08984375" style="95" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.54296875" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.6328125" style="97" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7265625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="16" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28" style="11" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.90625" style="11" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.6328125" style="97" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="8.90625" style="6" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="14.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="95" width="25.08984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="24.54296875" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="97" width="23.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="30.7265625" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="11" width="28.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="29" width="34.08984375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="11" width="28.90625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="97" width="20.6328125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="36" max="16384" style="6" width="8.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="48" customFormat="1" ht="28.25" customHeight="1" thickTop="1" thickBot="1">
@@ -11023,10 +11041,10 @@
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="7170" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -11059,43 +11077,43 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6328125" style="95" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.6328125" style="97" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7265625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="16" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28" style="11" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.90625" style="11" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.6328125" style="97" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="8.90625" style="6" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="18.54296875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="95" width="20.6328125" collapsed="true"/>
+    <col min="3" max="9" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="97" width="23.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="30.7265625" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="11" width="28.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="29" width="34.08984375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="11" width="28.90625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="97" width="20.6328125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="36" max="16384" style="6" width="8.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="48" customFormat="1" ht="50.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="112" t="s">
         <v>170</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -11345,10 +11363,10 @@
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="3074" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -11370,10 +11388,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="3078" r:id="rId5" name="Check Box 6">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!Module2.SelectAll_Click">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -11392,7 +11410,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="3079" r:id="rId6" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -11425,43 +11443,43 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AI121"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" style="6" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.6328125" style="95" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.6328125" style="97" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.7265625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="16" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="28" style="11" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="34.08984375" style="29" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.90625" style="11" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="20.6328125" style="97" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="20.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="8.90625" style="6" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="6" width="18.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="95" width="20.6328125" collapsed="true"/>
+    <col min="3" max="9" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="97" width="23.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="30.7265625" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="11" width="28.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="29" width="34.08984375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="11" width="28.90625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="97" width="20.6328125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="29" width="20.6328125" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="11" width="20.6328125" collapsed="true"/>
+    <col min="36" max="16384" style="6" width="8.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="48" customFormat="1" ht="50.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="112" t="s">
         <v>170</v>
       </c>
       <c r="B1" s="47" t="s">
@@ -11596,14 +11614,10 @@
       <c r="R2" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="16"/>
       <c r="U2" s="5" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="V2" s="111" t="b">
         <v>1</v>
@@ -11687,7 +11701,7 @@
         <v>108</v>
       </c>
       <c r="V3" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="19"/>
@@ -11768,7 +11782,7 @@
         <v>108</v>
       </c>
       <c r="V4" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16"/>
       <c r="X4" s="19"/>
@@ -11849,7 +11863,7 @@
         <v>108</v>
       </c>
       <c r="V5" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="19"/>
@@ -11930,7 +11944,7 @@
         <v>108</v>
       </c>
       <c r="V6" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="19"/>
@@ -12011,7 +12025,7 @@
         <v>108</v>
       </c>
       <c r="V7" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="19"/>
@@ -12092,7 +12106,7 @@
         <v>108</v>
       </c>
       <c r="V8" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="19"/>
@@ -12173,7 +12187,7 @@
         <v>108</v>
       </c>
       <c r="V9" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="16"/>
       <c r="X9" s="19"/>
@@ -12254,7 +12268,7 @@
         <v>108</v>
       </c>
       <c r="V10" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="19"/>
@@ -12335,7 +12349,7 @@
         <v>108</v>
       </c>
       <c r="V11" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="16"/>
       <c r="X11" s="19"/>
@@ -12416,7 +12430,7 @@
         <v>108</v>
       </c>
       <c r="V12" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="16"/>
       <c r="X12" s="19"/>
@@ -12497,7 +12511,7 @@
         <v>108</v>
       </c>
       <c r="V13" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="16"/>
       <c r="X13" s="19"/>
@@ -12578,7 +12592,7 @@
         <v>108</v>
       </c>
       <c r="V14" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="16"/>
       <c r="X14" s="19"/>
@@ -12659,7 +12673,7 @@
         <v>108</v>
       </c>
       <c r="V15" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="16"/>
       <c r="X15" s="19"/>
@@ -12740,7 +12754,7 @@
         <v>108</v>
       </c>
       <c r="V16" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="16"/>
       <c r="X16" s="19"/>
@@ -12821,7 +12835,7 @@
         <v>108</v>
       </c>
       <c r="V17" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="16"/>
       <c r="X17" s="19"/>
@@ -12902,7 +12916,7 @@
         <v>108</v>
       </c>
       <c r="V18" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="16"/>
       <c r="X18" s="19"/>
@@ -12983,7 +12997,7 @@
         <v>108</v>
       </c>
       <c r="V19" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="16"/>
       <c r="X19" s="19"/>
@@ -13064,7 +13078,7 @@
         <v>108</v>
       </c>
       <c r="V20" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="16"/>
       <c r="X20" s="19"/>
@@ -13145,7 +13159,7 @@
         <v>108</v>
       </c>
       <c r="V21" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="16"/>
       <c r="X21" s="19"/>
@@ -13226,7 +13240,7 @@
         <v>108</v>
       </c>
       <c r="V22" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="16"/>
       <c r="X22" s="19"/>
@@ -13307,7 +13321,7 @@
         <v>108</v>
       </c>
       <c r="V23" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="16"/>
       <c r="X23" s="19"/>
@@ -13388,7 +13402,7 @@
         <v>108</v>
       </c>
       <c r="V24" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="16"/>
       <c r="X24" s="19"/>
@@ -13469,7 +13483,7 @@
         <v>108</v>
       </c>
       <c r="V25" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="19"/>
@@ -13550,7 +13564,7 @@
         <v>108</v>
       </c>
       <c r="V26" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="16"/>
       <c r="X26" s="19"/>
@@ -13631,7 +13645,7 @@
         <v>108</v>
       </c>
       <c r="V27" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="16"/>
       <c r="X27" s="19"/>
@@ -13712,7 +13726,7 @@
         <v>108</v>
       </c>
       <c r="V28" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="16"/>
       <c r="X28" s="19"/>
@@ -13793,7 +13807,7 @@
         <v>108</v>
       </c>
       <c r="V29" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="16"/>
       <c r="X29" s="19"/>
@@ -13874,7 +13888,7 @@
         <v>108</v>
       </c>
       <c r="V30" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="16"/>
       <c r="X30" s="19"/>
@@ -13955,7 +13969,7 @@
         <v>108</v>
       </c>
       <c r="V31" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="16"/>
       <c r="X31" s="19"/>
@@ -14036,7 +14050,7 @@
         <v>108</v>
       </c>
       <c r="V32" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="16"/>
       <c r="X32" s="19"/>
@@ -14117,7 +14131,7 @@
         <v>108</v>
       </c>
       <c r="V33" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="16"/>
       <c r="X33" s="19"/>
@@ -14198,7 +14212,7 @@
         <v>108</v>
       </c>
       <c r="V34" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="16"/>
       <c r="X34" s="19"/>
@@ -14279,7 +14293,7 @@
         <v>108</v>
       </c>
       <c r="V35" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="16"/>
       <c r="X35" s="19"/>
@@ -14360,7 +14374,7 @@
         <v>108</v>
       </c>
       <c r="V36" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" s="16"/>
       <c r="X36" s="19"/>
@@ -14441,7 +14455,7 @@
         <v>108</v>
       </c>
       <c r="V37" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="16"/>
       <c r="X37" s="19"/>
@@ -14522,7 +14536,7 @@
         <v>108</v>
       </c>
       <c r="V38" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" s="16"/>
       <c r="X38" s="19"/>
@@ -14603,7 +14617,7 @@
         <v>108</v>
       </c>
       <c r="V39" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="16"/>
       <c r="X39" s="19"/>
@@ -14684,7 +14698,7 @@
         <v>108</v>
       </c>
       <c r="V40" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="16"/>
       <c r="X40" s="19"/>
@@ -14765,7 +14779,7 @@
         <v>108</v>
       </c>
       <c r="V41" s="111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="16"/>
       <c r="X41" s="19"/>
@@ -21269,10 +21283,10 @@
   </headerFooter>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x14">
       <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9217" r:id="rId4" name="Check Box 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21294,7 +21308,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9218" r:id="rId5" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21316,7 +21330,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9219" r:id="rId6" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21338,7 +21352,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9220" r:id="rId7" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21360,7 +21374,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9221" r:id="rId8" name="Check Box 5">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21382,7 +21396,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9222" r:id="rId9" name="Check Box 6">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21404,7 +21418,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9223" r:id="rId10" name="Check Box 7">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21426,7 +21440,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9224" r:id="rId11" name="Check Box 8">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21448,7 +21462,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9225" r:id="rId12" name="Check Box 9">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21470,7 +21484,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9226" r:id="rId13" name="Check Box 10">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21492,7 +21506,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9227" r:id="rId14" name="Check Box 11">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21514,7 +21528,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9228" r:id="rId15" name="Check Box 12">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21536,7 +21550,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9229" r:id="rId16" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21558,7 +21572,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9230" r:id="rId17" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21580,7 +21594,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9231" r:id="rId18" name="Check Box 15">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21602,7 +21616,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9232" r:id="rId19" name="Check Box 16">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21624,7 +21638,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9233" r:id="rId20" name="Check Box 17">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21646,7 +21660,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9234" r:id="rId21" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21668,7 +21682,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9235" r:id="rId22" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21690,7 +21704,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9236" r:id="rId23" name="Check Box 20">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21712,7 +21726,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9237" r:id="rId24" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21734,7 +21748,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9238" r:id="rId25" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21756,7 +21770,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9239" r:id="rId26" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21778,7 +21792,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9240" r:id="rId27" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21800,7 +21814,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9241" r:id="rId28" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21822,7 +21836,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9242" r:id="rId29" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21844,7 +21858,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9243" r:id="rId30" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21866,7 +21880,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9244" r:id="rId31" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21888,7 +21902,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9245" r:id="rId32" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21910,7 +21924,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9246" r:id="rId33" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21932,7 +21946,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9247" r:id="rId34" name="Check Box 31">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21954,7 +21968,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9248" r:id="rId35" name="Check Box 32">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21976,7 +21990,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9249" r:id="rId36" name="Check Box 33">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -21998,7 +22012,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9250" r:id="rId37" name="Check Box 34">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22020,7 +22034,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9251" r:id="rId38" name="Check Box 35">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22042,7 +22056,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9252" r:id="rId39" name="Check Box 36">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22064,7 +22078,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9253" r:id="rId40" name="Check Box 37">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22086,7 +22100,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9254" r:id="rId41" name="Check Box 38">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22108,7 +22122,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9255" r:id="rId42" name="Check Box 39">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22130,7 +22144,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9256" r:id="rId43" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22152,10 +22166,10 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9257" r:id="rId44" name="Check Box 41">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!Module4.SelectAll_Click">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" macro="[0]!Module1.SelectAll_Click">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -22174,7 +22188,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9258" r:id="rId45" name="Check Box 42">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22196,7 +22210,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9259" r:id="rId46" name="Check Box 43">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22218,7 +22232,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9260" r:id="rId47" name="Check Box 44">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22240,7 +22254,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9261" r:id="rId48" name="Check Box 45">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22262,7 +22276,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9262" r:id="rId49" name="Check Box 46">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22284,7 +22298,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9263" r:id="rId50" name="Check Box 47">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22306,7 +22320,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9264" r:id="rId51" name="Check Box 48">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22328,7 +22342,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9265" r:id="rId52" name="Check Box 49">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22350,7 +22364,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9266" r:id="rId53" name="Check Box 50">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22372,7 +22386,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9267" r:id="rId54" name="Check Box 51">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22394,7 +22408,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9268" r:id="rId55" name="Check Box 52">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22416,7 +22430,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9269" r:id="rId56" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22438,7 +22452,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9270" r:id="rId57" name="Check Box 54">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22460,7 +22474,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9271" r:id="rId58" name="Check Box 55">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22482,7 +22496,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9272" r:id="rId59" name="Check Box 56">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22504,7 +22518,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9273" r:id="rId60" name="Check Box 57">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22526,7 +22540,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9274" r:id="rId61" name="Check Box 58">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22548,7 +22562,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9275" r:id="rId62" name="Check Box 59">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22570,7 +22584,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9276" r:id="rId63" name="Check Box 60">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22592,7 +22606,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9277" r:id="rId64" name="Check Box 61">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22614,7 +22628,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9278" r:id="rId65" name="Check Box 62">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22636,7 +22650,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9279" r:id="rId66" name="Check Box 63">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22658,7 +22672,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9280" r:id="rId67" name="Check Box 64">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22680,7 +22694,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9281" r:id="rId68" name="Check Box 65">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22702,7 +22716,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9282" r:id="rId69" name="Check Box 66">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22724,7 +22738,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9283" r:id="rId70" name="Check Box 67">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22746,7 +22760,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9284" r:id="rId71" name="Check Box 68">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22768,7 +22782,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9285" r:id="rId72" name="Check Box 69">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22790,7 +22804,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9286" r:id="rId73" name="Check Box 70">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22812,7 +22826,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9287" r:id="rId74" name="Check Box 71">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22834,7 +22848,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9288" r:id="rId75" name="Check Box 72">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22856,7 +22870,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9289" r:id="rId76" name="Check Box 73">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22878,7 +22892,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9290" r:id="rId77" name="Check Box 74">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22900,7 +22914,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9291" r:id="rId78" name="Check Box 75">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22922,7 +22936,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9292" r:id="rId79" name="Check Box 76">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22944,7 +22958,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9293" r:id="rId80" name="Check Box 77">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22966,7 +22980,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9294" r:id="rId81" name="Check Box 78">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -22988,7 +23002,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9295" r:id="rId82" name="Check Box 79">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23010,7 +23024,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9296" r:id="rId83" name="Check Box 80">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23032,7 +23046,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9297" r:id="rId84" name="Check Box 81">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23054,7 +23068,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9298" r:id="rId85" name="Check Box 82">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23076,7 +23090,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9299" r:id="rId86" name="Check Box 83">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23098,7 +23112,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9300" r:id="rId87" name="Check Box 84">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23120,7 +23134,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9301" r:id="rId88" name="Check Box 85">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23142,7 +23156,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9302" r:id="rId89" name="Check Box 86">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23164,7 +23178,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9303" r:id="rId90" name="Check Box 87">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23186,7 +23200,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9304" r:id="rId91" name="Check Box 88">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23208,7 +23222,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9305" r:id="rId92" name="Check Box 89">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23230,7 +23244,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9306" r:id="rId93" name="Check Box 90">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23252,7 +23266,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9307" r:id="rId94" name="Check Box 91">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23274,7 +23288,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9308" r:id="rId95" name="Check Box 92">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23296,7 +23310,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9309" r:id="rId96" name="Check Box 93">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23318,7 +23332,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9310" r:id="rId97" name="Check Box 94">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23340,7 +23354,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9311" r:id="rId98" name="Check Box 95">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23362,7 +23376,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9312" r:id="rId99" name="Check Box 96">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23384,7 +23398,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9313" r:id="rId100" name="Check Box 97">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23406,7 +23420,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9314" r:id="rId101" name="Check Box 98">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23428,7 +23442,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9315" r:id="rId102" name="Check Box 99">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23450,7 +23464,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9316" r:id="rId103" name="Check Box 100">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23472,7 +23486,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9317" r:id="rId104" name="Check Box 101">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23494,7 +23508,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9318" r:id="rId105" name="Check Box 102">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23516,7 +23530,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9319" r:id="rId106" name="Check Box 103">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23538,7 +23552,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9320" r:id="rId107" name="Check Box 104">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23560,7 +23574,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9321" r:id="rId108" name="Check Box 105">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23582,7 +23596,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9322" r:id="rId109" name="Check Box 106">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23604,7 +23618,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9323" r:id="rId110" name="Check Box 107">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23626,7 +23640,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9324" r:id="rId111" name="Check Box 108">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23648,7 +23662,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9325" r:id="rId112" name="Check Box 109">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23670,7 +23684,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9326" r:id="rId113" name="Check Box 110">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23692,7 +23706,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9327" r:id="rId114" name="Check Box 111">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23714,7 +23728,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9328" r:id="rId115" name="Check Box 112">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23736,7 +23750,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9329" r:id="rId116" name="Check Box 113">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23758,7 +23772,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9330" r:id="rId117" name="Check Box 114">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23780,7 +23794,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9331" r:id="rId118" name="Check Box 115">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23802,7 +23816,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9332" r:id="rId119" name="Check Box 116">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23824,7 +23838,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9333" r:id="rId120" name="Check Box 117">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23846,7 +23860,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9334" r:id="rId121" name="Check Box 118">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23868,7 +23882,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9335" r:id="rId122" name="Check Box 119">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23890,7 +23904,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9336" r:id="rId123" name="Check Box 120">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23912,7 +23926,7 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:AlternateContent>
           <mc:Choice Requires="x14">
             <control shapeId="9337" r:id="rId124" name="Check Box 121">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
@@ -23952,23 +23966,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" style="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.6328125" style="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.1796875" style="31" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.08984375" style="31" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.54296875" style="31" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.1796875" style="31" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="17.08984375" style="31" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14" style="31" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.90625" style="31" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.453125" style="31" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.36328125" style="31" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.6328125" style="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.1796875" style="32" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9" style="32" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="20.81640625" style="32" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.453125" style="33" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.90625" style="32" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="35" width="17.6328125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="31" width="17.6328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="31" width="20.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="31" width="17.08984375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="31" width="17.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="31" width="16.1796875" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="31" width="17.08984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="31" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="31" width="13.90625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="31" width="27.453125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="31" width="12.36328125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="32" width="17.6328125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="32" width="14.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="32" width="9.0" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" style="32" width="20.81640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="33" width="17.453125" collapsed="true"/>
+    <col min="19" max="16384" style="32" width="8.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="34" customFormat="1" ht="28.25" customHeight="1" thickTop="1" thickBot="1">
@@ -24653,21 +24667,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="60" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.90625" style="11" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.90625" style="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.54296875" style="11" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.81640625" style="79" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="154" style="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.6328125" style="29" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.6328125" style="11" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="8.90625" style="6" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="60" width="15.08984375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="11" width="35.90625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="11" width="29.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="11" width="38.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="79" width="24.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="154.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="29" width="25.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="11" width="25.6328125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="29" width="25.6328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="11" width="25.6328125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="29" width="25.6328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="11" width="25.6328125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="29" width="25.6328125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="11" width="25.6328125" collapsed="true"/>
+    <col min="15" max="16384" style="6" width="8.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="28.25" customHeight="1" thickTop="1" thickBot="1">
@@ -24876,107 +24890,107 @@
     </row>
     <row r="13" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A13" s="61"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="128"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="61"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="128"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A15" s="61"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="128"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A16" s="61"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="128"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="68"/>
     </row>
     <row r="17" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A17" s="61"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="128"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A18" s="61"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="128"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="68"/>
     </row>
     <row r="19" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A19" s="61"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="128"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="61"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="128"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A21" s="61"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="128"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A22" s="61"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A23" s="61"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
       <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A24" s="61"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
       <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:14" customFormat="1" ht="25" customHeight="1">
       <c r="A25" s="61"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
       <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:14" customFormat="1" ht="24.5" customHeight="1" thickBot="1">
       <c r="A26" s="61"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
       <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
       <c r="E27" s="73"/>
       <c r="F27" s="7"/>
       <c r="G27" s="50"/>
@@ -24990,9 +25004,9 @@
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
       <c r="E28" s="73"/>
       <c r="F28" s="8"/>
       <c r="G28" s="50"/>
@@ -25006,9 +25020,9 @@
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="116"/>
       <c r="E29" s="73"/>
       <c r="F29" s="8"/>
       <c r="G29" s="50"/>
@@ -25022,9 +25036,9 @@
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
       <c r="E30" s="73"/>
       <c r="F30" s="8"/>
       <c r="G30" s="50"/>
@@ -25038,9 +25052,9 @@
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
       <c r="E31" s="73"/>
       <c r="F31" s="8"/>
       <c r="G31" s="50"/>
@@ -25054,9 +25068,9 @@
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
       <c r="E32" s="73"/>
       <c r="F32" s="8"/>
       <c r="G32" s="50"/>
@@ -25070,9 +25084,9 @@
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="73"/>
       <c r="F33" s="8"/>
       <c r="G33" s="50"/>
@@ -25086,9 +25100,9 @@
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1">
       <c r="A34" s="16"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="73"/>
       <c r="F34" s="8"/>
       <c r="G34" s="50"/>
@@ -25102,9 +25116,9 @@
     </row>
     <row r="35" spans="1:14" ht="25" customHeight="1">
       <c r="A35" s="16"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
       <c r="E35" s="73"/>
       <c r="F35" s="8"/>
       <c r="G35" s="50"/>
@@ -25118,9 +25132,9 @@
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A36" s="53"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
       <c r="E36" s="74"/>
       <c r="F36" s="9"/>
       <c r="G36" s="51"/>
@@ -25134,73 +25148,73 @@
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A37" s="16"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="112"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
       <c r="E37" s="122"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="125"/>
+      <c r="G37" s="118"/>
       <c r="H37" s="7"/>
-      <c r="I37" s="125"/>
+      <c r="I37" s="118"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="125"/>
+      <c r="K37" s="118"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="125"/>
+      <c r="M37" s="118"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1">
       <c r="A38" s="16"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="123"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="126"/>
+      <c r="G38" s="119"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="126"/>
+      <c r="I38" s="119"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="126"/>
+      <c r="K38" s="119"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="126"/>
+      <c r="M38" s="119"/>
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1">
       <c r="A39" s="16"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
       <c r="E39" s="123"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="126"/>
+      <c r="G39" s="119"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="126"/>
+      <c r="I39" s="119"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="126"/>
+      <c r="K39" s="119"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="126"/>
+      <c r="M39" s="119"/>
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A40" s="16"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
       <c r="E40" s="124"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="127"/>
+      <c r="G40" s="120"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="127"/>
+      <c r="I40" s="120"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="127"/>
+      <c r="K40" s="120"/>
       <c r="L40" s="9"/>
-      <c r="M40" s="127"/>
+      <c r="M40" s="120"/>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
       <c r="E41" s="71"/>
       <c r="F41" s="7"/>
       <c r="G41" s="21"/>
@@ -25214,9 +25228,9 @@
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1">
       <c r="A42" s="16"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
       <c r="E42" s="72"/>
       <c r="F42" s="8"/>
       <c r="G42" s="22"/>
@@ -25230,9 +25244,9 @@
     </row>
     <row r="43" spans="1:14" ht="25" customHeight="1">
       <c r="A43" s="16"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
       <c r="E43" s="72"/>
       <c r="F43" s="8"/>
       <c r="G43" s="22"/>
@@ -25246,9 +25260,9 @@
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1">
       <c r="A44" s="16"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
       <c r="E44" s="72"/>
       <c r="F44" s="8"/>
       <c r="G44" s="22"/>
@@ -25262,9 +25276,9 @@
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1">
       <c r="A45" s="16"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
       <c r="E45" s="72"/>
       <c r="F45" s="8"/>
       <c r="G45" s="22"/>
@@ -25278,9 +25292,9 @@
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1">
       <c r="A46" s="16"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
       <c r="E46" s="73"/>
       <c r="F46" s="8"/>
       <c r="G46" s="50"/>
@@ -25294,9 +25308,9 @@
     </row>
     <row r="47" spans="1:14" ht="25" customHeight="1">
       <c r="A47" s="16"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
       <c r="E47" s="72"/>
       <c r="F47" s="8"/>
       <c r="G47" s="22"/>
@@ -25310,9 +25324,9 @@
     </row>
     <row r="48" spans="1:14" ht="25" customHeight="1">
       <c r="A48" s="16"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
       <c r="E48" s="73"/>
       <c r="F48" s="8"/>
       <c r="G48" s="50"/>
@@ -25326,9 +25340,9 @@
     </row>
     <row r="49" spans="1:14" ht="25" customHeight="1">
       <c r="A49" s="16"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
       <c r="E49" s="73"/>
       <c r="F49" s="8"/>
       <c r="G49" s="50"/>
@@ -25342,9 +25356,9 @@
     </row>
     <row r="50" spans="1:14" ht="25" customHeight="1">
       <c r="A50" s="16"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
       <c r="E50" s="73"/>
       <c r="F50" s="8"/>
       <c r="G50" s="50"/>
@@ -25358,9 +25372,9 @@
     </row>
     <row r="51" spans="1:14" ht="25" customHeight="1">
       <c r="A51" s="16"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
       <c r="E51" s="73"/>
       <c r="F51" s="8"/>
       <c r="G51" s="50"/>
@@ -25374,9 +25388,9 @@
     </row>
     <row r="52" spans="1:14" ht="25" customHeight="1">
       <c r="A52" s="16"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
       <c r="E52" s="73"/>
       <c r="F52" s="8"/>
       <c r="G52" s="50"/>
@@ -25390,9 +25404,9 @@
     </row>
     <row r="53" spans="1:14" ht="25" customHeight="1">
       <c r="A53" s="16"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
       <c r="E53" s="73"/>
       <c r="F53" s="8"/>
       <c r="G53" s="50"/>
@@ -25406,9 +25420,9 @@
     </row>
     <row r="54" spans="1:14" ht="25" customHeight="1">
       <c r="A54" s="16"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
       <c r="E54" s="73"/>
       <c r="F54" s="8"/>
       <c r="G54" s="50"/>
@@ -25422,9 +25436,9 @@
     </row>
     <row r="55" spans="1:14" ht="25" customHeight="1">
       <c r="A55" s="16"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
       <c r="E55" s="73"/>
       <c r="F55" s="8"/>
       <c r="G55" s="50"/>
@@ -25438,9 +25452,9 @@
     </row>
     <row r="56" spans="1:14" ht="25" customHeight="1">
       <c r="A56" s="16"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
       <c r="E56" s="73"/>
       <c r="F56" s="8"/>
       <c r="G56" s="50"/>
@@ -25454,9 +25468,9 @@
     </row>
     <row r="57" spans="1:14" ht="25" customHeight="1">
       <c r="A57" s="16"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="73"/>
       <c r="F57" s="8"/>
       <c r="G57" s="50"/>
@@ -25470,9 +25484,9 @@
     </row>
     <row r="58" spans="1:14" ht="25" customHeight="1">
       <c r="A58" s="16"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
+      <c r="B58" s="116"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="73"/>
       <c r="F58" s="8"/>
       <c r="G58" s="50"/>
@@ -25486,9 +25500,9 @@
     </row>
     <row r="59" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A59" s="16"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="114"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
       <c r="E59" s="74"/>
       <c r="F59" s="9"/>
       <c r="G59" s="51"/>
@@ -25502,8 +25516,8 @@
     </row>
     <row r="60" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
       <c r="D60" s="52"/>
       <c r="E60" s="70"/>
       <c r="F60" s="7"/>
@@ -25518,8 +25532,8 @@
     </row>
     <row r="61" spans="1:14" ht="25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A61" s="54"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="114"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
       <c r="D61" s="10"/>
       <c r="E61" s="75"/>
       <c r="F61" s="9"/>
@@ -25534,9 +25548,9 @@
     </row>
     <row r="62" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="71"/>
       <c r="F62" s="7"/>
       <c r="G62" s="25"/>
@@ -25550,9 +25564,9 @@
     </row>
     <row r="63" spans="1:14" ht="25" customHeight="1">
       <c r="A63" s="16"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
+      <c r="B63" s="116"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="72"/>
       <c r="F63" s="8"/>
       <c r="G63" s="26"/>
@@ -25566,9 +25580,9 @@
     </row>
     <row r="64" spans="1:14" ht="25" customHeight="1">
       <c r="A64" s="16"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
+      <c r="B64" s="116"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
       <c r="E64" s="72"/>
       <c r="F64" s="8"/>
       <c r="G64" s="26"/>
@@ -25582,9 +25596,9 @@
     </row>
     <row r="65" spans="1:14" ht="25" customHeight="1">
       <c r="A65" s="16"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
       <c r="E65" s="73"/>
       <c r="F65" s="8"/>
       <c r="G65" s="19"/>
@@ -25598,9 +25612,9 @@
     </row>
     <row r="66" spans="1:14" ht="25" customHeight="1">
       <c r="A66" s="16"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
+      <c r="B66" s="116"/>
+      <c r="C66" s="116"/>
+      <c r="D66" s="116"/>
       <c r="E66" s="73"/>
       <c r="F66" s="8"/>
       <c r="G66" s="19"/>
@@ -25614,9 +25628,9 @@
     </row>
     <row r="67" spans="1:14" ht="25" customHeight="1">
       <c r="A67" s="16"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
+      <c r="B67" s="116"/>
+      <c r="C67" s="116"/>
+      <c r="D67" s="116"/>
       <c r="E67" s="73"/>
       <c r="F67" s="8"/>
       <c r="G67" s="19"/>
@@ -25630,9 +25644,9 @@
     </row>
     <row r="68" spans="1:14" ht="25" customHeight="1">
       <c r="A68" s="16"/>
-      <c r="B68" s="113"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
       <c r="E68" s="73"/>
       <c r="F68" s="8"/>
       <c r="G68" s="19"/>
@@ -25646,9 +25660,9 @@
     </row>
     <row r="69" spans="1:14" ht="25" customHeight="1">
       <c r="A69" s="16"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
+      <c r="B69" s="116"/>
+      <c r="C69" s="116"/>
+      <c r="D69" s="116"/>
       <c r="E69" s="73"/>
       <c r="F69" s="8"/>
       <c r="G69" s="19"/>
@@ -25662,9 +25676,9 @@
     </row>
     <row r="70" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A70" s="53"/>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
       <c r="E70" s="74"/>
       <c r="F70" s="9"/>
       <c r="G70" s="20"/>
@@ -25678,8 +25692,8 @@
     </row>
     <row r="71" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A71" s="55"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="112"/>
+      <c r="B71" s="115"/>
+      <c r="C71" s="115"/>
       <c r="D71" s="121"/>
       <c r="E71" s="76"/>
       <c r="F71" s="7"/>
@@ -25694,9 +25708,9 @@
     </row>
     <row r="72" spans="1:14" ht="25" customHeight="1">
       <c r="A72" s="56"/>
-      <c r="B72" s="113"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
+      <c r="B72" s="116"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
       <c r="E72" s="73"/>
       <c r="F72" s="8"/>
       <c r="G72" s="50"/>
@@ -25710,9 +25724,9 @@
     </row>
     <row r="73" spans="1:14" ht="25" customHeight="1">
       <c r="A73" s="56"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="116"/>
+      <c r="D73" s="116"/>
       <c r="E73" s="73"/>
       <c r="F73" s="8"/>
       <c r="G73" s="50"/>
@@ -25726,9 +25740,9 @@
     </row>
     <row r="74" spans="1:14" ht="25" customHeight="1">
       <c r="A74" s="56"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="116"/>
       <c r="E74" s="73"/>
       <c r="F74" s="8"/>
       <c r="G74" s="50"/>
@@ -25742,9 +25756,9 @@
     </row>
     <row r="75" spans="1:14" ht="25" customHeight="1">
       <c r="A75" s="56"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="116"/>
       <c r="E75" s="73"/>
       <c r="F75" s="8"/>
       <c r="G75" s="50"/>
@@ -25758,9 +25772,9 @@
     </row>
     <row r="76" spans="1:14" ht="25" customHeight="1">
       <c r="A76" s="56"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
+      <c r="B76" s="116"/>
+      <c r="C76" s="116"/>
+      <c r="D76" s="116"/>
       <c r="E76" s="73"/>
       <c r="F76" s="8"/>
       <c r="G76" s="50"/>
@@ -25774,9 +25788,9 @@
     </row>
     <row r="77" spans="1:14" ht="25" customHeight="1">
       <c r="A77" s="56"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="116"/>
       <c r="E77" s="73"/>
       <c r="F77" s="8"/>
       <c r="G77" s="50"/>
@@ -25790,9 +25804,9 @@
     </row>
     <row r="78" spans="1:14" ht="25" customHeight="1">
       <c r="A78" s="56"/>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
       <c r="E78" s="73"/>
       <c r="F78" s="8"/>
       <c r="G78" s="50"/>
@@ -25806,9 +25820,9 @@
     </row>
     <row r="79" spans="1:14" ht="25" customHeight="1">
       <c r="A79" s="56"/>
-      <c r="B79" s="113"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
       <c r="E79" s="73"/>
       <c r="F79" s="8"/>
       <c r="G79" s="50"/>
@@ -25822,9 +25836,9 @@
     </row>
     <row r="80" spans="1:14" ht="25" customHeight="1">
       <c r="A80" s="56"/>
-      <c r="B80" s="113"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="116"/>
       <c r="E80" s="73"/>
       <c r="F80" s="8"/>
       <c r="G80" s="50"/>
@@ -25838,9 +25852,9 @@
     </row>
     <row r="81" spans="1:14" ht="25" customHeight="1">
       <c r="A81" s="56"/>
-      <c r="B81" s="113"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
+      <c r="B81" s="116"/>
+      <c r="C81" s="116"/>
+      <c r="D81" s="116"/>
       <c r="E81" s="73"/>
       <c r="F81" s="8"/>
       <c r="G81" s="50"/>
@@ -25854,9 +25868,9 @@
     </row>
     <row r="82" spans="1:14" ht="25" customHeight="1">
       <c r="A82" s="56"/>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
+      <c r="B82" s="116"/>
+      <c r="C82" s="116"/>
+      <c r="D82" s="116"/>
       <c r="E82" s="73"/>
       <c r="F82" s="8"/>
       <c r="G82" s="50"/>
@@ -25870,9 +25884,9 @@
     </row>
     <row r="83" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A83" s="57"/>
-      <c r="B83" s="114"/>
-      <c r="C83" s="114"/>
-      <c r="D83" s="114"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
       <c r="E83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="51"/>
@@ -25886,9 +25900,9 @@
     </row>
     <row r="84" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A84" s="58"/>
-      <c r="B84" s="112"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="112"/>
+      <c r="B84" s="115"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="115"/>
       <c r="E84" s="76"/>
       <c r="F84" s="7"/>
       <c r="G84" s="49"/>
@@ -25902,9 +25916,9 @@
     </row>
     <row r="85" spans="1:14" ht="25" customHeight="1">
       <c r="A85" s="59"/>
-      <c r="B85" s="113"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="113"/>
+      <c r="B85" s="116"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="116"/>
       <c r="E85" s="73"/>
       <c r="F85" s="8"/>
       <c r="G85" s="50"/>
@@ -25918,9 +25932,9 @@
     </row>
     <row r="86" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A86" s="56"/>
-      <c r="B86" s="114"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="114"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="117"/>
       <c r="E86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="51"/>
@@ -25934,9 +25948,9 @@
     </row>
     <row r="87" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A87" s="55"/>
-      <c r="B87" s="112"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
       <c r="E87" s="76"/>
       <c r="F87" s="7"/>
       <c r="G87" s="49"/>
@@ -25950,9 +25964,9 @@
     </row>
     <row r="88" spans="1:14" ht="25" customHeight="1">
       <c r="A88" s="56"/>
-      <c r="B88" s="113"/>
-      <c r="C88" s="113"/>
-      <c r="D88" s="113"/>
+      <c r="B88" s="116"/>
+      <c r="C88" s="116"/>
+      <c r="D88" s="116"/>
       <c r="E88" s="73"/>
       <c r="F88" s="8"/>
       <c r="G88" s="50"/>
@@ -25966,9 +25980,9 @@
     </row>
     <row r="89" spans="1:14" ht="25" customHeight="1">
       <c r="A89" s="56"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="113"/>
-      <c r="D89" s="113"/>
+      <c r="B89" s="116"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="116"/>
       <c r="E89" s="73"/>
       <c r="F89" s="8"/>
       <c r="G89" s="50"/>
@@ -25982,9 +25996,9 @@
     </row>
     <row r="90" spans="1:14" ht="25" customHeight="1">
       <c r="A90" s="56"/>
-      <c r="B90" s="113"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="113"/>
+      <c r="B90" s="116"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="116"/>
       <c r="E90" s="73"/>
       <c r="F90" s="8"/>
       <c r="G90" s="50"/>
@@ -25998,9 +26012,9 @@
     </row>
     <row r="91" spans="1:14" ht="25" customHeight="1">
       <c r="A91" s="56"/>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="116"/>
       <c r="E91" s="73"/>
       <c r="F91" s="8"/>
       <c r="G91" s="50"/>
@@ -26014,9 +26028,9 @@
     </row>
     <row r="92" spans="1:14" ht="25" customHeight="1">
       <c r="A92" s="56"/>
-      <c r="B92" s="113"/>
-      <c r="C92" s="113"/>
-      <c r="D92" s="113"/>
+      <c r="B92" s="116"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
       <c r="E92" s="73"/>
       <c r="F92" s="8"/>
       <c r="G92" s="50"/>
@@ -26030,9 +26044,9 @@
     </row>
     <row r="93" spans="1:14" ht="25" customHeight="1">
       <c r="A93" s="56"/>
-      <c r="B93" s="113"/>
-      <c r="C93" s="113"/>
-      <c r="D93" s="113"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="116"/>
+      <c r="D93" s="116"/>
       <c r="E93" s="73"/>
       <c r="F93" s="8"/>
       <c r="G93" s="50"/>
@@ -26046,9 +26060,9 @@
     </row>
     <row r="94" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A94" s="57"/>
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
       <c r="E94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="51"/>
@@ -26062,9 +26076,9 @@
     </row>
     <row r="95" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A95" s="56"/>
-      <c r="B95" s="112"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="115"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="128"/>
       <c r="E95" s="73"/>
       <c r="F95" s="7"/>
       <c r="G95" s="50"/>
@@ -26078,9 +26092,9 @@
     </row>
     <row r="96" spans="1:14" ht="25" customHeight="1">
       <c r="A96" s="56"/>
-      <c r="B96" s="113"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="116"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="129"/>
       <c r="E96" s="73"/>
       <c r="F96" s="8"/>
       <c r="G96" s="50"/>
@@ -26094,9 +26108,9 @@
     </row>
     <row r="97" spans="1:14" ht="25" customHeight="1">
       <c r="A97" s="56"/>
-      <c r="B97" s="113"/>
-      <c r="C97" s="113"/>
-      <c r="D97" s="116"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="129"/>
       <c r="E97" s="73"/>
       <c r="F97" s="8"/>
       <c r="G97" s="50"/>
@@ -26110,9 +26124,9 @@
     </row>
     <row r="98" spans="1:14" ht="25" customHeight="1">
       <c r="A98" s="56"/>
-      <c r="B98" s="113"/>
-      <c r="C98" s="113"/>
-      <c r="D98" s="116"/>
+      <c r="B98" s="116"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="129"/>
       <c r="E98" s="73"/>
       <c r="F98" s="8"/>
       <c r="G98" s="50"/>
@@ -26126,9 +26140,9 @@
     </row>
     <row r="99" spans="1:14" ht="25" customHeight="1">
       <c r="A99" s="56"/>
-      <c r="B99" s="113"/>
-      <c r="C99" s="113"/>
-      <c r="D99" s="116"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="129"/>
       <c r="E99" s="73"/>
       <c r="F99" s="8"/>
       <c r="G99" s="50"/>
@@ -26142,9 +26156,9 @@
     </row>
     <row r="100" spans="1:14" ht="25" customHeight="1">
       <c r="A100" s="56"/>
-      <c r="B100" s="113"/>
-      <c r="C100" s="113"/>
-      <c r="D100" s="116"/>
+      <c r="B100" s="116"/>
+      <c r="C100" s="116"/>
+      <c r="D100" s="129"/>
       <c r="E100" s="73"/>
       <c r="F100" s="8"/>
       <c r="G100" s="50"/>
@@ -26158,9 +26172,9 @@
     </row>
     <row r="101" spans="1:14" ht="25" customHeight="1">
       <c r="A101" s="56"/>
-      <c r="B101" s="113"/>
-      <c r="C101" s="113"/>
-      <c r="D101" s="116"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="129"/>
       <c r="E101" s="73"/>
       <c r="F101" s="8"/>
       <c r="G101" s="50"/>
@@ -26174,9 +26188,9 @@
     </row>
     <row r="102" spans="1:14" ht="25" customHeight="1">
       <c r="A102" s="56"/>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="116"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="116"/>
+      <c r="D102" s="129"/>
       <c r="E102" s="73"/>
       <c r="F102" s="8"/>
       <c r="G102" s="50"/>
@@ -26190,9 +26204,9 @@
     </row>
     <row r="103" spans="1:14" ht="25" customHeight="1">
       <c r="A103" s="56"/>
-      <c r="B103" s="113"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="116"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="116"/>
+      <c r="D103" s="129"/>
       <c r="E103" s="73"/>
       <c r="F103" s="8"/>
       <c r="G103" s="50"/>
@@ -26206,9 +26220,9 @@
     </row>
     <row r="104" spans="1:14" ht="25" customHeight="1">
       <c r="A104" s="56"/>
-      <c r="B104" s="113"/>
-      <c r="C104" s="113"/>
-      <c r="D104" s="116"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="116"/>
+      <c r="D104" s="129"/>
       <c r="E104" s="73"/>
       <c r="F104" s="8"/>
       <c r="G104" s="50"/>
@@ -26222,9 +26236,9 @@
     </row>
     <row r="105" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A105" s="57"/>
-      <c r="B105" s="114"/>
-      <c r="C105" s="114"/>
-      <c r="D105" s="117"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="130"/>
       <c r="E105" s="73"/>
       <c r="F105" s="9"/>
       <c r="G105" s="50"/>
@@ -26238,9 +26252,9 @@
     </row>
     <row r="106" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A106" s="56"/>
-      <c r="B106" s="112"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="112"/>
+      <c r="B106" s="115"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="115"/>
       <c r="E106" s="76"/>
       <c r="F106" s="7"/>
       <c r="G106" s="49"/>
@@ -26254,9 +26268,9 @@
     </row>
     <row r="107" spans="1:14" ht="25" customHeight="1">
       <c r="A107" s="56"/>
-      <c r="B107" s="113"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="113"/>
+      <c r="B107" s="116"/>
+      <c r="C107" s="116"/>
+      <c r="D107" s="116"/>
       <c r="E107" s="73"/>
       <c r="F107" s="8"/>
       <c r="G107" s="50"/>
@@ -26270,9 +26284,9 @@
     </row>
     <row r="108" spans="1:14" ht="25" customHeight="1">
       <c r="A108" s="56"/>
-      <c r="B108" s="113"/>
-      <c r="C108" s="113"/>
-      <c r="D108" s="113"/>
+      <c r="B108" s="116"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="116"/>
       <c r="E108" s="73"/>
       <c r="F108" s="8"/>
       <c r="G108" s="50"/>
@@ -26286,9 +26300,9 @@
     </row>
     <row r="109" spans="1:14" ht="25" customHeight="1">
       <c r="A109" s="56"/>
-      <c r="B109" s="113"/>
-      <c r="C109" s="113"/>
-      <c r="D109" s="113"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="116"/>
+      <c r="D109" s="116"/>
       <c r="E109" s="73"/>
       <c r="F109" s="8"/>
       <c r="G109" s="50"/>
@@ -26302,9 +26316,9 @@
     </row>
     <row r="110" spans="1:14" ht="25" customHeight="1">
       <c r="A110" s="56"/>
-      <c r="B110" s="113"/>
-      <c r="C110" s="113"/>
-      <c r="D110" s="113"/>
+      <c r="B110" s="116"/>
+      <c r="C110" s="116"/>
+      <c r="D110" s="116"/>
       <c r="E110" s="73"/>
       <c r="F110" s="8"/>
       <c r="G110" s="50"/>
@@ -26318,9 +26332,9 @@
     </row>
     <row r="111" spans="1:14" ht="25" customHeight="1">
       <c r="A111" s="56"/>
-      <c r="B111" s="113"/>
-      <c r="C111" s="113"/>
-      <c r="D111" s="113"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="116"/>
+      <c r="D111" s="116"/>
       <c r="E111" s="73"/>
       <c r="F111" s="8"/>
       <c r="G111" s="50"/>
@@ -26334,9 +26348,9 @@
     </row>
     <row r="112" spans="1:14" ht="25" customHeight="1">
       <c r="A112" s="56"/>
-      <c r="B112" s="113"/>
-      <c r="C112" s="113"/>
-      <c r="D112" s="113"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="116"/>
+      <c r="D112" s="116"/>
       <c r="E112" s="73"/>
       <c r="F112" s="8"/>
       <c r="G112" s="50"/>
@@ -26350,9 +26364,9 @@
     </row>
     <row r="113" spans="1:14" ht="25" customHeight="1">
       <c r="A113" s="56"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
+      <c r="B113" s="116"/>
+      <c r="C113" s="116"/>
+      <c r="D113" s="116"/>
       <c r="E113" s="73"/>
       <c r="F113" s="8"/>
       <c r="G113" s="50"/>
@@ -26366,9 +26380,9 @@
     </row>
     <row r="114" spans="1:14" ht="25" customHeight="1">
       <c r="A114" s="56"/>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
+      <c r="B114" s="116"/>
+      <c r="C114" s="116"/>
+      <c r="D114" s="116"/>
       <c r="E114" s="73"/>
       <c r="F114" s="8"/>
       <c r="G114" s="50"/>
@@ -26382,9 +26396,9 @@
     </row>
     <row r="115" spans="1:14" ht="25" customHeight="1">
       <c r="A115" s="56"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
+      <c r="B115" s="116"/>
+      <c r="C115" s="116"/>
+      <c r="D115" s="116"/>
       <c r="E115" s="73"/>
       <c r="F115" s="8"/>
       <c r="G115" s="50"/>
@@ -26398,9 +26412,9 @@
     </row>
     <row r="116" spans="1:14" ht="25" customHeight="1">
       <c r="A116" s="56"/>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
+      <c r="B116" s="116"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="116"/>
       <c r="E116" s="73"/>
       <c r="F116" s="8"/>
       <c r="G116" s="50"/>
@@ -26414,9 +26428,9 @@
     </row>
     <row r="117" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A117" s="56"/>
-      <c r="B117" s="114"/>
-      <c r="C117" s="114"/>
-      <c r="D117" s="114"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="117"/>
+      <c r="D117" s="117"/>
       <c r="E117" s="74"/>
       <c r="F117" s="9"/>
       <c r="G117" s="51"/>
@@ -26430,9 +26444,9 @@
     </row>
     <row r="118" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A118" s="55"/>
-      <c r="B118" s="112"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="112"/>
+      <c r="B118" s="115"/>
+      <c r="C118" s="115"/>
+      <c r="D118" s="115"/>
       <c r="E118" s="73"/>
       <c r="F118" s="7"/>
       <c r="G118" s="50"/>
@@ -26446,9 +26460,9 @@
     </row>
     <row r="119" spans="1:14" ht="25" customHeight="1">
       <c r="A119" s="56"/>
-      <c r="B119" s="113"/>
-      <c r="C119" s="113"/>
-      <c r="D119" s="113"/>
+      <c r="B119" s="116"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="116"/>
       <c r="E119" s="73"/>
       <c r="F119" s="8"/>
       <c r="G119" s="50"/>
@@ -26462,9 +26476,9 @@
     </row>
     <row r="120" spans="1:14" ht="25" customHeight="1">
       <c r="A120" s="56"/>
-      <c r="B120" s="113"/>
-      <c r="C120" s="113"/>
-      <c r="D120" s="113"/>
+      <c r="B120" s="116"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
       <c r="E120" s="73"/>
       <c r="F120" s="8"/>
       <c r="G120" s="50"/>
@@ -26478,9 +26492,9 @@
     </row>
     <row r="121" spans="1:14" ht="25" customHeight="1">
       <c r="A121" s="56"/>
-      <c r="B121" s="113"/>
-      <c r="C121" s="113"/>
-      <c r="D121" s="113"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="116"/>
       <c r="E121" s="73"/>
       <c r="F121" s="8"/>
       <c r="G121" s="50"/>
@@ -26494,9 +26508,9 @@
     </row>
     <row r="122" spans="1:14" ht="25" customHeight="1">
       <c r="A122" s="56"/>
-      <c r="B122" s="113"/>
-      <c r="C122" s="113"/>
-      <c r="D122" s="113"/>
+      <c r="B122" s="116"/>
+      <c r="C122" s="116"/>
+      <c r="D122" s="116"/>
       <c r="E122" s="73"/>
       <c r="F122" s="8"/>
       <c r="G122" s="50"/>
@@ -26510,9 +26524,9 @@
     </row>
     <row r="123" spans="1:14" ht="25" customHeight="1">
       <c r="A123" s="56"/>
-      <c r="B123" s="113"/>
-      <c r="C123" s="113"/>
-      <c r="D123" s="113"/>
+      <c r="B123" s="116"/>
+      <c r="C123" s="116"/>
+      <c r="D123" s="116"/>
       <c r="E123" s="73"/>
       <c r="F123" s="8"/>
       <c r="G123" s="50"/>
@@ -26526,9 +26540,9 @@
     </row>
     <row r="124" spans="1:14" ht="25" customHeight="1">
       <c r="A124" s="56"/>
-      <c r="B124" s="113"/>
-      <c r="C124" s="113"/>
-      <c r="D124" s="113"/>
+      <c r="B124" s="116"/>
+      <c r="C124" s="116"/>
+      <c r="D124" s="116"/>
       <c r="E124" s="73"/>
       <c r="F124" s="8"/>
       <c r="G124" s="50"/>
@@ -26542,9 +26556,9 @@
     </row>
     <row r="125" spans="1:14" ht="25" customHeight="1">
       <c r="A125" s="56"/>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
+      <c r="B125" s="116"/>
+      <c r="C125" s="116"/>
+      <c r="D125" s="116"/>
       <c r="E125" s="73"/>
       <c r="F125" s="8"/>
       <c r="G125" s="50"/>
@@ -26558,9 +26572,9 @@
     </row>
     <row r="126" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A126" s="57"/>
-      <c r="B126" s="114"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="114"/>
+      <c r="B126" s="117"/>
+      <c r="C126" s="117"/>
+      <c r="D126" s="117"/>
       <c r="E126" s="74"/>
       <c r="F126" s="9"/>
       <c r="G126" s="51"/>
@@ -26574,9 +26588,9 @@
     </row>
     <row r="127" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A127" s="56"/>
-      <c r="B127" s="112"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="112"/>
+      <c r="B127" s="115"/>
+      <c r="C127" s="115"/>
+      <c r="D127" s="115"/>
       <c r="E127" s="73"/>
       <c r="F127" s="7"/>
       <c r="G127" s="50"/>
@@ -26590,9 +26604,9 @@
     </row>
     <row r="128" spans="1:14" ht="25" customHeight="1">
       <c r="A128" s="56"/>
-      <c r="B128" s="113"/>
-      <c r="C128" s="113"/>
-      <c r="D128" s="113"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="116"/>
+      <c r="D128" s="116"/>
       <c r="E128" s="73"/>
       <c r="F128" s="8"/>
       <c r="G128" s="50"/>
@@ -26606,9 +26620,9 @@
     </row>
     <row r="129" spans="1:14" ht="25" customHeight="1">
       <c r="A129" s="56"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="113"/>
-      <c r="D129" s="113"/>
+      <c r="B129" s="116"/>
+      <c r="C129" s="116"/>
+      <c r="D129" s="116"/>
       <c r="E129" s="73"/>
       <c r="F129" s="8"/>
       <c r="G129" s="50"/>
@@ -26622,9 +26636,9 @@
     </row>
     <row r="130" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A130" s="57"/>
-      <c r="B130" s="114"/>
-      <c r="C130" s="114"/>
-      <c r="D130" s="114"/>
+      <c r="B130" s="117"/>
+      <c r="C130" s="117"/>
+      <c r="D130" s="117"/>
       <c r="E130" s="74"/>
       <c r="F130" s="9"/>
       <c r="G130" s="51"/>
@@ -26638,9 +26652,9 @@
     </row>
     <row r="131" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A131" s="56"/>
-      <c r="B131" s="112"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="112"/>
+      <c r="B131" s="115"/>
+      <c r="C131" s="115"/>
+      <c r="D131" s="115"/>
       <c r="E131" s="73"/>
       <c r="F131" s="7"/>
       <c r="G131" s="50"/>
@@ -26654,9 +26668,9 @@
     </row>
     <row r="132" spans="1:14" ht="25" customHeight="1">
       <c r="A132" s="56"/>
-      <c r="B132" s="113"/>
-      <c r="C132" s="113"/>
-      <c r="D132" s="113"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="116"/>
       <c r="E132" s="73"/>
       <c r="F132" s="8"/>
       <c r="G132" s="50"/>
@@ -26670,9 +26684,9 @@
     </row>
     <row r="133" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A133" s="57"/>
-      <c r="B133" s="114"/>
-      <c r="C133" s="114"/>
-      <c r="D133" s="114"/>
+      <c r="B133" s="117"/>
+      <c r="C133" s="117"/>
+      <c r="D133" s="117"/>
       <c r="E133" s="74"/>
       <c r="F133" s="9"/>
       <c r="G133" s="51"/>
@@ -26686,9 +26700,9 @@
     </row>
     <row r="134" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A134" s="56"/>
-      <c r="B134" s="112"/>
-      <c r="C134" s="112"/>
-      <c r="D134" s="112"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="115"/>
       <c r="E134" s="73"/>
       <c r="F134" s="7"/>
       <c r="G134" s="50"/>
@@ -26702,9 +26716,9 @@
     </row>
     <row r="135" spans="1:14" ht="25" customHeight="1">
       <c r="A135" s="56"/>
-      <c r="B135" s="113"/>
-      <c r="C135" s="113"/>
-      <c r="D135" s="113"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
       <c r="E135" s="73"/>
       <c r="F135" s="8"/>
       <c r="G135" s="50"/>
@@ -26718,9 +26732,9 @@
     </row>
     <row r="136" spans="1:14" ht="25" customHeight="1">
       <c r="A136" s="56"/>
-      <c r="B136" s="113"/>
-      <c r="C136" s="113"/>
-      <c r="D136" s="113"/>
+      <c r="B136" s="116"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="116"/>
       <c r="E136" s="73"/>
       <c r="F136" s="8"/>
       <c r="G136" s="50"/>
@@ -26734,9 +26748,9 @@
     </row>
     <row r="137" spans="1:14" ht="25" customHeight="1">
       <c r="A137" s="56"/>
-      <c r="B137" s="113"/>
-      <c r="C137" s="113"/>
-      <c r="D137" s="113"/>
+      <c r="B137" s="116"/>
+      <c r="C137" s="116"/>
+      <c r="D137" s="116"/>
       <c r="E137" s="73"/>
       <c r="F137" s="8"/>
       <c r="G137" s="50"/>
@@ -26750,9 +26764,9 @@
     </row>
     <row r="138" spans="1:14" ht="25" customHeight="1">
       <c r="A138" s="56"/>
-      <c r="B138" s="113"/>
-      <c r="C138" s="113"/>
-      <c r="D138" s="113"/>
+      <c r="B138" s="116"/>
+      <c r="C138" s="116"/>
+      <c r="D138" s="116"/>
       <c r="E138" s="73"/>
       <c r="F138" s="8"/>
       <c r="G138" s="50"/>
@@ -26766,9 +26780,9 @@
     </row>
     <row r="139" spans="1:14" ht="25" customHeight="1">
       <c r="A139" s="56"/>
-      <c r="B139" s="113"/>
-      <c r="C139" s="113"/>
-      <c r="D139" s="113"/>
+      <c r="B139" s="116"/>
+      <c r="C139" s="116"/>
+      <c r="D139" s="116"/>
       <c r="E139" s="73"/>
       <c r="F139" s="8"/>
       <c r="G139" s="50"/>
@@ -26782,9 +26796,9 @@
     </row>
     <row r="140" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A140" s="56"/>
-      <c r="B140" s="114"/>
-      <c r="C140" s="114"/>
-      <c r="D140" s="114"/>
+      <c r="B140" s="117"/>
+      <c r="C140" s="117"/>
+      <c r="D140" s="117"/>
       <c r="E140" s="73"/>
       <c r="F140" s="9"/>
       <c r="G140" s="50"/>
@@ -26798,9 +26812,9 @@
     </row>
     <row r="141" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A141" s="55"/>
-      <c r="B141" s="112"/>
-      <c r="C141" s="112"/>
-      <c r="D141" s="112"/>
+      <c r="B141" s="115"/>
+      <c r="C141" s="115"/>
+      <c r="D141" s="115"/>
       <c r="E141" s="76"/>
       <c r="F141" s="7"/>
       <c r="G141" s="49"/>
@@ -26814,9 +26828,9 @@
     </row>
     <row r="142" spans="1:14" ht="25" customHeight="1">
       <c r="A142" s="56"/>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
+      <c r="B142" s="116"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="116"/>
       <c r="E142" s="73"/>
       <c r="F142" s="8"/>
       <c r="G142" s="50"/>
@@ -26830,9 +26844,9 @@
     </row>
     <row r="143" spans="1:14" ht="25" customHeight="1">
       <c r="A143" s="56"/>
-      <c r="B143" s="113"/>
-      <c r="C143" s="113"/>
-      <c r="D143" s="113"/>
+      <c r="B143" s="116"/>
+      <c r="C143" s="116"/>
+      <c r="D143" s="116"/>
       <c r="E143" s="73"/>
       <c r="F143" s="8"/>
       <c r="G143" s="50"/>
@@ -26846,9 +26860,9 @@
     </row>
     <row r="144" spans="1:14" ht="25" customHeight="1">
       <c r="A144" s="56"/>
-      <c r="B144" s="113"/>
-      <c r="C144" s="113"/>
-      <c r="D144" s="113"/>
+      <c r="B144" s="116"/>
+      <c r="C144" s="116"/>
+      <c r="D144" s="116"/>
       <c r="E144" s="73"/>
       <c r="F144" s="8"/>
       <c r="G144" s="50"/>
@@ -26862,9 +26876,9 @@
     </row>
     <row r="145" spans="1:14" ht="25" customHeight="1">
       <c r="A145" s="56"/>
-      <c r="B145" s="113"/>
-      <c r="C145" s="113"/>
-      <c r="D145" s="113"/>
+      <c r="B145" s="116"/>
+      <c r="C145" s="116"/>
+      <c r="D145" s="116"/>
       <c r="E145" s="73"/>
       <c r="F145" s="8"/>
       <c r="G145" s="50"/>
@@ -26878,9 +26892,9 @@
     </row>
     <row r="146" spans="1:14" ht="25" customHeight="1">
       <c r="A146" s="56"/>
-      <c r="B146" s="113"/>
-      <c r="C146" s="113"/>
-      <c r="D146" s="113"/>
+      <c r="B146" s="116"/>
+      <c r="C146" s="116"/>
+      <c r="D146" s="116"/>
       <c r="E146" s="73"/>
       <c r="F146" s="8"/>
       <c r="G146" s="50"/>
@@ -26894,9 +26908,9 @@
     </row>
     <row r="147" spans="1:14" ht="25" customHeight="1">
       <c r="A147" s="56"/>
-      <c r="B147" s="113"/>
-      <c r="C147" s="113"/>
-      <c r="D147" s="113"/>
+      <c r="B147" s="116"/>
+      <c r="C147" s="116"/>
+      <c r="D147" s="116"/>
       <c r="E147" s="73"/>
       <c r="F147" s="8"/>
       <c r="G147" s="50"/>
@@ -26910,9 +26924,9 @@
     </row>
     <row r="148" spans="1:14" ht="25" customHeight="1">
       <c r="A148" s="56"/>
-      <c r="B148" s="113"/>
-      <c r="C148" s="113"/>
-      <c r="D148" s="113"/>
+      <c r="B148" s="116"/>
+      <c r="C148" s="116"/>
+      <c r="D148" s="116"/>
       <c r="E148" s="73"/>
       <c r="F148" s="8"/>
       <c r="G148" s="50"/>
@@ -26926,9 +26940,9 @@
     </row>
     <row r="149" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A149" s="57"/>
-      <c r="B149" s="114"/>
-      <c r="C149" s="114"/>
-      <c r="D149" s="114"/>
+      <c r="B149" s="117"/>
+      <c r="C149" s="117"/>
+      <c r="D149" s="117"/>
       <c r="E149" s="77"/>
       <c r="F149" s="9"/>
       <c r="G149" s="27"/>
@@ -26942,9 +26956,9 @@
     </row>
     <row r="150" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A150" s="56"/>
-      <c r="B150" s="112"/>
-      <c r="C150" s="112"/>
-      <c r="D150" s="112"/>
+      <c r="B150" s="115"/>
+      <c r="C150" s="115"/>
+      <c r="D150" s="115"/>
       <c r="E150" s="78"/>
       <c r="F150" s="7"/>
       <c r="G150" s="28"/>
@@ -26958,9 +26972,9 @@
     </row>
     <row r="151" spans="1:14" ht="25" customHeight="1">
       <c r="A151" s="56"/>
-      <c r="B151" s="113"/>
-      <c r="C151" s="113"/>
-      <c r="D151" s="113"/>
+      <c r="B151" s="116"/>
+      <c r="C151" s="116"/>
+      <c r="D151" s="116"/>
       <c r="E151" s="78"/>
       <c r="F151" s="8"/>
       <c r="G151" s="28"/>
@@ -26974,9 +26988,9 @@
     </row>
     <row r="152" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A152" s="57"/>
-      <c r="B152" s="114"/>
-      <c r="C152" s="114"/>
-      <c r="D152" s="114"/>
+      <c r="B152" s="117"/>
+      <c r="C152" s="117"/>
+      <c r="D152" s="117"/>
       <c r="E152" s="77"/>
       <c r="F152" s="9"/>
       <c r="G152" s="27"/>
@@ -26990,9 +27004,9 @@
     </row>
     <row r="153" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A153" s="56"/>
-      <c r="B153" s="112"/>
-      <c r="C153" s="112"/>
-      <c r="D153" s="112"/>
+      <c r="B153" s="115"/>
+      <c r="C153" s="115"/>
+      <c r="D153" s="115"/>
       <c r="E153" s="78"/>
       <c r="F153" s="7"/>
       <c r="G153" s="28"/>
@@ -27006,9 +27020,9 @@
     </row>
     <row r="154" spans="1:14" ht="25" customHeight="1">
       <c r="A154" s="56"/>
-      <c r="B154" s="113"/>
-      <c r="C154" s="113"/>
-      <c r="D154" s="113"/>
+      <c r="B154" s="116"/>
+      <c r="C154" s="116"/>
+      <c r="D154" s="116"/>
       <c r="E154" s="78"/>
       <c r="F154" s="8"/>
       <c r="G154" s="28"/>
@@ -27022,9 +27036,9 @@
     </row>
     <row r="155" spans="1:14" ht="25" customHeight="1">
       <c r="A155" s="56"/>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
+      <c r="B155" s="116"/>
+      <c r="C155" s="116"/>
+      <c r="D155" s="116"/>
       <c r="E155" s="78"/>
       <c r="F155" s="8"/>
       <c r="G155" s="28"/>
@@ -27038,9 +27052,9 @@
     </row>
     <row r="156" spans="1:14" ht="25" customHeight="1">
       <c r="A156" s="56"/>
-      <c r="B156" s="113"/>
-      <c r="C156" s="113"/>
-      <c r="D156" s="113"/>
+      <c r="B156" s="116"/>
+      <c r="C156" s="116"/>
+      <c r="D156" s="116"/>
       <c r="E156" s="78"/>
       <c r="F156" s="8"/>
       <c r="G156" s="28"/>
@@ -27054,9 +27068,9 @@
     </row>
     <row r="157" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A157" s="57"/>
-      <c r="B157" s="114"/>
-      <c r="C157" s="114"/>
-      <c r="D157" s="114"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="117"/>
+      <c r="D157" s="117"/>
       <c r="E157" s="77"/>
       <c r="F157" s="9"/>
       <c r="G157" s="27"/>
@@ -27070,9 +27084,9 @@
     </row>
     <row r="158" spans="1:14" ht="25" customHeight="1" thickTop="1">
       <c r="A158" s="56"/>
-      <c r="B158" s="112"/>
-      <c r="C158" s="112"/>
-      <c r="D158" s="112"/>
+      <c r="B158" s="115"/>
+      <c r="C158" s="115"/>
+      <c r="D158" s="115"/>
       <c r="E158" s="78"/>
       <c r="F158" s="7"/>
       <c r="G158" s="28"/>
@@ -27086,9 +27100,9 @@
     </row>
     <row r="159" spans="1:14" ht="25" customHeight="1">
       <c r="A159" s="56"/>
-      <c r="B159" s="113"/>
-      <c r="C159" s="113"/>
-      <c r="D159" s="113"/>
+      <c r="B159" s="116"/>
+      <c r="C159" s="116"/>
+      <c r="D159" s="116"/>
       <c r="E159" s="78"/>
       <c r="F159" s="8"/>
       <c r="G159" s="28"/>
@@ -27102,9 +27116,9 @@
     </row>
     <row r="160" spans="1:14" ht="25" customHeight="1" thickBot="1">
       <c r="A160" s="57"/>
-      <c r="B160" s="114"/>
-      <c r="C160" s="114"/>
-      <c r="D160" s="114"/>
+      <c r="B160" s="117"/>
+      <c r="C160" s="117"/>
+      <c r="D160" s="117"/>
       <c r="E160" s="74"/>
       <c r="F160" s="9"/>
       <c r="G160" s="51"/>
@@ -27118,9 +27132,9 @@
     </row>
     <row r="161" spans="1:19" ht="25" customHeight="1" thickTop="1">
       <c r="A161" s="56"/>
-      <c r="B161" s="112"/>
-      <c r="C161" s="112"/>
-      <c r="D161" s="112"/>
+      <c r="B161" s="115"/>
+      <c r="C161" s="115"/>
+      <c r="D161" s="115"/>
       <c r="E161" s="78"/>
       <c r="F161" s="7"/>
       <c r="G161" s="28"/>
@@ -27134,9 +27148,9 @@
     </row>
     <row r="162" spans="1:19" ht="25" customHeight="1">
       <c r="A162" s="56"/>
-      <c r="B162" s="113"/>
-      <c r="C162" s="113"/>
-      <c r="D162" s="113"/>
+      <c r="B162" s="116"/>
+      <c r="C162" s="116"/>
+      <c r="D162" s="116"/>
       <c r="E162" s="78"/>
       <c r="F162" s="8"/>
       <c r="G162" s="28"/>
@@ -27150,9 +27164,9 @@
     </row>
     <row r="163" spans="1:19" ht="25" customHeight="1">
       <c r="A163" s="56"/>
-      <c r="B163" s="113"/>
-      <c r="C163" s="113"/>
-      <c r="D163" s="113"/>
+      <c r="B163" s="116"/>
+      <c r="C163" s="116"/>
+      <c r="D163" s="116"/>
       <c r="E163" s="73"/>
       <c r="F163" s="8"/>
       <c r="G163" s="50"/>
@@ -27166,9 +27180,9 @@
     </row>
     <row r="164" spans="1:19" ht="25" customHeight="1">
       <c r="A164" s="56"/>
-      <c r="B164" s="113"/>
-      <c r="C164" s="113"/>
-      <c r="D164" s="113"/>
+      <c r="B164" s="116"/>
+      <c r="C164" s="116"/>
+      <c r="D164" s="116"/>
       <c r="E164" s="73"/>
       <c r="F164" s="8"/>
       <c r="G164" s="50"/>
@@ -27182,9 +27196,9 @@
     </row>
     <row r="165" spans="1:19" ht="25" customHeight="1">
       <c r="A165" s="56"/>
-      <c r="B165" s="113"/>
-      <c r="C165" s="113"/>
-      <c r="D165" s="113"/>
+      <c r="B165" s="116"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="116"/>
       <c r="E165" s="73"/>
       <c r="F165" s="8"/>
       <c r="G165" s="50"/>
@@ -27198,9 +27212,9 @@
     </row>
     <row r="166" spans="1:19" ht="25" customHeight="1">
       <c r="A166" s="56"/>
-      <c r="B166" s="113"/>
-      <c r="C166" s="113"/>
-      <c r="D166" s="113"/>
+      <c r="B166" s="116"/>
+      <c r="C166" s="116"/>
+      <c r="D166" s="116"/>
       <c r="E166" s="73"/>
       <c r="F166" s="8"/>
       <c r="G166" s="50"/>
@@ -27214,9 +27228,9 @@
     </row>
     <row r="167" spans="1:19" ht="25" customHeight="1">
       <c r="A167" s="56"/>
-      <c r="B167" s="113"/>
-      <c r="C167" s="113"/>
-      <c r="D167" s="113"/>
+      <c r="B167" s="116"/>
+      <c r="C167" s="116"/>
+      <c r="D167" s="116"/>
       <c r="E167" s="73"/>
       <c r="F167" s="8"/>
       <c r="G167" s="50"/>
@@ -27230,9 +27244,9 @@
     </row>
     <row r="168" spans="1:19" ht="25" customHeight="1">
       <c r="A168" s="56"/>
-      <c r="B168" s="113"/>
-      <c r="C168" s="113"/>
-      <c r="D168" s="113"/>
+      <c r="B168" s="116"/>
+      <c r="C168" s="116"/>
+      <c r="D168" s="116"/>
       <c r="E168" s="73"/>
       <c r="F168" s="8"/>
       <c r="G168" s="50"/>
@@ -27246,9 +27260,9 @@
     </row>
     <row r="169" spans="1:19" ht="25" customHeight="1">
       <c r="A169" s="56"/>
-      <c r="B169" s="113"/>
-      <c r="C169" s="113"/>
-      <c r="D169" s="113"/>
+      <c r="B169" s="116"/>
+      <c r="C169" s="116"/>
+      <c r="D169" s="116"/>
       <c r="E169" s="73"/>
       <c r="F169" s="8"/>
       <c r="G169" s="50"/>
@@ -27262,9 +27276,9 @@
     </row>
     <row r="170" spans="1:19" ht="25" customHeight="1">
       <c r="A170" s="56"/>
-      <c r="B170" s="113"/>
-      <c r="C170" s="113"/>
-      <c r="D170" s="113"/>
+      <c r="B170" s="116"/>
+      <c r="C170" s="116"/>
+      <c r="D170" s="116"/>
       <c r="E170" s="73"/>
       <c r="F170" s="8"/>
       <c r="G170" s="50"/>
@@ -27278,9 +27292,9 @@
     </row>
     <row r="171" spans="1:19" ht="25" customHeight="1">
       <c r="A171" s="56"/>
-      <c r="B171" s="113"/>
-      <c r="C171" s="113"/>
-      <c r="D171" s="113"/>
+      <c r="B171" s="116"/>
+      <c r="C171" s="116"/>
+      <c r="D171" s="116"/>
       <c r="E171" s="73"/>
       <c r="F171" s="8"/>
       <c r="G171" s="50"/>
@@ -27294,9 +27308,9 @@
     </row>
     <row r="172" spans="1:19" ht="25" customHeight="1">
       <c r="A172" s="56"/>
-      <c r="B172" s="113"/>
-      <c r="C172" s="113"/>
-      <c r="D172" s="113"/>
+      <c r="B172" s="116"/>
+      <c r="C172" s="116"/>
+      <c r="D172" s="116"/>
       <c r="E172" s="73"/>
       <c r="F172" s="8"/>
       <c r="G172" s="50"/>
@@ -27310,9 +27324,9 @@
     </row>
     <row r="173" spans="1:19" ht="25" customHeight="1">
       <c r="A173" s="56"/>
-      <c r="B173" s="113"/>
-      <c r="C173" s="113"/>
-      <c r="D173" s="113"/>
+      <c r="B173" s="116"/>
+      <c r="C173" s="116"/>
+      <c r="D173" s="116"/>
       <c r="E173" s="73"/>
       <c r="F173" s="8"/>
       <c r="G173" s="50"/>
@@ -27326,9 +27340,9 @@
     </row>
     <row r="174" spans="1:19" ht="25" customHeight="1">
       <c r="A174" s="56"/>
-      <c r="B174" s="113"/>
-      <c r="C174" s="113"/>
-      <c r="D174" s="113"/>
+      <c r="B174" s="116"/>
+      <c r="C174" s="116"/>
+      <c r="D174" s="116"/>
       <c r="E174" s="73"/>
       <c r="F174" s="8"/>
       <c r="G174" s="50"/>
@@ -27342,9 +27356,9 @@
     </row>
     <row r="175" spans="1:19" ht="25" customHeight="1" thickBot="1">
       <c r="A175" s="57"/>
-      <c r="B175" s="114"/>
-      <c r="C175" s="114"/>
-      <c r="D175" s="114"/>
+      <c r="B175" s="117"/>
+      <c r="C175" s="117"/>
+      <c r="D175" s="117"/>
       <c r="E175" s="74"/>
       <c r="F175" s="9"/>
       <c r="G175" s="51"/>
@@ -27379,24 +27393,45 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B13:B21"/>
-    <mergeCell ref="C13:C21"/>
-    <mergeCell ref="D13:D21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="M37:M40"/>
-    <mergeCell ref="B41:B59"/>
-    <mergeCell ref="C41:C59"/>
-    <mergeCell ref="D41:D59"/>
+    <mergeCell ref="B161:B175"/>
+    <mergeCell ref="C161:C175"/>
+    <mergeCell ref="D161:D175"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="C153:C157"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="B141:B149"/>
+    <mergeCell ref="C141:C149"/>
+    <mergeCell ref="D141:D149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="B134:B140"/>
+    <mergeCell ref="C134:C140"/>
+    <mergeCell ref="D134:D140"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="C118:C126"/>
+    <mergeCell ref="D118:D126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="D127:D130"/>
+    <mergeCell ref="B95:B105"/>
+    <mergeCell ref="C95:C105"/>
+    <mergeCell ref="D95:D105"/>
+    <mergeCell ref="B106:B117"/>
+    <mergeCell ref="C106:C117"/>
+    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="B87:B94"/>
+    <mergeCell ref="C87:C94"/>
+    <mergeCell ref="D87:D94"/>
     <mergeCell ref="B71:B83"/>
     <mergeCell ref="C71:C83"/>
     <mergeCell ref="D71:D83"/>
@@ -27407,45 +27442,24 @@
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="C62:C70"/>
     <mergeCell ref="D62:D70"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="B87:B94"/>
-    <mergeCell ref="C87:C94"/>
-    <mergeCell ref="D87:D94"/>
-    <mergeCell ref="B95:B105"/>
-    <mergeCell ref="C95:C105"/>
-    <mergeCell ref="D95:D105"/>
-    <mergeCell ref="B106:B117"/>
-    <mergeCell ref="C106:C117"/>
-    <mergeCell ref="D106:D117"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="C118:C126"/>
-    <mergeCell ref="D118:D126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="D127:D130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="B134:B140"/>
-    <mergeCell ref="C134:C140"/>
-    <mergeCell ref="D134:D140"/>
-    <mergeCell ref="B141:B149"/>
-    <mergeCell ref="C141:C149"/>
-    <mergeCell ref="D141:D149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="B161:B175"/>
-    <mergeCell ref="C161:C175"/>
-    <mergeCell ref="D161:D175"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="C153:C157"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="I37:I40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="M37:M40"/>
+    <mergeCell ref="B41:B59"/>
+    <mergeCell ref="C41:C59"/>
+    <mergeCell ref="D41:D59"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -27465,6 +27479,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D1955CD168AAC14C819F920356231C42" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c6f91e9e183813820c4502b10801dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="572875e0-2005-4f9c-9506-c68f9f744b62" xmlns:ns4="2b9b6cd5-951d-454f-94a9-ffa9219aaa40" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dceb2d5ed2711af0c174551cf76fa19b" ns3:_="" ns4:_="">
     <xsd:import namespace="572875e0-2005-4f9c-9506-c68f9f744b62"/>
@@ -27687,12 +27707,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A832EF-1532-484C-9DE1-0C6D83D0A316}">
   <ds:schemaRefs>
@@ -27702,6 +27716,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A633E3D6-5124-4560-9395-FBA3BD069200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2b9b6cd5-951d-454f-94a9-ffa9219aaa40"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="572875e0-2005-4f9c-9506-c68f9f744b62"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36F5A3D-695E-4142-9AA1-F895D3D71DD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27718,21 +27749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A633E3D6-5124-4560-9395-FBA3BD069200}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2b9b6cd5-951d-454f-94a9-ffa9219aaa40"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="572875e0-2005-4f9c-9506-c68f9f744b62"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>